--- a/data/evacuation_space/data.xlsx
+++ b/data/evacuation_space/data.xlsx
@@ -462,13 +462,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2">
         <v>34.34753333</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
         <v>134.03003917</v>
       </c>
       <c r="D2" t="str">
@@ -510,10 +510,10 @@
       <c r="P2" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q2">
         <v>1.7</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2">
         <v>238</v>
       </c>
       <c r="S2" t="str">
@@ -521,13 +521,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3">
         <v>34.34583944</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
         <v>134.04099361</v>
       </c>
       <c r="D3" t="str">
@@ -569,10 +569,10 @@
       <c r="P3" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="Q3">
         <v>2.9</v>
       </c>
-      <c r="R3" t="str">
+      <c r="R3">
         <v>429</v>
       </c>
       <c r="S3" t="str">
@@ -580,13 +580,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4">
         <v>34.34377306</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <v>134.04579889</v>
       </c>
       <c r="D4" t="str">
@@ -628,10 +628,10 @@
       <c r="P4" t="str">
         <v>埋蔵文化財センター</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="Q4">
         <v>2.5</v>
       </c>
-      <c r="R4" t="str">
+      <c r="R4">
         <v>315</v>
       </c>
       <c r="S4" t="str">
@@ -639,13 +639,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5">
         <v>34.33752361</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <v>134.03989417</v>
       </c>
       <c r="D5" t="str">
@@ -687,10 +687,10 @@
       <c r="P5" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="Q5">
         <v>4.1</v>
       </c>
-      <c r="R5" t="str">
+      <c r="R5">
         <v>351</v>
       </c>
       <c r="S5" t="str">
@@ -698,13 +698,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6">
         <v>34.33083306</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
         <v>134.05012111</v>
       </c>
       <c r="D6" t="str">
@@ -746,10 +746,10 @@
       <c r="P6" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="Q6">
         <v>6.2</v>
       </c>
-      <c r="R6" t="str">
+      <c r="R6">
         <v>429</v>
       </c>
       <c r="S6" t="str">
@@ -757,13 +757,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7">
         <v>34.33344111</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
         <v>134.05785361</v>
       </c>
       <c r="D7" t="str">
@@ -805,10 +805,10 @@
       <c r="P7" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="Q7">
         <v>2.5</v>
       </c>
-      <c r="R7" t="str">
+      <c r="R7">
         <v>310</v>
       </c>
       <c r="S7" t="str">
@@ -816,13 +816,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8">
         <v>34.34125139</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8">
         <v>134.05681472</v>
       </c>
       <c r="D8" t="str">
@@ -864,10 +864,10 @@
       <c r="P8" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="Q8">
         <v>1.6</v>
       </c>
-      <c r="R8" t="str">
+      <c r="R8">
         <v>279</v>
       </c>
       <c r="S8" t="str">
@@ -875,13 +875,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9">
         <v>34.34375389</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9">
         <v>134.05616194</v>
       </c>
       <c r="D9" t="str">
@@ -923,10 +923,10 @@
       <c r="P9" t="str">
         <v>総合教育センター</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="Q9">
         <v>2</v>
       </c>
-      <c r="R9" t="str">
+      <c r="R9">
         <v>310</v>
       </c>
       <c r="S9" t="str">
@@ -934,13 +934,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10">
         <v>34.31556472</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10">
         <v>134.02853472</v>
       </c>
       <c r="D10" t="str">
@@ -982,10 +982,10 @@
       <c r="P10" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="Q10">
         <v>16.3</v>
       </c>
-      <c r="R10" t="str">
+      <c r="R10">
         <v>306</v>
       </c>
       <c r="S10" t="str">
@@ -993,13 +993,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11">
         <v>34.31229917</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11">
         <v>134.05171333</v>
       </c>
       <c r="D11" t="str">
@@ -1041,10 +1041,10 @@
       <c r="P11" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="Q11">
         <v>13.2</v>
       </c>
-      <c r="R11" t="str">
+      <c r="R11">
         <v>393</v>
       </c>
       <c r="S11" t="str">
@@ -1052,13 +1052,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12">
         <v>34.30652444</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12">
         <v>134.04418639</v>
       </c>
       <c r="D12" t="str">
@@ -1100,10 +1100,10 @@
       <c r="P12" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q12" t="str">
+      <c r="Q12">
         <v>19.9</v>
       </c>
-      <c r="R12" t="str">
+      <c r="R12">
         <v>393</v>
       </c>
       <c r="S12" t="str">
@@ -1111,13 +1111,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13">
         <v>34.32068722</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13">
         <v>134.06164556</v>
       </c>
       <c r="D13" t="str">
@@ -1159,10 +1159,10 @@
       <c r="P13" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="Q13">
         <v>9.8</v>
       </c>
-      <c r="R13" t="str">
+      <c r="R13">
         <v>306</v>
       </c>
       <c r="S13" t="str">
@@ -1170,13 +1170,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14">
         <v>34.32505639</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14">
         <v>134.07648556</v>
       </c>
       <c r="D14" t="str">
@@ -1218,10 +1218,10 @@
       <c r="P14" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="Q14">
         <v>1.7</v>
       </c>
-      <c r="R14" t="str">
+      <c r="R14">
         <v>324</v>
       </c>
       <c r="S14" t="str">
@@ -1229,13 +1229,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15">
         <v>34.33625528</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15">
         <v>134.08043778</v>
       </c>
       <c r="D15" t="str">
@@ -1277,10 +1277,10 @@
       <c r="P15" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="Q15">
         <v>1</v>
       </c>
-      <c r="R15" t="str">
+      <c r="R15">
         <v>274</v>
       </c>
       <c r="S15" t="str">
@@ -1288,13 +1288,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16">
         <v>34.32080417</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16">
         <v>134.07471944</v>
       </c>
       <c r="D16" t="str">
@@ -1336,10 +1336,10 @@
       <c r="P16" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="Q16">
         <v>3.2</v>
       </c>
-      <c r="R16" t="str">
+      <c r="R16">
         <v>324</v>
       </c>
       <c r="S16" t="str">
@@ -1347,13 +1347,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17">
         <v>34.33228972</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17">
         <v>134.10677444</v>
       </c>
       <c r="D17" t="str">
@@ -1395,10 +1395,10 @@
       <c r="P17" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="Q17">
         <v>4.1</v>
       </c>
-      <c r="R17" t="str">
+      <c r="R17">
         <v>314</v>
       </c>
       <c r="S17" t="str">
@@ -1406,13 +1406,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18">
         <v>34.32686222</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18">
         <v>134.09864194</v>
       </c>
       <c r="D18" t="str">
@@ -1454,10 +1454,10 @@
       <c r="P18" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q18" t="str">
+      <c r="Q18">
         <v>3.3</v>
       </c>
-      <c r="R18" t="str">
+      <c r="R18">
         <v>277</v>
       </c>
       <c r="S18" t="str">
@@ -1465,13 +1465,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19">
         <v>34.347035</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19">
         <v>134.09963306</v>
       </c>
       <c r="D19" t="str">
@@ -1513,10 +1513,10 @@
       <c r="P19" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="Q19">
         <v>16.4</v>
       </c>
-      <c r="R19" t="str">
+      <c r="R19">
         <v>405</v>
       </c>
       <c r="S19" t="str">
@@ -1524,13 +1524,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20">
         <v>34.350915</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20">
         <v>134.09065306</v>
       </c>
       <c r="D20" t="str">
@@ -1572,10 +1572,10 @@
       <c r="P20" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="Q20">
         <v>2.7</v>
       </c>
-      <c r="R20" t="str">
+      <c r="R20">
         <v>396</v>
       </c>
       <c r="S20" t="str">
@@ -1583,13 +1583,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21">
         <v>34.3537625</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21">
         <v>134.11598694</v>
       </c>
       <c r="D21" t="str">
@@ -1631,10 +1631,10 @@
       <c r="P21" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="Q21">
         <v>2.5</v>
       </c>
-      <c r="R21" t="str">
+      <c r="R21">
         <v>247</v>
       </c>
       <c r="S21" t="str">
@@ -1642,13 +1642,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22">
         <v>34.29588</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22">
         <v>134.11301944</v>
       </c>
       <c r="D22" t="str">
@@ -1690,10 +1690,10 @@
       <c r="P22" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q22" t="str">
+      <c r="Q22">
         <v>13.3</v>
       </c>
-      <c r="R22" t="str">
+      <c r="R22">
         <v>315</v>
       </c>
       <c r="S22" t="str">
@@ -1701,13 +1701,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23">
         <v>34.30559528</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23">
         <v>134.09283194</v>
       </c>
       <c r="D23" t="str">
@@ -1749,10 +1749,10 @@
       <c r="P23" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="Q23">
         <v>7.8</v>
       </c>
-      <c r="R23" t="str">
+      <c r="R23">
         <v>396</v>
       </c>
       <c r="S23" t="str">
@@ -1760,13 +1760,13 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24">
         <v>34.30118417</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24">
         <v>134.07016472</v>
       </c>
       <c r="D24" t="str">
@@ -1808,10 +1808,10 @@
       <c r="P24" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="Q24">
         <v>13.8</v>
       </c>
-      <c r="R24" t="str">
+      <c r="R24">
         <v>315</v>
       </c>
       <c r="S24" t="str">
@@ -1819,13 +1819,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25">
         <v>34.27360944</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25">
         <v>134.06860472</v>
       </c>
       <c r="D25" t="str">
@@ -1867,10 +1867,10 @@
       <c r="P25" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="Q25">
         <v>28.4</v>
       </c>
-      <c r="R25" t="str">
+      <c r="R25">
         <v>234</v>
       </c>
       <c r="S25" t="str">
@@ -1878,13 +1878,13 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26">
         <v>34.27413944</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26">
         <v>134.04763694</v>
       </c>
       <c r="D26" t="str">
@@ -1926,10 +1926,10 @@
       <c r="P26" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q26" t="str">
+      <c r="Q26">
         <v>41.2</v>
       </c>
-      <c r="R26" t="str">
+      <c r="R26">
         <v>405</v>
       </c>
       <c r="S26" t="str">
@@ -1937,13 +1937,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27">
         <v>34.29231528</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27">
         <v>134.05300278</v>
       </c>
       <c r="D27" t="str">
@@ -1985,10 +1985,10 @@
       <c r="P27" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q27" t="str">
+      <c r="Q27">
         <v>25.2</v>
       </c>
-      <c r="R27" t="str">
+      <c r="R27">
         <v>315</v>
       </c>
       <c r="S27" t="str">
@@ -1996,13 +1996,13 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B28">
         <v>34.29075917</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28">
         <v>134.02443861</v>
       </c>
       <c r="D28" t="str">
@@ -2044,10 +2044,10 @@
       <c r="P28" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q28" t="str">
+      <c r="Q28">
         <v>33.5</v>
       </c>
-      <c r="R28" t="str">
+      <c r="R28">
         <v>405</v>
       </c>
       <c r="S28" t="str">
@@ -2055,13 +2055,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29">
         <v>34.28495667</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29">
         <v>134.00452389</v>
       </c>
       <c r="D29" t="str">
@@ -2103,10 +2103,10 @@
       <c r="P29" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q29" t="str">
+      <c r="Q29">
         <v>38</v>
       </c>
-      <c r="R29" t="str">
+      <c r="R29">
         <v>301</v>
       </c>
       <c r="S29" t="str">
@@ -2114,13 +2114,13 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30">
         <v>34.26712278</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30">
         <v>134.00698528</v>
       </c>
       <c r="D30" t="str">
@@ -2162,10 +2162,10 @@
       <c r="P30" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q30" t="str">
+      <c r="Q30">
         <v>53.4</v>
       </c>
-      <c r="R30" t="str">
+      <c r="R30">
         <v>315</v>
       </c>
       <c r="S30" t="str">
@@ -2173,13 +2173,13 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31">
         <v>34.30011306</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31">
         <v>133.99381611</v>
       </c>
       <c r="D31" t="str">
@@ -2221,10 +2221,10 @@
       <c r="P31" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q31" t="str">
+      <c r="Q31">
         <v>26</v>
       </c>
-      <c r="R31" t="str">
+      <c r="R31">
         <v>405</v>
       </c>
       <c r="S31" t="str">
@@ -2232,13 +2232,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32">
         <v>34.32895444</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32">
         <v>134.0047975</v>
       </c>
       <c r="D32" t="str">
@@ -2280,10 +2280,10 @@
       <c r="P32" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q32" t="str">
+      <c r="Q32">
         <v>7.1</v>
       </c>
-      <c r="R32" t="str">
+      <c r="R32">
         <v>405</v>
       </c>
       <c r="S32" t="str">
@@ -2291,13 +2291,13 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33">
         <v>34.32669889</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33">
         <v>133.98803778</v>
       </c>
       <c r="D33" t="str">
@@ -2339,10 +2339,10 @@
       <c r="P33" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q33" t="str">
+      <c r="Q33">
         <v>21.9</v>
       </c>
-      <c r="R33" t="str">
+      <c r="R33">
         <v>315</v>
       </c>
       <c r="S33" t="str">
@@ -2350,13 +2350,13 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B34">
         <v>34.34546083</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34">
         <v>133.99790028</v>
       </c>
       <c r="D34" t="str">
@@ -2398,10 +2398,10 @@
       <c r="P34" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q34" t="str">
+      <c r="Q34">
         <v>2.3</v>
       </c>
-      <c r="R34" t="str">
+      <c r="R34">
         <v>464</v>
       </c>
       <c r="S34" t="str">
@@ -2409,13 +2409,13 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="str">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B35">
         <v>34.35779194</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35">
         <v>133.96827194</v>
       </c>
       <c r="D35" t="str">
@@ -2457,10 +2457,10 @@
       <c r="P35" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q35" t="str">
+      <c r="Q35">
         <v>25.4</v>
       </c>
-      <c r="R35" t="str">
+      <c r="R35">
         <v>315</v>
       </c>
       <c r="S35" t="str">
@@ -2468,13 +2468,13 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36">
         <v>34.39200944</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36">
         <v>134.05349667</v>
       </c>
       <c r="D36" t="str">
@@ -2516,10 +2516,10 @@
       <c r="P36" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q36" t="str">
+      <c r="Q36">
         <v>5.3</v>
       </c>
-      <c r="R36" t="str">
+      <c r="R36">
         <v>245</v>
       </c>
       <c r="S36" t="str">
@@ -2527,13 +2527,13 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37">
         <v>34.42010361</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37">
         <v>134.05682333</v>
       </c>
       <c r="D37" t="str">
@@ -2575,10 +2575,10 @@
       <c r="P37" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q37" t="str">
+      <c r="Q37">
         <v>12.6</v>
       </c>
-      <c r="R37" t="str">
+      <c r="R37">
         <v>245</v>
       </c>
       <c r="S37" t="str">
@@ -2586,13 +2586,13 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="str">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38">
         <v>34.27599278</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38">
         <v>134.08886111</v>
       </c>
       <c r="D38" t="str">
@@ -2634,10 +2634,10 @@
       <c r="P38" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q38" t="str">
+      <c r="Q38">
         <v>21.3</v>
       </c>
-      <c r="R38" t="str">
+      <c r="R38">
         <v>315</v>
       </c>
       <c r="S38" t="str">
@@ -2645,13 +2645,13 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39">
         <v>34.27514056</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39">
         <v>134.10269611</v>
       </c>
       <c r="D39" t="str">
@@ -2693,10 +2693,10 @@
       <c r="P39" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q39" t="str">
+      <c r="Q39">
         <v>18.1</v>
       </c>
-      <c r="R39" t="str">
+      <c r="R39">
         <v>315</v>
       </c>
       <c r="S39" t="str">
@@ -2704,13 +2704,13 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40">
         <v>34.23884139</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40">
         <v>134.07888833</v>
       </c>
       <c r="D40" t="str">
@@ -2752,10 +2752,10 @@
       <c r="P40" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q40" t="str">
+      <c r="Q40">
         <v>45.8</v>
       </c>
-      <c r="R40" t="str">
+      <c r="R40">
         <v>229</v>
       </c>
       <c r="S40" t="str">
@@ -2763,13 +2763,13 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41">
         <v>34.23871667</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41">
         <v>134.09762556</v>
       </c>
       <c r="D41" t="str">
@@ -2811,10 +2811,10 @@
       <c r="P41" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q41" t="str">
+      <c r="Q41">
         <v>50.7</v>
       </c>
-      <c r="R41" t="str">
+      <c r="R41">
         <v>245</v>
       </c>
       <c r="S41" t="str">
@@ -2822,13 +2822,13 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="str">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42">
         <v>34.19368583</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42">
         <v>134.09807139</v>
       </c>
       <c r="D42" t="str">
@@ -2870,10 +2870,10 @@
       <c r="P42" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q42" t="str">
+      <c r="Q42">
         <v>323</v>
       </c>
-      <c r="R42" t="str">
+      <c r="R42">
         <v>168</v>
       </c>
       <c r="S42" t="str">
@@ -2881,13 +2881,13 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="str">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43">
         <v>34.32629472</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43">
         <v>134.05290722</v>
       </c>
       <c r="D43" t="str">
@@ -2929,10 +2929,10 @@
       <c r="P43" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q43" t="str">
+      <c r="Q43">
         <v>6.2</v>
       </c>
-      <c r="R43" t="str">
+      <c r="R43">
         <v>390</v>
       </c>
       <c r="S43" t="str">
@@ -2940,13 +2940,13 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="str">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44">
         <v>34.3410425</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44">
         <v>134.03407222</v>
       </c>
       <c r="D44" t="str">
@@ -2988,10 +2988,10 @@
       <c r="P44" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q44" t="str">
+      <c r="Q44">
         <v>2.1</v>
       </c>
-      <c r="R44" t="str">
+      <c r="R44">
         <v>477</v>
       </c>
       <c r="S44" t="str">
@@ -2999,13 +2999,13 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="str">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45">
         <v>34.33427194</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45">
         <v>134.06648361</v>
       </c>
       <c r="D45" t="str">
@@ -3047,10 +3047,10 @@
       <c r="P45" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q45" t="str">
+      <c r="Q45">
         <v>1.6</v>
       </c>
-      <c r="R45" t="str">
+      <c r="R45">
         <v>495</v>
       </c>
       <c r="S45" t="str">
@@ -3058,13 +3058,13 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="str">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46">
         <v>34.33868806</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46">
         <v>134.06216972</v>
       </c>
       <c r="D46" t="str">
@@ -3106,10 +3106,10 @@
       <c r="P46" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q46" t="str">
+      <c r="Q46">
         <v>3.1</v>
       </c>
-      <c r="R46" t="str">
+      <c r="R46">
         <v>721</v>
       </c>
       <c r="S46" t="str">
@@ -3117,17 +3117,17 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="str">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B47">
         <v>34.31513694</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47">
         <v>134.02639333</v>
       </c>
       <c r="D47" t="str">
-        <v>鶴尾中学校</v>
+        <v>鶴尾中学校跡施設</v>
       </c>
       <c r="E47" t="str">
         <v>高松市松並町639-1</v>
@@ -3165,10 +3165,10 @@
       <c r="P47" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q47" t="str">
+      <c r="Q47">
         <v>17.1</v>
       </c>
-      <c r="R47" t="str">
+      <c r="R47">
         <v>375</v>
       </c>
       <c r="S47" t="str">
@@ -3176,13 +3176,13 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="str">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B48">
         <v>34.34105528</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48">
         <v>134.10488833</v>
       </c>
       <c r="D48" t="str">
@@ -3224,10 +3224,10 @@
       <c r="P48" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q48" t="str">
+      <c r="Q48">
         <v>1.8</v>
       </c>
-      <c r="R48" t="str">
+      <c r="R48">
         <v>362</v>
       </c>
       <c r="S48" t="str">
@@ -3235,13 +3235,13 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="str">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B49">
         <v>34.30690056</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49">
         <v>134.08575778</v>
       </c>
       <c r="D49" t="str">
@@ -3283,10 +3283,10 @@
       <c r="P49" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q49" t="str">
+      <c r="Q49">
         <v>7.6</v>
       </c>
-      <c r="R49" t="str">
+      <c r="R49">
         <v>366</v>
       </c>
       <c r="S49" t="str">
@@ -3294,13 +3294,13 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="str">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B50">
         <v>34.28317167</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50">
         <v>134.05085028</v>
       </c>
       <c r="D50" t="str">
@@ -3342,10 +3342,10 @@
       <c r="P50" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q50" t="str">
+      <c r="Q50">
         <v>32</v>
       </c>
-      <c r="R50" t="str">
+      <c r="R50">
         <v>354</v>
       </c>
       <c r="S50" t="str">
@@ -3353,13 +3353,13 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B51">
         <v>34.34179167</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51">
         <v>133.99928083</v>
       </c>
       <c r="D51" t="str">
@@ -3401,10 +3401,10 @@
       <c r="P51" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q51" t="str">
+      <c r="Q51">
         <v>2.6</v>
       </c>
-      <c r="R51" t="str">
+      <c r="R51">
         <v>360</v>
       </c>
       <c r="S51" t="str">
@@ -3412,13 +3412,13 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="str">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B52">
         <v>34.29222583</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C52">
         <v>134.0251275</v>
       </c>
       <c r="D52" t="str">
@@ -3460,10 +3460,10 @@
       <c r="P52" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q52" t="str">
+      <c r="Q52">
         <v>32.3</v>
       </c>
-      <c r="R52" t="str">
+      <c r="R52">
         <v>396</v>
       </c>
       <c r="S52" t="str">
@@ -3471,13 +3471,13 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="str">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B53">
         <v>34.29535556</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C53">
         <v>134.00882028</v>
       </c>
       <c r="D53" t="str">
@@ -3519,10 +3519,10 @@
       <c r="P53" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q53" t="str">
+      <c r="Q53">
         <v>30.3</v>
       </c>
-      <c r="R53" t="str">
+      <c r="R53">
         <v>354</v>
       </c>
       <c r="S53" t="str">
@@ -3530,13 +3530,13 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54">
         <v>34.35771139</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C54">
         <v>133.96664167</v>
       </c>
       <c r="D54" t="str">
@@ -3578,10 +3578,10 @@
       <c r="P54" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q54" t="str">
+      <c r="Q54">
         <v>32</v>
       </c>
-      <c r="R54" t="str">
+      <c r="R54">
         <v>396</v>
       </c>
       <c r="S54" t="str">
@@ -3589,13 +3589,13 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B55">
         <v>34.26812167</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C55">
         <v>134.09285278</v>
       </c>
       <c r="D55" t="str">
@@ -3637,10 +3637,10 @@
       <c r="P55" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q55" t="str">
+      <c r="Q55">
         <v>25.4</v>
       </c>
-      <c r="R55" t="str">
+      <c r="R55">
         <v>362</v>
       </c>
       <c r="S55" t="str">
@@ -3648,13 +3648,13 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B56">
         <v>34.30634139</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C56">
         <v>134.04597778</v>
       </c>
       <c r="D56" t="str">
@@ -3696,10 +3696,10 @@
       <c r="P56" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q56" t="str">
+      <c r="Q56">
         <v>18.9</v>
       </c>
-      <c r="R56" t="str">
+      <c r="R56">
         <v>439</v>
       </c>
       <c r="S56" t="str">
@@ -3707,13 +3707,13 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="str">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B57">
         <v>34.33263944</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C57">
         <v>134.10308861</v>
       </c>
       <c r="D57" t="str">
@@ -3755,10 +3755,10 @@
       <c r="P57" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q57" t="str">
+      <c r="Q57">
         <v>2.5</v>
       </c>
-      <c r="R57" t="str">
+      <c r="R57">
         <v>345</v>
       </c>
       <c r="S57" t="str">
@@ -3766,13 +3766,13 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B58">
         <v>34.31392</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C58">
         <v>134.06739</v>
       </c>
       <c r="D58" t="str">
@@ -3814,10 +3814,10 @@
       <c r="P58" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q58" t="str">
+      <c r="Q58">
         <v>5.8</v>
       </c>
-      <c r="R58" t="str">
+      <c r="R58">
         <v>345</v>
       </c>
       <c r="S58" t="str">
@@ -3825,13 +3825,13 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="str">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B59">
         <v>34.29923639</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C59">
         <v>134.03327083</v>
       </c>
       <c r="D59" t="str">
@@ -3873,10 +3873,10 @@
       <c r="P59" t="str">
         <v>香川大学</v>
       </c>
-      <c r="Q59" t="str">
+      <c r="Q59">
         <v>26.1</v>
       </c>
-      <c r="R59" t="str">
+      <c r="R59">
         <v>370</v>
       </c>
       <c r="S59" t="str">
@@ -3884,13 +3884,13 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="str">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="str">
+      <c r="B60">
         <v>34.32800556</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C60">
         <v>134.05254889</v>
       </c>
       <c r="D60" t="str">
@@ -3932,10 +3932,10 @@
       <c r="P60" t="str">
         <v>高松第一高校</v>
       </c>
-      <c r="Q60" t="str">
+      <c r="Q60">
         <v>5.2</v>
       </c>
-      <c r="R60" t="str">
+      <c r="R60">
         <v>953</v>
       </c>
       <c r="S60" t="str">
@@ -3943,13 +3943,13 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="str">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B61">
         <v>34.285377</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C61">
         <v>134.023029</v>
       </c>
       <c r="D61" t="str">
@@ -3991,10 +3991,10 @@
       <c r="P61" t="str">
         <v>県高校教育課</v>
       </c>
-      <c r="Q61" t="str">
+      <c r="Q61">
         <v>37.5</v>
       </c>
-      <c r="R61" t="str">
+      <c r="R61">
         <v>600</v>
       </c>
       <c r="S61" t="str">
@@ -4002,13 +4002,13 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="str">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B62">
         <v>34.29496222</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C62">
         <v>134.05620222</v>
       </c>
       <c r="D62" t="str">
@@ -4050,10 +4050,10 @@
       <c r="P62" t="str">
         <v>県高校教育課</v>
       </c>
-      <c r="Q62" t="str">
+      <c r="Q62">
         <v>23.2</v>
       </c>
-      <c r="R62" t="str">
+      <c r="R62">
         <v>760</v>
       </c>
       <c r="S62" t="str">
@@ -4061,13 +4061,13 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="str">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B63">
         <v>34.3475725</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C63">
         <v>134.03245556</v>
       </c>
       <c r="D63" t="str">
@@ -4109,10 +4109,10 @@
       <c r="P63" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q63" t="str">
+      <c r="Q63">
         <v>1.8</v>
       </c>
-      <c r="R63" t="str">
+      <c r="R63">
         <v>101</v>
       </c>
       <c r="S63" t="str">
@@ -4120,13 +4120,13 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="str">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B64">
         <v>34.34451167</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C64">
         <v>134.03650806</v>
       </c>
       <c r="D64" t="str">
@@ -4168,10 +4168,10 @@
       <c r="P64" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q64" t="str">
+      <c r="Q64">
         <v>1.5</v>
       </c>
-      <c r="R64" t="str">
+      <c r="R64">
         <v>93</v>
       </c>
       <c r="S64" t="str">
@@ -4179,20 +4179,20 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="str">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B65">
         <v>34.34355083</v>
       </c>
-      <c r="C65" t="str">
+      <c r="C65">
         <v>134.04488778</v>
       </c>
       <c r="D65" t="str">
         <v>四番丁コミュニティセンター</v>
       </c>
       <c r="E65" t="str">
-        <v>高松市番町二丁目３－５</v>
+        <v>高松市番町二丁目３−５</v>
       </c>
       <c r="F65" t="str">
         <v>087-851-8479</v>
@@ -4227,10 +4227,10 @@
       <c r="P65" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q65" t="str">
+      <c r="Q65">
         <v>2.8</v>
       </c>
-      <c r="R65" t="str">
+      <c r="R65">
         <v>94</v>
       </c>
       <c r="S65" t="str">
@@ -4238,13 +4238,13 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="str">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="str">
+      <c r="B66">
         <v>34.33958444</v>
       </c>
-      <c r="C66" t="str">
+      <c r="C66">
         <v>134.03529167</v>
       </c>
       <c r="D66" t="str">
@@ -4286,10 +4286,10 @@
       <c r="P66" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q66" t="str">
+      <c r="Q66">
         <v>2.5</v>
       </c>
-      <c r="R66" t="str">
+      <c r="R66">
         <v>111</v>
       </c>
       <c r="S66" t="str">
@@ -4297,13 +4297,13 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="str">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="str">
+      <c r="B67">
         <v>34.32886944</v>
       </c>
-      <c r="C67" t="str">
+      <c r="C67">
         <v>134.04799917</v>
       </c>
       <c r="D67" t="str">
@@ -4345,10 +4345,10 @@
       <c r="P67" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q67" t="str">
+      <c r="Q67">
         <v>7.7</v>
       </c>
-      <c r="R67" t="str">
+      <c r="R67">
         <v>86</v>
       </c>
       <c r="S67" t="str">
@@ -4356,13 +4356,13 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="str">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B68">
         <v>34.33607972</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C68">
         <v>134.05686194</v>
       </c>
       <c r="D68" t="str">
@@ -4404,10 +4404,10 @@
       <c r="P68" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q68" t="str">
+      <c r="Q68">
         <v>1.7</v>
       </c>
-      <c r="R68" t="str">
+      <c r="R68">
         <v>112</v>
       </c>
       <c r="S68" t="str">
@@ -4415,13 +4415,13 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="str">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B69">
         <v>34.34022667</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C69">
         <v>134.06502778</v>
       </c>
       <c r="D69" t="str">
@@ -4463,10 +4463,10 @@
       <c r="P69" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q69" t="str">
+      <c r="Q69">
         <v>1.5</v>
       </c>
-      <c r="R69" t="str">
+      <c r="R69">
         <v>123</v>
       </c>
       <c r="S69" t="str">
@@ -4474,13 +4474,13 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="str">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="str">
+      <c r="B70">
         <v>34.34125139</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C70">
         <v>134.05681472</v>
       </c>
       <c r="D70" t="str">
@@ -4522,10 +4522,10 @@
       <c r="P70" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q70" t="str">
+      <c r="Q70">
         <v>1.6</v>
       </c>
-      <c r="R70" t="str">
+      <c r="R70">
         <v>122</v>
       </c>
       <c r="S70" t="str">
@@ -4533,13 +4533,13 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="str">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="str">
+      <c r="B71">
         <v>34.34741472</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C71">
         <v>134.05595611</v>
       </c>
       <c r="D71" t="str">
@@ -4581,10 +4581,10 @@
       <c r="P71" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q71" t="str">
+      <c r="Q71">
         <v>2.2</v>
       </c>
-      <c r="R71" t="str">
+      <c r="R71">
         <v>95</v>
       </c>
       <c r="S71" t="str">
@@ -4592,13 +4592,13 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="str">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B72">
         <v>34.31382333</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C72">
         <v>134.03022889</v>
       </c>
       <c r="D72" t="str">
@@ -4640,10 +4640,10 @@
       <c r="P72" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q72" t="str">
+      <c r="Q72">
         <v>18.4</v>
       </c>
-      <c r="R72" t="str">
+      <c r="R72">
         <v>84</v>
       </c>
       <c r="S72" t="str">
@@ -4651,13 +4651,13 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="str">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="str">
+      <c r="B73">
         <v>34.318641</v>
       </c>
-      <c r="C73" t="str">
+      <c r="C73">
         <v>134.054399</v>
       </c>
       <c r="D73" t="str">
@@ -4699,10 +4699,10 @@
       <c r="P73" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q73" t="str">
+      <c r="Q73">
         <v>8.8</v>
       </c>
-      <c r="R73" t="str">
+      <c r="R73">
         <v>100</v>
       </c>
       <c r="S73" t="str">
@@ -4710,13 +4710,13 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="str">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="str">
+      <c r="B74">
         <v>34.30185833</v>
       </c>
-      <c r="C74" t="str">
+      <c r="C74">
         <v>134.04128111</v>
       </c>
       <c r="D74" t="str">
@@ -4758,10 +4758,10 @@
       <c r="P74" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q74" t="str">
+      <c r="Q74">
         <v>23.1</v>
       </c>
-      <c r="R74" t="str">
+      <c r="R74">
         <v>81</v>
       </c>
       <c r="S74" t="str">
@@ -4769,13 +4769,13 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="str">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B75">
         <v>34.31384917</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C75">
         <v>134.06404833</v>
       </c>
       <c r="D75" t="str">
@@ -4817,10 +4817,10 @@
       <c r="P75" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q75" t="str">
+      <c r="Q75">
         <v>8.4</v>
       </c>
-      <c r="R75" t="str">
+      <c r="R75">
         <v>81</v>
       </c>
       <c r="S75" t="str">
@@ -4828,13 +4828,13 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="str">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B76">
         <v>34.326186</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C76">
         <v>134.076753</v>
       </c>
       <c r="D76" t="str">
@@ -4876,10 +4876,10 @@
       <c r="P76" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q76" t="str">
+      <c r="Q76">
         <v>20.6</v>
       </c>
-      <c r="R76" t="str">
+      <c r="R76">
         <v>104</v>
       </c>
       <c r="S76" t="str">
@@ -4887,13 +4887,13 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="str">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="str">
+      <c r="B77">
         <v>34.33559694</v>
       </c>
-      <c r="C77" t="str">
+      <c r="C77">
         <v>134.07944333</v>
       </c>
       <c r="D77" t="str">
@@ -4935,10 +4935,10 @@
       <c r="P77" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q77" t="str">
+      <c r="Q77">
         <v>1</v>
       </c>
-      <c r="R77" t="str">
+      <c r="R77">
         <v>71</v>
       </c>
       <c r="S77" t="str">
@@ -4946,13 +4946,13 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="str">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="str">
+      <c r="B78">
         <v>34.31924611</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C78">
         <v>134.07618028</v>
       </c>
       <c r="D78" t="str">
@@ -4994,10 +4994,10 @@
       <c r="P78" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q78" t="str">
+      <c r="Q78">
         <v>3</v>
       </c>
-      <c r="R78" t="str">
+      <c r="R78">
         <v>74</v>
       </c>
       <c r="S78" t="str">
@@ -5005,13 +5005,13 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="str">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="str">
+      <c r="B79">
         <v>34.33566417</v>
       </c>
-      <c r="C79" t="str">
+      <c r="C79">
         <v>134.10751306</v>
       </c>
       <c r="D79" t="str">
@@ -5053,10 +5053,10 @@
       <c r="P79" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q79" t="str">
+      <c r="Q79">
         <v>2.9</v>
       </c>
-      <c r="R79" t="str">
+      <c r="R79">
         <v>90</v>
       </c>
       <c r="S79" t="str">
@@ -5064,13 +5064,13 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="str">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B80">
         <v>34.32697333</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C80">
         <v>134.09171194</v>
       </c>
       <c r="D80" t="str">
@@ -5112,10 +5112,10 @@
       <c r="P80" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q80" t="str">
+      <c r="Q80">
         <v>2.4</v>
       </c>
-      <c r="R80" t="str">
+      <c r="R80">
         <v>69</v>
       </c>
       <c r="S80" t="str">
@@ -5123,13 +5123,13 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="str">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B81">
         <v>34.34371056</v>
       </c>
-      <c r="C81" t="str">
+      <c r="C81">
         <v>134.10129944</v>
       </c>
       <c r="D81" t="str">
@@ -5171,10 +5171,10 @@
       <c r="P81" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q81" t="str">
+      <c r="Q81">
         <v>2.2</v>
       </c>
-      <c r="R81" t="str">
+      <c r="R81">
         <v>61</v>
       </c>
       <c r="S81" t="str">
@@ -5182,13 +5182,13 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="str">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="str">
+      <c r="B82">
         <v>34.35227583</v>
       </c>
-      <c r="C82" t="str">
+      <c r="C82">
         <v>134.08916139</v>
       </c>
       <c r="D82" t="str">
@@ -5230,10 +5230,10 @@
       <c r="P82" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q82" t="str">
+      <c r="Q82">
         <v>3</v>
       </c>
-      <c r="R82" t="str">
+      <c r="R82">
         <v>80</v>
       </c>
       <c r="S82" t="str">
@@ -5241,13 +5241,13 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="str">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="str">
+      <c r="B83">
         <v>34.35496778</v>
       </c>
-      <c r="C83" t="str">
+      <c r="C83">
         <v>134.11591722</v>
       </c>
       <c r="D83" t="str">
@@ -5289,10 +5289,10 @@
       <c r="P83" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q83" t="str">
+      <c r="Q83">
         <v>10.5</v>
       </c>
-      <c r="R83" t="str">
+      <c r="R83">
         <v>75</v>
       </c>
       <c r="S83" t="str">
@@ -5300,13 +5300,13 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="str">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="str">
+      <c r="B84">
         <v>34.29657722</v>
       </c>
-      <c r="C84" t="str">
+      <c r="C84">
         <v>134.11259444</v>
       </c>
       <c r="D84" t="str">
@@ -5348,10 +5348,10 @@
       <c r="P84" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q84" t="str">
+      <c r="Q84">
         <v>13.5</v>
       </c>
-      <c r="R84" t="str">
+      <c r="R84">
         <v>77</v>
       </c>
       <c r="S84" t="str">
@@ -5359,13 +5359,13 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="str">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="str">
+      <c r="B85">
         <v>34.30697278</v>
       </c>
-      <c r="C85" t="str">
+      <c r="C85">
         <v>134.08946833</v>
       </c>
       <c r="D85" t="str">
@@ -5407,10 +5407,10 @@
       <c r="P85" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q85" t="str">
+      <c r="Q85">
         <v>8.6</v>
       </c>
-      <c r="R85" t="str">
+      <c r="R85">
         <v>118</v>
       </c>
       <c r="S85" t="str">
@@ -5418,13 +5418,13 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="str">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="str">
+      <c r="B86">
         <v>34.29767</v>
       </c>
-      <c r="C86" t="str">
+      <c r="C86">
         <v>134.07622</v>
       </c>
       <c r="D86" t="str">
@@ -5466,10 +5466,10 @@
       <c r="P86" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q86" t="str">
+      <c r="Q86">
         <v>13.2</v>
       </c>
-      <c r="R86" t="str">
+      <c r="R86">
         <v>113</v>
       </c>
       <c r="S86" t="str">
@@ -5477,13 +5477,13 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="str">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="str">
+      <c r="B87">
         <v>34.27796722</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C87">
         <v>134.06945722</v>
       </c>
       <c r="D87" t="str">
@@ -5525,10 +5525,10 @@
       <c r="P87" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q87" t="str">
+      <c r="Q87">
         <v>26</v>
       </c>
-      <c r="R87" t="str">
+      <c r="R87">
         <v>143</v>
       </c>
       <c r="S87" t="str">
@@ -5536,13 +5536,13 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="str">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B88">
         <v>34.27850556</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C88">
         <v>134.04784528</v>
       </c>
       <c r="D88" t="str">
@@ -5584,10 +5584,10 @@
       <c r="P88" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q88" t="str">
+      <c r="Q88">
         <v>36.6</v>
       </c>
-      <c r="R88" t="str">
+      <c r="R88">
         <v>121</v>
       </c>
       <c r="S88" t="str">
@@ -5595,13 +5595,13 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="str">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="str">
+      <c r="B89">
         <v>34.29044611</v>
       </c>
-      <c r="C89" t="str">
+      <c r="C89">
         <v>134.05146667</v>
       </c>
       <c r="D89" t="str">
@@ -5643,10 +5643,10 @@
       <c r="P89" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q89" t="str">
+      <c r="Q89">
         <v>26.9</v>
       </c>
-      <c r="R89" t="str">
+      <c r="R89">
         <v>89</v>
       </c>
       <c r="S89" t="str">
@@ -5654,13 +5654,13 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="str">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="str">
+      <c r="B90">
         <v>34.29067333</v>
       </c>
-      <c r="C90" t="str">
+      <c r="C90">
         <v>134.02893556</v>
       </c>
       <c r="D90" t="str">
@@ -5702,10 +5702,10 @@
       <c r="P90" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q90" t="str">
+      <c r="Q90">
         <v>33.9</v>
       </c>
-      <c r="R90" t="str">
+      <c r="R90">
         <v>153</v>
       </c>
       <c r="S90" t="str">
@@ -5713,13 +5713,13 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="str">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B91">
         <v>34.28543722</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C91">
         <v>134.00547111</v>
       </c>
       <c r="D91" t="str">
@@ -5761,10 +5761,10 @@
       <c r="P91" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q91" t="str">
+      <c r="Q91">
         <v>38.1</v>
       </c>
-      <c r="R91" t="str">
+      <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="str">
@@ -5772,13 +5772,13 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="str">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="str">
+      <c r="B92">
         <v>34.269316</v>
       </c>
-      <c r="C92" t="str">
+      <c r="C92">
         <v>134.009945</v>
       </c>
       <c r="D92" t="str">
@@ -5820,10 +5820,10 @@
       <c r="P92" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q92" t="str">
+      <c r="Q92">
         <v>52.5</v>
       </c>
-      <c r="R92" t="str">
+      <c r="R92">
         <v>130</v>
       </c>
       <c r="S92" t="str">
@@ -5831,13 +5831,13 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="str">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="str">
+      <c r="B93">
         <v>34.30092139</v>
       </c>
-      <c r="C93" t="str">
+      <c r="C93">
         <v>133.99466861</v>
       </c>
       <c r="D93" t="str">
@@ -5879,10 +5879,10 @@
       <c r="P93" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q93" t="str">
+      <c r="Q93">
         <v>24.1</v>
       </c>
-      <c r="R93" t="str">
+      <c r="R93">
         <v>99</v>
       </c>
       <c r="S93" t="str">
@@ -5890,13 +5890,13 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="str">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="str">
+      <c r="B94">
         <v>34.32894333</v>
       </c>
-      <c r="C94" t="str">
+      <c r="C94">
         <v>134.00571417</v>
       </c>
       <c r="D94" t="str">
@@ -5938,10 +5938,10 @@
       <c r="P94" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q94" t="str">
+      <c r="Q94">
         <v>7.1</v>
       </c>
-      <c r="R94" t="str">
+      <c r="R94">
         <v>131</v>
       </c>
       <c r="S94" t="str">
@@ -5949,13 +5949,13 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="str">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="str">
+      <c r="B95">
         <v>34.32707667</v>
       </c>
-      <c r="C95" t="str">
+      <c r="C95">
         <v>133.99324306</v>
       </c>
       <c r="D95" t="str">
@@ -5997,10 +5997,10 @@
       <c r="P95" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q95" t="str">
+      <c r="Q95">
         <v>12.8</v>
       </c>
-      <c r="R95" t="str">
+      <c r="R95">
         <v>127</v>
       </c>
       <c r="S95" t="str">
@@ -6008,13 +6008,13 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="str">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="str">
+      <c r="B96">
         <v>34.34682444</v>
       </c>
-      <c r="C96" t="str">
+      <c r="C96">
         <v>133.99622</v>
       </c>
       <c r="D96" t="str">
@@ -6056,10 +6056,10 @@
       <c r="P96" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q96" t="str">
+      <c r="Q96">
         <v>3.6</v>
       </c>
-      <c r="R96" t="str">
+      <c r="R96">
         <v>130</v>
       </c>
       <c r="S96" t="str">
@@ -6067,13 +6067,13 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="str">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="str">
+      <c r="B97">
         <v>34.35870861</v>
       </c>
-      <c r="C97" t="str">
+      <c r="C97">
         <v>133.96876639</v>
       </c>
       <c r="D97" t="str">
@@ -6115,10 +6115,10 @@
       <c r="P97" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q97" t="str">
+      <c r="Q97">
         <v>24.2</v>
       </c>
-      <c r="R97" t="str">
+      <c r="R97">
         <v>230</v>
       </c>
       <c r="S97" t="str">
@@ -6126,13 +6126,13 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="str">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="str">
+      <c r="B98">
         <v>34.39210389</v>
       </c>
-      <c r="C98" t="str">
+      <c r="C98">
         <v>134.0517525</v>
       </c>
       <c r="D98" t="str">
@@ -6174,10 +6174,10 @@
       <c r="P98" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q98" t="str">
+      <c r="Q98">
         <v>7.7</v>
       </c>
-      <c r="R98" t="str">
+      <c r="R98">
         <v>61</v>
       </c>
       <c r="S98" t="str">
@@ -6185,13 +6185,13 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="str">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B99">
         <v>34.422622</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C99">
         <v>134.054127</v>
       </c>
       <c r="D99" t="str">
@@ -6233,10 +6233,10 @@
       <c r="P99" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q99" t="str">
+      <c r="Q99">
         <v>2.4</v>
       </c>
-      <c r="R99" t="str">
+      <c r="R99">
         <v>62</v>
       </c>
       <c r="S99" t="str">
@@ -6244,13 +6244,13 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="str">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="str">
+      <c r="B100">
         <v>34.27605389</v>
       </c>
-      <c r="C100" t="str">
+      <c r="C100">
         <v>134.08523639</v>
       </c>
       <c r="D100" t="str">
@@ -6292,10 +6292,10 @@
       <c r="P100" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q100" t="str">
+      <c r="Q100">
         <v>21.2</v>
       </c>
-      <c r="R100" t="str">
+      <c r="R100">
         <v>123</v>
       </c>
       <c r="S100" t="str">
@@ -6303,13 +6303,13 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="str">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B101">
         <v>34.24028</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C101">
         <v>134.07882694</v>
       </c>
       <c r="D101" t="str">
@@ -6351,10 +6351,10 @@
       <c r="P101" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q101" t="str">
+      <c r="Q101">
         <v>41.8</v>
       </c>
-      <c r="R101" t="str">
+      <c r="R101">
         <v>73</v>
       </c>
       <c r="S101" t="str">
@@ -6362,13 +6362,13 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="str">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B102">
         <v>34.23821417</v>
       </c>
-      <c r="C102" t="str">
+      <c r="C102">
         <v>134.09904472</v>
       </c>
       <c r="D102" t="str">
@@ -6410,10 +6410,10 @@
       <c r="P102" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q102" t="str">
+      <c r="Q102">
         <v>51.8</v>
       </c>
-      <c r="R102" t="str">
+      <c r="R102">
         <v>92</v>
       </c>
       <c r="S102" t="str">
@@ -6421,13 +6421,13 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="str">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="str">
+      <c r="B103">
         <v>34.34605</v>
       </c>
-      <c r="C103" t="str">
+      <c r="C103">
         <v>134.1427625</v>
       </c>
       <c r="D103" t="str">
@@ -6469,10 +6469,10 @@
       <c r="P103" t="str">
         <v>県高校教育課</v>
       </c>
-      <c r="Q103" t="str">
+      <c r="Q103">
         <v>42.2</v>
       </c>
-      <c r="R103" t="str">
+      <c r="R103">
         <v>550</v>
       </c>
       <c r="S103" t="str">
@@ -6480,13 +6480,13 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="str">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="str">
+      <c r="B104">
         <v>34.33900083</v>
       </c>
-      <c r="C104" t="str">
+      <c r="C104">
         <v>134.14328222</v>
       </c>
       <c r="D104" t="str">
@@ -6528,10 +6528,10 @@
       <c r="P104" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q104" t="str">
+      <c r="Q104">
         <v>31.8</v>
       </c>
-      <c r="R104" t="str">
+      <c r="R104">
         <v>452</v>
       </c>
       <c r="S104" t="str">
@@ -6539,13 +6539,13 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="str">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="str">
+      <c r="B105">
         <v>34.33782306</v>
       </c>
-      <c r="C105" t="str">
+      <c r="C105">
         <v>134.13914083</v>
       </c>
       <c r="D105" t="str">
@@ -6587,10 +6587,10 @@
       <c r="P105" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q105" t="str">
+      <c r="Q105">
         <v>14.8</v>
       </c>
-      <c r="R105" t="str">
+      <c r="R105">
         <v>149</v>
       </c>
       <c r="S105" t="str">
@@ -6598,13 +6598,13 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="str">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="str">
+      <c r="B106">
         <v>34.34252806</v>
       </c>
-      <c r="C106" t="str">
+      <c r="C106">
         <v>134.14306528</v>
       </c>
       <c r="D106" t="str">
@@ -6646,10 +6646,10 @@
       <c r="P106" t="str">
         <v>スポーツ振興課</v>
       </c>
-      <c r="Q106" t="str">
+      <c r="Q106">
         <v>37.9</v>
       </c>
-      <c r="R106" t="str">
+      <c r="R106">
         <v>1100</v>
       </c>
       <c r="S106" t="str">
@@ -6657,13 +6657,13 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="str">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="str">
+      <c r="B107">
         <v>34.35012694</v>
       </c>
-      <c r="C107" t="str">
+      <c r="C107">
         <v>134.12606667</v>
       </c>
       <c r="D107" t="str">
@@ -6705,10 +6705,10 @@
       <c r="P107" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q107" t="str">
+      <c r="Q107">
         <v>12.6</v>
       </c>
-      <c r="R107" t="str">
+      <c r="R107">
         <v>318</v>
       </c>
       <c r="S107" t="str">
@@ -6716,13 +6716,13 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="str">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="str">
+      <c r="B108">
         <v>34.33645944</v>
       </c>
-      <c r="C108" t="str">
+      <c r="C108">
         <v>134.14152389</v>
       </c>
       <c r="D108" t="str">
@@ -6764,10 +6764,10 @@
       <c r="P108" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q108" t="str">
+      <c r="Q108">
         <v>15.1</v>
       </c>
-      <c r="R108" t="str">
+      <c r="R108">
         <v>348</v>
       </c>
       <c r="S108" t="str">
@@ -6775,13 +6775,13 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="str">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="str">
+      <c r="B109">
         <v>34.32021139</v>
       </c>
-      <c r="C109" t="str">
+      <c r="C109">
         <v>134.15081806</v>
       </c>
       <c r="D109" t="str">
@@ -6823,10 +6823,10 @@
       <c r="P109" t="str">
         <v>スポーツ振興課</v>
       </c>
-      <c r="Q109" t="str">
+      <c r="Q109">
         <v>27.6</v>
       </c>
-      <c r="R109" t="str">
+      <c r="R109">
         <v>360</v>
       </c>
       <c r="S109" t="str">
@@ -6834,13 +6834,13 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="str">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="str">
+      <c r="B110">
         <v>34.33318222</v>
       </c>
-      <c r="C110" t="str">
+      <c r="C110">
         <v>134.15272861</v>
       </c>
       <c r="D110" t="str">
@@ -6882,10 +6882,10 @@
       <c r="P110" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q110" t="str">
+      <c r="Q110">
         <v>13.3</v>
       </c>
-      <c r="R110" t="str">
+      <c r="R110">
         <v>261</v>
       </c>
       <c r="S110" t="str">
@@ -6893,13 +6893,13 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="str">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="str">
+      <c r="B111">
         <v>34.32863278</v>
       </c>
-      <c r="C111" t="str">
+      <c r="C111">
         <v>134.15596194</v>
       </c>
       <c r="D111" t="str">
@@ -6935,16 +6935,13 @@
       <c r="N111" t="str">
         <v>○</v>
       </c>
-      <c r="O111" t="str">
-        <v/>
-      </c>
       <c r="P111" t="str">
         <v>こども園運営課</v>
       </c>
-      <c r="Q111" t="str">
+      <c r="Q111">
         <v>7.4</v>
       </c>
-      <c r="R111" t="str">
+      <c r="R111">
         <v>60</v>
       </c>
       <c r="S111" t="str">
@@ -6952,13 +6949,13 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="str">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="str">
+      <c r="B112">
         <v>34.33609278</v>
       </c>
-      <c r="C112" t="str">
+      <c r="C112">
         <v>134.14272944</v>
       </c>
       <c r="D112" t="str">
@@ -7000,10 +6997,10 @@
       <c r="P112" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q112" t="str">
+      <c r="Q112">
         <v>13.6</v>
       </c>
-      <c r="R112" t="str">
+      <c r="R112">
         <v>121</v>
       </c>
       <c r="S112" t="str">
@@ -7011,13 +7008,13 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="str">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" t="str">
+      <c r="B113">
         <v>34.32183361</v>
       </c>
-      <c r="C113" t="str">
+      <c r="C113">
         <v>134.1581675</v>
       </c>
       <c r="D113" t="str">
@@ -7059,10 +7056,10 @@
       <c r="P113" t="str">
         <v>県立保健医療大学</v>
       </c>
-      <c r="Q113" t="str">
+      <c r="Q113">
         <v>21.5</v>
       </c>
-      <c r="R113" t="str">
+      <c r="R113">
         <v>420</v>
       </c>
       <c r="S113" t="str">
@@ -7070,13 +7067,13 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="str">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="str">
+      <c r="B114">
         <v>34.36844139</v>
       </c>
-      <c r="C114" t="str">
+      <c r="C114">
         <v>134.12065806</v>
       </c>
       <c r="D114" t="str">
@@ -7112,16 +7109,13 @@
       <c r="N114" t="str">
         <v>○</v>
       </c>
-      <c r="O114" t="str">
-        <v/>
-      </c>
       <c r="P114" t="str">
         <v>牟礼総合センター</v>
       </c>
-      <c r="Q114" t="str">
+      <c r="Q114">
         <v>3.2</v>
       </c>
-      <c r="R114" t="str">
+      <c r="R114">
         <v>87</v>
       </c>
       <c r="S114" t="str">
@@ -7129,13 +7123,13 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="str">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="str">
+      <c r="B115">
         <v>34.38324278</v>
       </c>
-      <c r="C115" t="str">
+      <c r="C115">
         <v>134.13077056</v>
       </c>
       <c r="D115" t="str">
@@ -7177,10 +7171,10 @@
       <c r="P115" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q115" t="str">
+      <c r="Q115">
         <v>2.7</v>
       </c>
-      <c r="R115" t="str">
+      <c r="R115">
         <v>441</v>
       </c>
       <c r="S115" t="str">
@@ -7188,13 +7182,13 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="str">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="str">
+      <c r="B116">
         <v>34.3844425</v>
       </c>
-      <c r="C116" t="str">
+      <c r="C116">
         <v>134.13185389</v>
       </c>
       <c r="D116" t="str">
@@ -7236,10 +7230,10 @@
       <c r="P116" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q116" t="str">
+      <c r="Q116">
         <v>2.1</v>
       </c>
-      <c r="R116" t="str">
+      <c r="R116">
         <v>243</v>
       </c>
       <c r="S116" t="str">
@@ -7247,13 +7241,13 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="str">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" t="str">
+      <c r="B117">
         <v>34.3853175</v>
       </c>
-      <c r="C117" t="str">
+      <c r="C117">
         <v>134.12994833</v>
       </c>
       <c r="D117" t="str">
@@ -7295,10 +7289,10 @@
       <c r="P117" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q117" t="str">
+      <c r="Q117">
         <v>3.3</v>
       </c>
-      <c r="R117" t="str">
+      <c r="R117">
         <v>226</v>
       </c>
       <c r="S117" t="str">
@@ -7306,13 +7300,13 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="str">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="str">
+      <c r="B118">
         <v>34.38540639</v>
       </c>
-      <c r="C118" t="str">
+      <c r="C118">
         <v>134.13037611</v>
       </c>
       <c r="D118" t="str">
@@ -7354,10 +7348,10 @@
       <c r="P118" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q118" t="str">
+      <c r="Q118">
         <v>3.1</v>
       </c>
-      <c r="R118" t="str">
+      <c r="R118">
         <v>387</v>
       </c>
       <c r="S118" t="str">
@@ -7365,13 +7359,13 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="str">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="str">
+      <c r="B119">
         <v>34.38297056</v>
       </c>
-      <c r="C119" t="str">
+      <c r="C119">
         <v>134.12712111</v>
       </c>
       <c r="D119" t="str">
@@ -7407,16 +7401,13 @@
       <c r="N119" t="str">
         <v>○</v>
       </c>
-      <c r="O119" t="str">
-        <v/>
-      </c>
       <c r="P119" t="str">
         <v>牟礼総合センター</v>
       </c>
-      <c r="Q119" t="str">
+      <c r="Q119">
         <v>2.7</v>
       </c>
-      <c r="R119" t="str">
+      <c r="R119">
         <v>98</v>
       </c>
       <c r="S119" t="str">
@@ -7424,13 +7415,13 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="str">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="str">
+      <c r="B120">
         <v>34.39073917</v>
       </c>
-      <c r="C120" t="str">
+      <c r="C120">
         <v>134.13615889</v>
       </c>
       <c r="D120" t="str">
@@ -7466,16 +7457,13 @@
       <c r="N120" t="str">
         <v>○</v>
       </c>
-      <c r="O120" t="str">
-        <v/>
-      </c>
       <c r="P120" t="str">
         <v>市民やすらぎ課</v>
       </c>
-      <c r="Q120" t="str">
+      <c r="Q120">
         <v>36.2</v>
       </c>
-      <c r="R120" t="str">
+      <c r="R120">
         <v>80</v>
       </c>
       <c r="S120" t="str">
@@ -7483,13 +7471,13 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="str">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" t="str">
+      <c r="B121">
         <v>34.40445917</v>
       </c>
-      <c r="C121" t="str">
+      <c r="C121">
         <v>134.10570278</v>
       </c>
       <c r="D121" t="str">
@@ -7531,10 +7519,10 @@
       <c r="P121" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q121" t="str">
+      <c r="Q121">
         <v>2.7</v>
       </c>
-      <c r="R121" t="str">
+      <c r="R121">
         <v>182</v>
       </c>
       <c r="S121" t="str">
@@ -7542,13 +7530,13 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="str">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" t="str">
+      <c r="B122">
         <v>34.26717583</v>
       </c>
-      <c r="C122" t="str">
+      <c r="C122">
         <v>134.02466444</v>
       </c>
       <c r="D122" t="str">
@@ -7590,10 +7578,10 @@
       <c r="P122" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q122" t="str">
+      <c r="Q122">
         <v>56.5</v>
       </c>
-      <c r="R122" t="str">
+      <c r="R122">
         <v>108</v>
       </c>
       <c r="S122" t="str">
@@ -7601,13 +7589,13 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="str">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" t="str">
+      <c r="B123">
         <v>34.26665917</v>
       </c>
-      <c r="C123" t="str">
+      <c r="C123">
         <v>134.02648639</v>
       </c>
       <c r="D123" t="str">
@@ -7649,10 +7637,10 @@
       <c r="P123" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q123" t="str">
+      <c r="Q123">
         <v>57</v>
       </c>
-      <c r="R123" t="str">
+      <c r="R123">
         <v>336</v>
       </c>
       <c r="S123" t="str">
@@ -7660,13 +7648,13 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="str">
+      <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" t="str">
+      <c r="B124">
         <v>34.25967139</v>
       </c>
-      <c r="C124" t="str">
+      <c r="C124">
         <v>134.04174639</v>
       </c>
       <c r="D124" t="str">
@@ -7708,10 +7696,10 @@
       <c r="P124" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q124" t="str">
+      <c r="Q124">
         <v>74.9</v>
       </c>
-      <c r="R124" t="str">
+      <c r="R124">
         <v>336</v>
       </c>
       <c r="S124" t="str">
@@ -7719,13 +7707,13 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="str">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" t="str">
+      <c r="B125">
         <v>34.25664111</v>
       </c>
-      <c r="C125" t="str">
+      <c r="C125">
         <v>134.03568028</v>
       </c>
       <c r="D125" t="str">
@@ -7767,10 +7755,10 @@
       <c r="P125" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q125" t="str">
+      <c r="Q125">
         <v>64.6</v>
       </c>
-      <c r="R125" t="str">
+      <c r="R125">
         <v>93</v>
       </c>
       <c r="S125" t="str">
@@ -7778,13 +7766,13 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="str">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" t="str">
+      <c r="B126">
         <v>34.25499944</v>
       </c>
-      <c r="C126" t="str">
+      <c r="C126">
         <v>134.02794222</v>
       </c>
       <c r="D126" t="str">
@@ -7826,10 +7814,10 @@
       <c r="P126" t="str">
         <v>スポーツ振興課</v>
       </c>
-      <c r="Q126" t="str">
+      <c r="Q126">
         <v>68.8</v>
       </c>
-      <c r="R126" t="str">
+      <c r="R126">
         <v>1136</v>
       </c>
       <c r="S126" t="str">
@@ -7837,13 +7825,13 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="str">
+      <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" t="str">
+      <c r="B127">
         <v>34.24133444</v>
       </c>
-      <c r="C127" t="str">
+      <c r="C127">
         <v>134.03397833</v>
       </c>
       <c r="D127" t="str">
@@ -7885,10 +7873,10 @@
       <c r="P127" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q127" t="str">
+      <c r="Q127">
         <v>87.1</v>
       </c>
-      <c r="R127" t="str">
+      <c r="R127">
         <v>315</v>
       </c>
       <c r="S127" t="str">
@@ -7896,13 +7884,13 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="str">
+      <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" t="str">
+      <c r="B128">
         <v>34.24127611</v>
       </c>
-      <c r="C128" t="str">
+      <c r="C128">
         <v>134.03575306</v>
       </c>
       <c r="D128" t="str">
@@ -7944,10 +7932,10 @@
       <c r="P128" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q128" t="str">
+      <c r="Q128">
         <v>87.1</v>
       </c>
-      <c r="R128" t="str">
+      <c r="R128">
         <v>336</v>
       </c>
       <c r="S128" t="str">
@@ -7955,13 +7943,13 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="str">
+      <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" t="str">
+      <c r="B129">
         <v>34.22676417</v>
       </c>
-      <c r="C129" t="str">
+      <c r="C129">
         <v>134.03776444</v>
       </c>
       <c r="D129" t="str">
@@ -7997,16 +7985,13 @@
       <c r="N129" t="str">
         <v>○</v>
       </c>
-      <c r="O129" t="str">
-        <v/>
-      </c>
       <c r="P129" t="str">
         <v>香川総合センター</v>
       </c>
-      <c r="Q129" t="str">
+      <c r="Q129">
         <v>133.8</v>
       </c>
-      <c r="R129" t="str">
+      <c r="R129">
         <v>200</v>
       </c>
       <c r="S129" t="str">
@@ -8014,13 +7999,13 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="str">
+      <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" t="str">
+      <c r="B130">
         <v>34.21197667</v>
       </c>
-      <c r="C130" t="str">
+      <c r="C130">
         <v>134.03136833</v>
       </c>
       <c r="D130" t="str">
@@ -8056,16 +8041,13 @@
       <c r="N130" t="str">
         <v>○</v>
       </c>
-      <c r="O130" t="str">
-        <v/>
-      </c>
       <c r="P130" t="str">
         <v>農林水産課</v>
       </c>
-      <c r="Q130" t="str">
+      <c r="Q130">
         <v>118</v>
       </c>
-      <c r="R130" t="str">
+      <c r="R130">
         <v>179</v>
       </c>
       <c r="S130" t="str">
@@ -8073,13 +8055,13 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="str">
+      <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" t="str">
+      <c r="B131">
         <v>34.21657389</v>
       </c>
-      <c r="C131" t="str">
+      <c r="C131">
         <v>134.05046917</v>
       </c>
       <c r="D131" t="str">
@@ -8115,16 +8097,13 @@
       <c r="N131" t="str">
         <v>○</v>
       </c>
-      <c r="O131" t="str">
-        <v/>
-      </c>
       <c r="P131" t="str">
         <v>農林水産課</v>
       </c>
-      <c r="Q131" t="str">
+      <c r="Q131">
         <v>139.5</v>
       </c>
-      <c r="R131" t="str">
+      <c r="R131">
         <v>56</v>
       </c>
       <c r="S131" t="str">
@@ -8132,13 +8111,13 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="str">
+      <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" t="str">
+      <c r="B132">
         <v>34.20461444</v>
       </c>
-      <c r="C132" t="str">
+      <c r="C132">
         <v>134.06167694</v>
       </c>
       <c r="D132" t="str">
@@ -8180,10 +8159,10 @@
       <c r="P132" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q132" t="str">
+      <c r="Q132">
         <v>179.3</v>
       </c>
-      <c r="R132" t="str">
+      <c r="R132">
         <v>31</v>
       </c>
       <c r="S132" t="str">
@@ -8191,13 +8170,13 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="str">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" t="str">
+      <c r="B133">
         <v>34.24104222</v>
       </c>
-      <c r="C133" t="str">
+      <c r="C133">
         <v>134.00912222</v>
       </c>
       <c r="D133" t="str">
@@ -8239,10 +8218,10 @@
       <c r="P133" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q133" t="str">
+      <c r="Q133">
         <v>93</v>
       </c>
-      <c r="R133" t="str">
+      <c r="R133">
         <v>285</v>
       </c>
       <c r="S133" t="str">
@@ -8250,13 +8229,13 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="str">
+      <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" t="str">
+      <c r="B134">
         <v>34.24334472</v>
       </c>
-      <c r="C134" t="str">
+      <c r="C134">
         <v>134.00856361</v>
       </c>
       <c r="D134" t="str">
@@ -8298,10 +8277,10 @@
       <c r="P134" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q134" t="str">
+      <c r="Q134">
         <v>89.1</v>
       </c>
-      <c r="R134" t="str">
+      <c r="R134">
         <v>485</v>
       </c>
       <c r="S134" t="str">
@@ -8309,13 +8288,13 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="str">
+      <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" t="str">
+      <c r="B135">
         <v>34.23997</v>
       </c>
-      <c r="C135" t="str">
+      <c r="C135">
         <v>134.01318</v>
       </c>
       <c r="D135" t="str">
@@ -8357,10 +8336,10 @@
       <c r="P135" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q135" t="str">
+      <c r="Q135">
         <v>82.1</v>
       </c>
-      <c r="R135" t="str">
+      <c r="R135">
         <v>141</v>
       </c>
       <c r="S135" t="str">
@@ -8368,13 +8347,13 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="str">
+      <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" t="str">
+      <c r="B136">
         <v>34.24024556</v>
       </c>
-      <c r="C136" t="str">
+      <c r="C136">
         <v>134.01889917</v>
       </c>
       <c r="D136" t="str">
@@ -8416,10 +8395,10 @@
       <c r="P136" t="str">
         <v>農林水産課</v>
       </c>
-      <c r="Q136" t="str">
+      <c r="Q136">
         <v>83.3</v>
       </c>
-      <c r="R136" t="str">
+      <c r="R136">
         <v>150</v>
       </c>
       <c r="S136" t="str">
@@ -8427,13 +8406,13 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="str">
+      <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" t="str">
+      <c r="B137">
         <v>34.245175</v>
       </c>
-      <c r="C137" t="str">
+      <c r="C137">
         <v>134.00035333</v>
       </c>
       <c r="D137" t="str">
@@ -8475,10 +8454,10 @@
       <c r="P137" t="str">
         <v>農林水産課</v>
       </c>
-      <c r="Q137" t="str">
+      <c r="Q137">
         <v>84.3</v>
       </c>
-      <c r="R137" t="str">
+      <c r="R137">
         <v>165</v>
       </c>
       <c r="S137" t="str">
@@ -8486,13 +8465,13 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="str">
+      <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" t="str">
+      <c r="B138">
         <v>34.1963675</v>
       </c>
-      <c r="C138" t="str">
+      <c r="C138">
         <v>134.04155944</v>
       </c>
       <c r="D138" t="str">
@@ -8534,10 +8513,10 @@
       <c r="P138" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q138" t="str">
+      <c r="Q138">
         <v>139.4</v>
       </c>
-      <c r="R138" t="str">
+      <c r="R138">
         <v>189</v>
       </c>
       <c r="S138" t="str">
@@ -8545,13 +8524,13 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="str">
+      <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" t="str">
+      <c r="B139">
         <v>34.19820889</v>
       </c>
-      <c r="C139" t="str">
+      <c r="C139">
         <v>134.04040667</v>
       </c>
       <c r="D139" t="str">
@@ -8593,10 +8572,10 @@
       <c r="P139" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q139" t="str">
+      <c r="Q139">
         <v>137</v>
       </c>
-      <c r="R139" t="str">
+      <c r="R139">
         <v>225</v>
       </c>
       <c r="S139" t="str">
@@ -8604,13 +8583,13 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="str">
+      <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" t="str">
+      <c r="B140">
         <v>34.15596056</v>
       </c>
-      <c r="C140" t="str">
+      <c r="C140">
         <v>134.02463722</v>
       </c>
       <c r="D140" t="str">
@@ -8646,30 +8625,24 @@
       <c r="N140" t="str">
         <v>○</v>
       </c>
-      <c r="O140" t="str">
-        <v/>
-      </c>
       <c r="P140" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q140" t="str">
+      <c r="Q140">
         <v>379</v>
-      </c>
-      <c r="R140" t="str">
-        <v/>
       </c>
       <c r="S140" t="str">
         <v>塩江地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="str">
+      <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" t="str">
+      <c r="B141">
         <v>34.1697325</v>
       </c>
-      <c r="C141" t="str">
+      <c r="C141">
         <v>134.08280667</v>
       </c>
       <c r="D141" t="str">
@@ -8705,16 +8678,13 @@
       <c r="N141" t="str">
         <v>○</v>
       </c>
-      <c r="O141" t="str">
-        <v/>
-      </c>
       <c r="P141" t="str">
         <v>香川総合センター</v>
       </c>
-      <c r="Q141" t="str">
+      <c r="Q141">
         <v>206</v>
       </c>
-      <c r="R141" t="str">
+      <c r="R141">
         <v>24</v>
       </c>
       <c r="S141" t="str">
@@ -8722,13 +8692,13 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="str">
+      <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" t="str">
+      <c r="B142">
         <v>34.17048806</v>
       </c>
-      <c r="C142" t="str">
+      <c r="C142">
         <v>134.08330944</v>
       </c>
       <c r="D142" t="str">
@@ -8770,10 +8740,10 @@
       <c r="P142" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q142" t="str">
+      <c r="Q142">
         <v>215</v>
       </c>
-      <c r="R142" t="str">
+      <c r="R142">
         <v>20</v>
       </c>
       <c r="S142" t="str">
@@ -8781,13 +8751,13 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="str">
+      <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" t="str">
+      <c r="B143">
         <v>34.15379861</v>
       </c>
-      <c r="C143" t="str">
+      <c r="C143">
         <v>134.10119167</v>
       </c>
       <c r="D143" t="str">
@@ -8823,16 +8793,13 @@
       <c r="N143" t="str">
         <v>○</v>
       </c>
-      <c r="O143" t="str">
-        <v/>
-      </c>
       <c r="P143" t="str">
         <v>法人　椛川地域</v>
       </c>
-      <c r="Q143" t="str">
+      <c r="Q143">
         <v>265</v>
       </c>
-      <c r="R143" t="str">
+      <c r="R143">
         <v>49</v>
       </c>
       <c r="S143" t="str">
@@ -8840,13 +8807,13 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="str">
+      <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" t="str">
+      <c r="B144">
         <v>34.18143389</v>
       </c>
-      <c r="C144" t="str">
+      <c r="C144">
         <v>134.07422111</v>
       </c>
       <c r="D144" t="str">
@@ -8888,10 +8855,10 @@
       <c r="P144" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q144" t="str">
+      <c r="Q144">
         <v>175</v>
       </c>
-      <c r="R144" t="str">
+      <c r="R144">
         <v>897</v>
       </c>
       <c r="S144" t="str">
@@ -8899,13 +8866,13 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="str">
+      <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" t="str">
+      <c r="B145">
         <v>34.15046528</v>
       </c>
-      <c r="C145" t="str">
+      <c r="C145">
         <v>134.07660778</v>
       </c>
       <c r="D145" t="str">
@@ -8941,16 +8908,13 @@
       <c r="N145" t="str">
         <v>○</v>
       </c>
-      <c r="O145" t="str">
-        <v/>
-      </c>
       <c r="P145" t="str">
         <v>香川総合センター</v>
       </c>
-      <c r="Q145" t="str">
+      <c r="Q145">
         <v>276</v>
       </c>
-      <c r="R145" t="str">
+      <c r="R145">
         <v>16</v>
       </c>
       <c r="S145" t="str">
@@ -8958,13 +8922,13 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="str">
+      <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" t="str">
+      <c r="B146">
         <v>34.15226222</v>
       </c>
-      <c r="C146" t="str">
+      <c r="C146">
         <v>134.07636056</v>
       </c>
       <c r="D146" t="str">
@@ -9006,10 +8970,10 @@
       <c r="P146" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q146" t="str">
+      <c r="Q146">
         <v>266</v>
       </c>
-      <c r="R146" t="str">
+      <c r="R146">
         <v>143</v>
       </c>
       <c r="S146" t="str">
@@ -9017,13 +8981,13 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="str">
+      <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" t="str">
+      <c r="B147">
         <v>34.12607917</v>
       </c>
-      <c r="C147" t="str">
+      <c r="C147">
         <v>134.07372833</v>
       </c>
       <c r="D147" t="str">
@@ -9059,16 +9023,13 @@
       <c r="N147" t="str">
         <v>○</v>
       </c>
-      <c r="O147" t="str">
-        <v/>
-      </c>
       <c r="P147" t="str">
         <v>香川総合センター</v>
       </c>
-      <c r="Q147" t="str">
+      <c r="Q147">
         <v>392</v>
       </c>
-      <c r="R147" t="str">
+      <c r="R147">
         <v>38</v>
       </c>
       <c r="S147" t="str">
@@ -9076,13 +9037,13 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="str">
+      <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" t="str">
+      <c r="B148">
         <v>34.29691</v>
       </c>
-      <c r="C148" t="str">
+      <c r="C148">
         <v>133.96432139</v>
       </c>
       <c r="D148" t="str">
@@ -9124,10 +9085,10 @@
       <c r="P148" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q148" t="str">
+      <c r="Q148">
         <v>23.5</v>
       </c>
-      <c r="R148" t="str">
+      <c r="R148">
         <v>297</v>
       </c>
       <c r="S148" t="str">
@@ -9135,13 +9096,13 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="str">
+      <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" t="str">
+      <c r="B149">
         <v>34.30594222</v>
       </c>
-      <c r="C149" t="str">
+      <c r="C149">
         <v>133.9631825</v>
       </c>
       <c r="D149" t="str">
@@ -9183,10 +9144,10 @@
       <c r="P149" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q149" t="str">
+      <c r="Q149">
         <v>26.5</v>
       </c>
-      <c r="R149" t="str">
+      <c r="R149">
         <v>383</v>
       </c>
       <c r="S149" t="str">
@@ -9194,13 +9155,13 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="str">
+      <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" t="str">
+      <c r="B150">
         <v>34.30537556</v>
       </c>
-      <c r="C150" t="str">
+      <c r="C150">
         <v>133.96234361</v>
       </c>
       <c r="D150" t="str">
@@ -9242,10 +9203,10 @@
       <c r="P150" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q150" t="str">
+      <c r="Q150">
         <v>26</v>
       </c>
-      <c r="R150" t="str">
+      <c r="R150">
         <v>294</v>
       </c>
       <c r="S150" t="str">
@@ -9253,13 +9214,13 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="str">
+      <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" t="str">
+      <c r="B151">
         <v>34.29734611</v>
       </c>
-      <c r="C151" t="str">
+      <c r="C151">
         <v>133.96598806</v>
       </c>
       <c r="D151" t="str">
@@ -9301,10 +9262,10 @@
       <c r="P151" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q151" t="str">
+      <c r="Q151">
         <v>23.6</v>
       </c>
-      <c r="R151" t="str">
+      <c r="R151">
         <v>380</v>
       </c>
       <c r="S151" t="str">
@@ -9312,13 +9273,13 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="str">
+      <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" t="str">
+      <c r="B152">
         <v>34.30795889</v>
       </c>
-      <c r="C152" t="str">
+      <c r="C152">
         <v>133.97181222</v>
       </c>
       <c r="D152" t="str">
@@ -9354,16 +9315,13 @@
       <c r="N152" t="str">
         <v>○</v>
       </c>
-      <c r="O152" t="str">
-        <v/>
-      </c>
       <c r="P152" t="str">
         <v>子育て支援課</v>
       </c>
-      <c r="Q152" t="str">
+      <c r="Q152">
         <v>31</v>
       </c>
-      <c r="R152" t="str">
+      <c r="R152">
         <v>70</v>
       </c>
       <c r="S152" t="str">
@@ -9371,13 +9329,13 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="str">
+      <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" t="str">
+      <c r="B153">
         <v>34.29960139</v>
       </c>
-      <c r="C153" t="str">
+      <c r="C153">
         <v>133.95921083</v>
       </c>
       <c r="D153" t="str">
@@ -9419,10 +9377,10 @@
       <c r="P153" t="str">
         <v>人権啓発課</v>
       </c>
-      <c r="Q153" t="str">
+      <c r="Q153">
         <v>23</v>
       </c>
-      <c r="R153" t="str">
+      <c r="R153">
         <v>30</v>
       </c>
       <c r="S153" t="str">
@@ -9430,13 +9388,13 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="str">
+      <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" t="str">
+      <c r="B154">
         <v>34.30291167</v>
       </c>
-      <c r="C154" t="str">
+      <c r="C154">
         <v>133.94646167</v>
       </c>
       <c r="D154" t="str">
@@ -9472,16 +9430,13 @@
       <c r="N154" t="str">
         <v>○</v>
       </c>
-      <c r="O154" t="str">
-        <v/>
-      </c>
       <c r="P154" t="str">
         <v>子育て支援課</v>
       </c>
-      <c r="Q154" t="str">
+      <c r="Q154">
         <v>34.2</v>
       </c>
-      <c r="R154" t="str">
+      <c r="R154">
         <v>70</v>
       </c>
       <c r="S154" t="str">
@@ -9489,13 +9444,13 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="str">
+      <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" t="str">
+      <c r="B155">
         <v>34.28308639</v>
       </c>
-      <c r="C155" t="str">
+      <c r="C155">
         <v>133.96142222</v>
       </c>
       <c r="D155" t="str">
@@ -9537,10 +9492,10 @@
       <c r="P155" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q155" t="str">
+      <c r="Q155">
         <v>28.9</v>
       </c>
-      <c r="R155" t="str">
+      <c r="R155">
         <v>405</v>
       </c>
       <c r="S155" t="str">
@@ -9548,13 +9503,13 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="str">
+      <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" t="str">
+      <c r="B156">
         <v>34.28410306</v>
       </c>
-      <c r="C156" t="str">
+      <c r="C156">
         <v>133.96101111</v>
       </c>
       <c r="D156" t="str">
@@ -9596,10 +9551,10 @@
       <c r="P156" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q156" t="str">
+      <c r="Q156">
         <v>28.6</v>
       </c>
-      <c r="R156" t="str">
+      <c r="R156">
         <v>137</v>
       </c>
       <c r="S156" t="str">
@@ -9607,13 +9562,13 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="str">
+      <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" t="str">
+      <c r="B157">
         <v>34.28308639</v>
       </c>
-      <c r="C157" t="str">
+      <c r="C157">
         <v>133.96142222</v>
       </c>
       <c r="D157" t="str">
@@ -9655,10 +9610,10 @@
       <c r="P157" t="str">
         <v>スポーツ振興課</v>
       </c>
-      <c r="Q157" t="str">
+      <c r="Q157">
         <v>28.4</v>
       </c>
-      <c r="R157" t="str">
+      <c r="R157">
         <v>180</v>
       </c>
       <c r="S157" t="str">
@@ -9666,13 +9621,13 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="str">
+      <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" t="str">
+      <c r="B158">
         <v>34.27412944</v>
       </c>
-      <c r="C158" t="str">
+      <c r="C158">
         <v>133.9727575</v>
       </c>
       <c r="D158" t="str">
@@ -9708,16 +9663,13 @@
       <c r="N158" t="str">
         <v>○</v>
       </c>
-      <c r="O158" t="str">
-        <v/>
-      </c>
       <c r="P158" t="str">
         <v>子育て支援課</v>
       </c>
-      <c r="Q158" t="str">
+      <c r="Q158">
         <v>42.9</v>
       </c>
-      <c r="R158" t="str">
+      <c r="R158">
         <v>70</v>
       </c>
       <c r="S158" t="str">
@@ -9725,13 +9677,13 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="str">
+      <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" t="str">
+      <c r="B159">
         <v>34.29664333</v>
       </c>
-      <c r="C159" t="str">
+      <c r="C159">
         <v>133.96011361</v>
       </c>
       <c r="D159" t="str">
@@ -9767,16 +9719,13 @@
       <c r="N159" t="str">
         <v>○</v>
       </c>
-      <c r="O159" t="str">
-        <v/>
-      </c>
       <c r="P159" t="str">
         <v>国分寺総合センター</v>
       </c>
-      <c r="Q159" t="str">
+      <c r="Q159">
         <v>24.4</v>
       </c>
-      <c r="R159" t="str">
+      <c r="R159">
         <v>135</v>
       </c>
       <c r="S159" t="str">
@@ -9784,13 +9733,13 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="str">
+      <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" t="str">
+      <c r="B160">
         <v>34.29932583</v>
       </c>
-      <c r="C160" t="str">
+      <c r="C160">
         <v>133.94212889</v>
       </c>
       <c r="D160" t="str">
@@ -9832,10 +9781,10 @@
       <c r="P160" t="str">
         <v>香川県青年センター</v>
       </c>
-      <c r="Q160" t="str">
+      <c r="Q160">
         <v>31.5</v>
       </c>
-      <c r="R160" t="str">
+      <c r="R160">
         <v>384</v>
       </c>
       <c r="S160" t="str">
@@ -9843,13 +9792,13 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="str">
+      <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" t="str">
+      <c r="B161">
         <v>34.36483306</v>
       </c>
-      <c r="C161" t="str">
+      <c r="C161">
         <v>133.96951611</v>
       </c>
       <c r="D161" t="str">
@@ -9885,16 +9834,13 @@
       <c r="N161" t="str">
         <v>○</v>
       </c>
-      <c r="O161" t="str">
-        <v/>
-      </c>
       <c r="P161" t="str">
         <v>香川県消防学校</v>
       </c>
-      <c r="Q161" t="str">
+      <c r="Q161">
         <v>3.1</v>
       </c>
-      <c r="R161" t="str">
+      <c r="R161">
         <v>250</v>
       </c>
       <c r="S161" t="str">
@@ -9902,13 +9848,13 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="str">
+      <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" t="str">
+      <c r="B162">
         <v>34.34431472</v>
       </c>
-      <c r="C162" t="str">
+      <c r="C162">
         <v>134.0423575</v>
       </c>
       <c r="D162" t="str">
@@ -9950,10 +9896,10 @@
       <c r="P162" t="str">
         <v>県高校教育課</v>
       </c>
-      <c r="Q162" t="str">
+      <c r="Q162">
         <v>2.6</v>
       </c>
-      <c r="R162" t="str">
+      <c r="R162">
         <v>715</v>
       </c>
       <c r="S162" t="str">
@@ -9961,13 +9907,13 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="str">
+      <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" t="str">
+      <c r="B163">
         <v>34.34147611</v>
       </c>
-      <c r="C163" t="str">
+      <c r="C163">
         <v>134.04409639</v>
       </c>
       <c r="D163" t="str">
@@ -10009,10 +9955,10 @@
       <c r="P163" t="str">
         <v>県高校教育課</v>
       </c>
-      <c r="Q163" t="str">
+      <c r="Q163">
         <v>3.5</v>
       </c>
-      <c r="R163" t="str">
+      <c r="R163">
         <v>700</v>
       </c>
       <c r="S163" t="str">
@@ -10020,13 +9966,13 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="str">
+      <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" t="str">
+      <c r="B164">
         <v>34.33839083</v>
       </c>
-      <c r="C164" t="str">
+      <c r="C164">
         <v>134.059245</v>
       </c>
       <c r="D164" t="str">
@@ -10068,10 +10014,10 @@
       <c r="P164" t="str">
         <v>県高校教育課</v>
       </c>
-      <c r="Q164" t="str">
+      <c r="Q164">
         <v>1.5</v>
       </c>
-      <c r="R164" t="str">
+      <c r="R164">
         <v>610</v>
       </c>
       <c r="S164" t="str">
@@ -10079,13 +10025,13 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="str">
+      <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" t="str">
+      <c r="B165">
         <v>34.34262028</v>
       </c>
-      <c r="C165" t="str">
+      <c r="C165">
         <v>134.03753861</v>
       </c>
       <c r="D165" t="str">
@@ -10127,10 +10073,10 @@
       <c r="P165" t="str">
         <v>香川大学</v>
       </c>
-      <c r="Q165" t="str">
+      <c r="Q165">
         <v>2.7</v>
       </c>
-      <c r="R165" t="str">
+      <c r="R165">
         <v>400</v>
       </c>
       <c r="S165" t="str">
@@ -10138,13 +10084,13 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="str">
+      <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" t="str">
+      <c r="B166">
         <v>34.29744222</v>
       </c>
-      <c r="C166" t="str">
+      <c r="C166">
         <v>134.04150361</v>
       </c>
       <c r="D166" t="str">
@@ -10157,39 +10103,36 @@
         <v>087-865-4492</v>
       </c>
       <c r="G166" t="str">
-        <v>－</v>
+        <v>−</v>
       </c>
       <c r="H166" t="str">
-        <v>－</v>
+        <v>−</v>
       </c>
       <c r="I166" t="str">
-        <v>－</v>
+        <v>−</v>
       </c>
       <c r="J166" t="str">
-        <v>－</v>
+        <v>−</v>
       </c>
       <c r="K166" t="str">
-        <v>－</v>
+        <v>−</v>
       </c>
       <c r="L166" t="str">
-        <v>－</v>
+        <v>−</v>
       </c>
       <c r="M166" t="str">
-        <v>－</v>
+        <v>−</v>
       </c>
       <c r="N166" t="str">
         <v>○</v>
-      </c>
-      <c r="O166" t="str">
-        <v/>
       </c>
       <c r="P166" t="str">
         <v>香川県聾学校</v>
       </c>
-      <c r="Q166" t="str">
+      <c r="Q166">
         <v>26.3</v>
       </c>
-      <c r="R166" t="str">
+      <c r="R166">
         <v>200</v>
       </c>
       <c r="S166" t="str">
@@ -10197,13 +10140,13 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="str">
+      <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" t="str">
+      <c r="B167">
         <v>34.34546194</v>
       </c>
-      <c r="C167" t="str">
+      <c r="C167">
         <v>134.05345361</v>
       </c>
       <c r="D167" t="str">
@@ -10245,10 +10188,10 @@
       <c r="P167" t="str">
         <v>生涯学習課</v>
       </c>
-      <c r="Q167" t="str">
+      <c r="Q167">
         <v>2.1</v>
       </c>
-      <c r="R167" t="str">
+      <c r="R167">
         <v>50</v>
       </c>
       <c r="S167" t="str">
@@ -10256,13 +10199,13 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="str">
+      <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" t="str">
+      <c r="B168">
         <v>34.34199056</v>
       </c>
-      <c r="C168" t="str">
+      <c r="C168">
         <v>134.07412694</v>
       </c>
       <c r="D168" t="str">
@@ -10304,10 +10247,10 @@
       <c r="P168" t="str">
         <v>スポーツ振興課</v>
       </c>
-      <c r="Q168" t="str">
+      <c r="Q168">
         <v>2.5</v>
       </c>
-      <c r="R168" t="str">
+      <c r="R168">
         <v>1445</v>
       </c>
       <c r="S168" t="str">
@@ -10315,13 +10258,13 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="str">
+      <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" t="str">
+      <c r="B169">
         <v>34.29206944</v>
       </c>
-      <c r="C169" t="str">
+      <c r="C169">
         <v>134.11143639</v>
       </c>
       <c r="D169" t="str">
@@ -10363,10 +10306,10 @@
       <c r="P169" t="str">
         <v>県高校教育課</v>
       </c>
-      <c r="Q169" t="str">
+      <c r="Q169">
         <v>13.1</v>
       </c>
-      <c r="R169" t="str">
+      <c r="R169">
         <v>500</v>
       </c>
       <c r="S169" t="str">
@@ -10374,13 +10317,13 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="str">
+      <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" t="str">
+      <c r="B170">
         <v>34.31115389</v>
       </c>
-      <c r="C170" t="str">
+      <c r="C170">
         <v>134.01108083</v>
       </c>
       <c r="D170" t="str">
@@ -10422,10 +10365,10 @@
       <c r="P170" t="str">
         <v>独立行政法人　国立高等専門学校機構</v>
       </c>
-      <c r="Q170" t="str">
+      <c r="Q170">
         <v>26.5</v>
       </c>
-      <c r="R170" t="str">
+      <c r="R170">
         <v>800</v>
       </c>
       <c r="S170" t="str">
@@ -10433,13 +10376,13 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="str">
+      <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" t="str">
+      <c r="B171">
         <v>34.290355</v>
       </c>
-      <c r="C171" t="str">
+      <c r="C171">
         <v>133.95202833</v>
       </c>
       <c r="D171" t="str">
@@ -10475,16 +10418,13 @@
       <c r="N171" t="str">
         <v>×</v>
       </c>
-      <c r="O171" t="str">
-        <v/>
-      </c>
       <c r="P171" t="str">
         <v>県住宅課</v>
       </c>
-      <c r="Q171" t="str">
+      <c r="Q171">
         <v>28.7</v>
       </c>
-      <c r="R171" t="str">
+      <c r="R171">
         <v>45</v>
       </c>
       <c r="S171" t="str">
@@ -10492,13 +10432,13 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="str">
+      <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" t="str">
+      <c r="B172">
         <v>34.25265806</v>
       </c>
-      <c r="C172" t="str">
+      <c r="C172">
         <v>134.03109194</v>
       </c>
       <c r="D172" t="str">
@@ -10540,10 +10480,10 @@
       <c r="P172" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q172" t="str">
+      <c r="Q172">
         <v>98</v>
       </c>
-      <c r="R172" t="str">
+      <c r="R172">
         <v>540</v>
       </c>
       <c r="S172" t="str">
@@ -10551,13 +10491,13 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="str">
+      <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" t="str">
+      <c r="B173">
         <v>34.28533528</v>
       </c>
-      <c r="C173" t="str">
+      <c r="C173">
         <v>134.0381625</v>
       </c>
       <c r="D173" t="str">
@@ -10593,16 +10533,13 @@
       <c r="N173" t="str">
         <v>○</v>
       </c>
-      <c r="O173" t="str">
-        <v/>
-      </c>
       <c r="P173" t="str">
         <v>香川県農業共済組合</v>
       </c>
-      <c r="Q173" t="str">
+      <c r="Q173">
         <v>36.1</v>
       </c>
-      <c r="R173" t="str">
+      <c r="R173">
         <v>119</v>
       </c>
       <c r="S173" t="str">
@@ -10610,13 +10547,13 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="str">
+      <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" t="str">
+      <c r="B174">
         <v>34.29277111</v>
       </c>
-      <c r="C174" t="str">
+      <c r="C174">
         <v>134.06300722</v>
       </c>
       <c r="D174" t="str">
@@ -10658,10 +10595,10 @@
       <c r="P174" t="str">
         <v>香川大学</v>
       </c>
-      <c r="Q174" t="str">
+      <c r="Q174">
         <v>22</v>
       </c>
-      <c r="R174" t="str">
+      <c r="R174">
         <v>240</v>
       </c>
       <c r="S174" t="str">
@@ -10669,13 +10606,13 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="str">
+      <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" t="str">
+      <c r="B175">
         <v>34.3292175</v>
       </c>
-      <c r="C175" t="str">
+      <c r="C175">
         <v>134.09928361</v>
       </c>
       <c r="D175" t="str">
@@ -10711,16 +10648,13 @@
       <c r="N175" t="str">
         <v>○</v>
       </c>
-      <c r="O175" t="str">
-        <v/>
-      </c>
       <c r="P175" t="str">
         <v>介護老人保健施設サンライズ屋島</v>
       </c>
-      <c r="Q175" t="str">
+      <c r="Q175">
         <v>2.7</v>
       </c>
-      <c r="R175" t="str">
+      <c r="R175">
         <v>136</v>
       </c>
       <c r="S175" t="str">
@@ -10728,13 +10662,13 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="str">
+      <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" t="str">
+      <c r="B176">
         <v>34.35068639</v>
       </c>
-      <c r="C176" t="str">
+      <c r="C176">
         <v>134.05094278</v>
       </c>
       <c r="D176" t="str">
@@ -10770,30 +10704,24 @@
       <c r="N176" t="str">
         <v>○</v>
       </c>
-      <c r="O176" t="str">
-        <v/>
-      </c>
       <c r="P176" t="str">
         <v>文化財課</v>
       </c>
-      <c r="Q176" t="str">
+      <c r="Q176">
         <v>2.6</v>
-      </c>
-      <c r="R176" t="str">
-        <v/>
       </c>
       <c r="S176" t="str">
         <v>四番丁コミュニティ協議会</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="str">
+      <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" t="str">
+      <c r="B177">
         <v>34.34194556</v>
       </c>
-      <c r="C177" t="str">
+      <c r="C177">
         <v>134.04743222</v>
       </c>
       <c r="D177" t="str">
@@ -10829,30 +10757,24 @@
       <c r="N177" t="str">
         <v>○</v>
       </c>
-      <c r="O177" t="str">
-        <v/>
-      </c>
       <c r="P177" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q177" t="str">
+      <c r="Q177">
         <v>4.8</v>
-      </c>
-      <c r="R177" t="str">
-        <v/>
       </c>
       <c r="S177" t="str">
         <v>四番丁コミュニティ協議会</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="str">
+      <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" t="str">
+      <c r="B178">
         <v>34.32530333</v>
       </c>
-      <c r="C178" t="str">
+      <c r="C178">
         <v>134.05862611</v>
       </c>
       <c r="D178" t="str">
@@ -10888,30 +10810,24 @@
       <c r="N178" t="str">
         <v>○</v>
       </c>
-      <c r="O178" t="str">
-        <v/>
-      </c>
       <c r="P178" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q178" t="str">
+      <c r="Q178">
         <v>4.8</v>
-      </c>
-      <c r="R178" t="str">
-        <v/>
       </c>
       <c r="S178" t="str">
         <v>太田地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="str">
+      <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" t="str">
+      <c r="B179">
         <v>34.31414</v>
       </c>
-      <c r="C179" t="str">
+      <c r="C179">
         <v>134.0551</v>
       </c>
       <c r="D179" t="str">
@@ -10947,30 +10863,24 @@
       <c r="N179" t="str">
         <v>○</v>
       </c>
-      <c r="O179" t="str">
-        <v/>
-      </c>
       <c r="P179" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q179" t="str">
+      <c r="Q179">
         <v>12.3</v>
-      </c>
-      <c r="R179" t="str">
-        <v/>
       </c>
       <c r="S179" t="str">
         <v>太田地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="str">
+      <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" t="str">
+      <c r="B180">
         <v>34.31564151</v>
       </c>
-      <c r="C180" t="str">
+      <c r="C180">
         <v>134.065604</v>
       </c>
       <c r="D180" t="str">
@@ -11006,30 +10916,24 @@
       <c r="N180" t="str">
         <v>○</v>
       </c>
-      <c r="O180" t="str">
-        <v/>
-      </c>
       <c r="P180" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q180" t="str">
+      <c r="Q180">
         <v>6.5</v>
-      </c>
-      <c r="R180" t="str">
-        <v/>
       </c>
       <c r="S180" t="str">
         <v>木太地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="str">
+      <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" t="str">
+      <c r="B181">
         <v>34.33156222</v>
       </c>
-      <c r="C181" t="str">
+      <c r="C181">
         <v>134.11672083</v>
       </c>
       <c r="D181" t="str">
@@ -11065,30 +10969,24 @@
       <c r="N181" t="str">
         <v>○</v>
       </c>
-      <c r="O181" t="str">
-        <v/>
-      </c>
       <c r="P181" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q181" t="str">
+      <c r="Q181">
         <v>21.3</v>
-      </c>
-      <c r="R181" t="str">
-        <v/>
       </c>
       <c r="S181" t="str">
         <v>古高松地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="str">
+      <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" t="str">
+      <c r="B182">
         <v>34.29543016</v>
       </c>
-      <c r="C182" t="str">
+      <c r="C182">
         <v>134.02514076</v>
       </c>
       <c r="D182" t="str">
@@ -11124,30 +11022,24 @@
       <c r="N182" t="str">
         <v>○</v>
       </c>
-      <c r="O182" t="str">
-        <v/>
-      </c>
       <c r="P182" t="str">
         <v>土地改良課</v>
       </c>
-      <c r="Q182" t="str">
+      <c r="Q182">
         <v>29.9</v>
-      </c>
-      <c r="R182" t="str">
-        <v/>
       </c>
       <c r="S182" t="str">
         <v>一宮地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="str">
+      <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" t="str">
+      <c r="B183">
         <v>34.33351</v>
       </c>
-      <c r="C183" t="str">
+      <c r="C183">
         <v>134.15671167</v>
       </c>
       <c r="D183" t="str">
@@ -11183,30 +11075,24 @@
       <c r="N183" t="str">
         <v>○</v>
       </c>
-      <c r="O183" t="str">
-        <v/>
-      </c>
       <c r="P183" t="str">
         <v>観光交流課</v>
       </c>
-      <c r="Q183" t="str">
+      <c r="Q183">
         <v>7.5</v>
-      </c>
-      <c r="R183" t="str">
-        <v/>
       </c>
       <c r="S183" t="str">
         <v>むれコミュニティ協議会</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="str">
+      <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" t="str">
+      <c r="B184">
         <v>34.3300825</v>
       </c>
-      <c r="C184" t="str">
+      <c r="C184">
         <v>134.02583722</v>
       </c>
       <c r="D184" t="str">
@@ -11242,30 +11128,24 @@
       <c r="N184" t="str">
         <v>○</v>
       </c>
-      <c r="O184" t="str">
-        <v/>
-      </c>
       <c r="P184" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q184" t="str">
+      <c r="Q184">
         <v>171.3</v>
-      </c>
-      <c r="R184" t="str">
-        <v/>
       </c>
       <c r="S184" t="str">
         <v>亀阜校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="str">
+      <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" t="str">
+      <c r="B185">
         <v>34.32904333</v>
       </c>
-      <c r="C185" t="str">
+      <c r="C185">
         <v>134.12460361</v>
       </c>
       <c r="D185" t="str">
@@ -11301,30 +11181,24 @@
       <c r="N185" t="str">
         <v>○</v>
       </c>
-      <c r="O185" t="str">
-        <v/>
-      </c>
       <c r="P185" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q185" t="str">
+      <c r="Q185">
         <v>51.3</v>
-      </c>
-      <c r="R185" t="str">
-        <v/>
       </c>
       <c r="S185" t="str">
         <v>古高松地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="str">
+      <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" t="str">
+      <c r="B186">
         <v>34.27103972</v>
       </c>
-      <c r="C186" t="str">
+      <c r="C186">
         <v>134.04834833</v>
       </c>
       <c r="D186" t="str">
@@ -11360,30 +11234,24 @@
       <c r="N186" t="str">
         <v>○</v>
       </c>
-      <c r="O186" t="str">
-        <v/>
-      </c>
       <c r="P186" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q186" t="str">
+      <c r="Q186">
         <v>46.4</v>
-      </c>
-      <c r="R186" t="str">
-        <v/>
       </c>
       <c r="S186" t="str">
         <v>仏生山地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="str">
+      <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" t="str">
+      <c r="B187">
         <v>34.30253</v>
       </c>
-      <c r="C187" t="str">
+      <c r="C187">
         <v>134.06385</v>
       </c>
       <c r="D187" t="str">
@@ -11419,30 +11287,24 @@
       <c r="N187" t="str">
         <v>○</v>
       </c>
-      <c r="O187" t="str">
-        <v/>
-      </c>
       <c r="P187" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q187" t="str">
+      <c r="Q187">
         <v>15.5</v>
-      </c>
-      <c r="R187" t="str">
-        <v/>
       </c>
       <c r="S187" t="str">
         <v>林地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="str">
+      <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" t="str">
+      <c r="B188">
         <v>34.28000577</v>
       </c>
-      <c r="C188" t="str">
+      <c r="C188">
         <v>134.05581158</v>
       </c>
       <c r="D188" t="str">
@@ -11478,30 +11340,24 @@
       <c r="N188" t="str">
         <v>○</v>
       </c>
-      <c r="O188" t="str">
-        <v/>
-      </c>
       <c r="P188" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q188" t="str">
+      <c r="Q188">
         <v>32.4</v>
-      </c>
-      <c r="R188" t="str">
-        <v/>
       </c>
       <c r="S188" t="str">
         <v>多肥地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="str">
+      <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" t="str">
+      <c r="B189">
         <v>34.24461694</v>
       </c>
-      <c r="C189" t="str">
+      <c r="C189">
         <v>134.00551111</v>
       </c>
       <c r="D189" t="str">
@@ -11537,30 +11393,24 @@
       <c r="N189" t="str">
         <v>○</v>
       </c>
-      <c r="O189" t="str">
-        <v/>
-      </c>
       <c r="P189" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q189" t="str">
+      <c r="Q189">
         <v>90.1</v>
-      </c>
-      <c r="R189" t="str">
-        <v/>
       </c>
       <c r="S189" t="str">
         <v>香南地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="str">
+      <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" t="str">
+      <c r="B190">
         <v>34.32021139</v>
       </c>
-      <c r="C190" t="str">
+      <c r="C190">
         <v>134.15081806</v>
       </c>
       <c r="D190" t="str">
@@ -11596,30 +11446,24 @@
       <c r="N190" t="str">
         <v>○</v>
       </c>
-      <c r="O190" t="str">
-        <v/>
-      </c>
       <c r="P190" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q190" t="str">
+      <c r="Q190">
         <v>45.8</v>
-      </c>
-      <c r="R190" t="str">
-        <v/>
       </c>
       <c r="S190" t="str">
         <v>むれコミュニティ協議会</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="str">
+      <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" t="str">
+      <c r="B191">
         <v>34.34749417</v>
       </c>
-      <c r="C191" t="str">
+      <c r="C191">
         <v>134.13416333</v>
       </c>
       <c r="D191" t="str">
@@ -11655,30 +11499,24 @@
       <c r="N191" t="str">
         <v>○</v>
       </c>
-      <c r="O191" t="str">
-        <v/>
-      </c>
       <c r="P191" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q191" t="str">
+      <c r="Q191">
         <v>45.5</v>
-      </c>
-      <c r="R191" t="str">
-        <v/>
       </c>
       <c r="S191" t="str">
         <v>むれコミュニティ協議会</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="str">
+      <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" t="str">
+      <c r="B192">
         <v>34.3081</v>
       </c>
-      <c r="C192" t="str">
+      <c r="C192">
         <v>133.95190556</v>
       </c>
       <c r="D192" t="str">
@@ -11714,30 +11552,24 @@
       <c r="N192" t="str">
         <v>○</v>
       </c>
-      <c r="O192" t="str">
-        <v/>
-      </c>
       <c r="P192" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q192" t="str">
+      <c r="Q192">
         <v>49.1</v>
-      </c>
-      <c r="R192" t="str">
-        <v/>
       </c>
       <c r="S192" t="str">
         <v>国分寺北部校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="str">
+      <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" t="str">
+      <c r="B193">
         <v>34.27257361</v>
       </c>
-      <c r="C193" t="str">
+      <c r="C193">
         <v>133.94997917</v>
       </c>
       <c r="D193" t="str">
@@ -11773,30 +11605,24 @@
       <c r="N193" t="str">
         <v>○</v>
       </c>
-      <c r="O193" t="str">
-        <v/>
-      </c>
       <c r="P193" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q193" t="str">
+      <c r="Q193">
         <v>55.7</v>
-      </c>
-      <c r="R193" t="str">
-        <v/>
       </c>
       <c r="S193" t="str">
         <v>国分寺南部校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="str">
+      <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" t="str">
+      <c r="B194">
         <v>34.32746</v>
       </c>
-      <c r="C194" t="str">
+      <c r="C194">
         <v>134.09237</v>
       </c>
       <c r="D194" t="str">
@@ -11832,16 +11658,13 @@
       <c r="N194" t="str">
         <v>○</v>
       </c>
-      <c r="O194" t="str">
-        <v/>
-      </c>
       <c r="P194" t="str">
         <v>トヨタカローラ香川株式会社</v>
       </c>
-      <c r="Q194" t="str">
+      <c r="Q194">
         <v>1.9</v>
       </c>
-      <c r="R194" t="str">
+      <c r="R194">
         <v>121</v>
       </c>
       <c r="S194" t="str">

--- a/data/evacuation_space/data.xlsx
+++ b/data/evacuation_space/data.xlsx
@@ -462,14 +462,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="str">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="str">
         <v>34.34753333</v>
       </c>
-      <c r="C2">
-        <v>134.03003917</v>
+      <c r="C2" t="str">
+        <v>134.0300392</v>
       </c>
       <c r="D2" t="str">
         <v>日新小学校跡施設</v>
@@ -508,12 +508,12 @@
         <v>○</v>
       </c>
       <c r="P2" t="str">
-        <v>地域振興課</v>
-      </c>
-      <c r="Q2">
+        <v>協働コミュニティ推進課</v>
+      </c>
+      <c r="Q2" t="str">
         <v>1.7</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="str">
         <v>238</v>
       </c>
       <c r="S2" t="str">
@@ -521,14 +521,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="str">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="str">
         <v>34.34583944</v>
       </c>
-      <c r="C3">
-        <v>134.04099361</v>
+      <c r="C3" t="str">
+        <v>134.0409936</v>
       </c>
       <c r="D3" t="str">
         <v>新番丁小学校</v>
@@ -569,10 +569,10 @@
       <c r="P3" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="str">
         <v>2.9</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="str">
         <v>429</v>
       </c>
       <c r="S3" t="str">
@@ -580,14 +580,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="str">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="str">
         <v>34.34377306</v>
       </c>
-      <c r="C4">
-        <v>134.04579889</v>
+      <c r="C4" t="str">
+        <v>134.0457989</v>
       </c>
       <c r="D4" t="str">
         <v>四番丁小学校跡施設</v>
@@ -628,10 +628,10 @@
       <c r="P4" t="str">
         <v>埋蔵文化財センター</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="str">
         <v>2.5</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="str">
         <v>315</v>
       </c>
       <c r="S4" t="str">
@@ -639,14 +639,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="str">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="str">
         <v>34.33752361</v>
       </c>
-      <c r="C5">
-        <v>134.03989417</v>
+      <c r="C5" t="str">
+        <v>134.0398942</v>
       </c>
       <c r="D5" t="str">
         <v>亀阜小学校</v>
@@ -687,10 +687,10 @@
       <c r="P5" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="str">
         <v>4.1</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="str">
         <v>351</v>
       </c>
       <c r="S5" t="str">
@@ -698,14 +698,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="str">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="str">
         <v>34.33083306</v>
       </c>
-      <c r="C6">
-        <v>134.05012111</v>
+      <c r="C6" t="str">
+        <v>134.0501211</v>
       </c>
       <c r="D6" t="str">
         <v>栗林小学校</v>
@@ -746,10 +746,10 @@
       <c r="P6" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="str">
         <v>6.2</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="str">
         <v>429</v>
       </c>
       <c r="S6" t="str">
@@ -757,14 +757,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="str">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="str">
         <v>34.33344111</v>
       </c>
-      <c r="C7">
-        <v>134.05785361</v>
+      <c r="C7" t="str">
+        <v>134.0578536</v>
       </c>
       <c r="D7" t="str">
         <v>花園小学校</v>
@@ -805,10 +805,10 @@
       <c r="P7" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="str">
         <v>2.5</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="str">
         <v>310</v>
       </c>
       <c r="S7" t="str">
@@ -816,14 +816,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="str">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="str">
         <v>34.34125139</v>
       </c>
-      <c r="C8">
-        <v>134.05681472</v>
+      <c r="C8" t="str">
+        <v>134.0568147</v>
       </c>
       <c r="D8" t="str">
         <v>築地小学校跡施設</v>
@@ -864,10 +864,10 @@
       <c r="P8" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="str">
         <v>1.6</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="str">
         <v>279</v>
       </c>
       <c r="S8" t="str">
@@ -875,14 +875,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" t="str">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="str">
         <v>34.34375389</v>
       </c>
-      <c r="C9">
-        <v>134.05616194</v>
+      <c r="C9" t="str">
+        <v>134.0561619</v>
       </c>
       <c r="D9" t="str">
         <v>総合教育センター</v>
@@ -923,10 +923,10 @@
       <c r="P9" t="str">
         <v>総合教育センター</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="str">
         <v>2</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="str">
         <v>310</v>
       </c>
       <c r="S9" t="str">
@@ -934,14 +934,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" t="str">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="str">
         <v>34.31556472</v>
       </c>
-      <c r="C10">
-        <v>134.02853472</v>
+      <c r="C10" t="str">
+        <v>134.0285347</v>
       </c>
       <c r="D10" t="str">
         <v>鶴尾小学校</v>
@@ -982,10 +982,10 @@
       <c r="P10" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="str">
         <v>16.3</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="str">
         <v>306</v>
       </c>
       <c r="S10" t="str">
@@ -993,14 +993,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" t="str">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="str">
         <v>34.31229917</v>
       </c>
-      <c r="C11">
-        <v>134.05171333</v>
+      <c r="C11" t="str">
+        <v>134.0517133</v>
       </c>
       <c r="D11" t="str">
         <v>太田小学校</v>
@@ -1041,10 +1041,10 @@
       <c r="P11" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="str">
         <v>13.2</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="str">
         <v>393</v>
       </c>
       <c r="S11" t="str">
@@ -1052,14 +1052,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" t="str">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="str">
         <v>34.30652444</v>
       </c>
-      <c r="C12">
-        <v>134.04418639</v>
+      <c r="C12" t="str">
+        <v>134.0441864</v>
       </c>
       <c r="D12" t="str">
         <v>太田南小学校</v>
@@ -1100,10 +1100,10 @@
       <c r="P12" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="str">
         <v>19.9</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="str">
         <v>393</v>
       </c>
       <c r="S12" t="str">
@@ -1111,14 +1111,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" t="str">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="str">
         <v>34.32068722</v>
       </c>
-      <c r="C13">
-        <v>134.06164556</v>
+      <c r="C13" t="str">
+        <v>134.0616456</v>
       </c>
       <c r="D13" t="str">
         <v>中央小学校</v>
@@ -1159,10 +1159,10 @@
       <c r="P13" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="str">
         <v>9.8</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="str">
         <v>306</v>
       </c>
       <c r="S13" t="str">
@@ -1170,14 +1170,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" t="str">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="str">
         <v>34.32505639</v>
       </c>
-      <c r="C14">
-        <v>134.07648556</v>
+      <c r="C14" t="str">
+        <v>134.0764856</v>
       </c>
       <c r="D14" t="str">
         <v>木太小学校</v>
@@ -1218,10 +1218,10 @@
       <c r="P14" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="str">
         <v>1.7</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="str">
         <v>324</v>
       </c>
       <c r="S14" t="str">
@@ -1229,14 +1229,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" t="str">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="str">
         <v>34.33625528</v>
       </c>
-      <c r="C15">
-        <v>134.08043778</v>
+      <c r="C15" t="str">
+        <v>134.0804378</v>
       </c>
       <c r="D15" t="str">
         <v>木太北部小学校</v>
@@ -1277,10 +1277,10 @@
       <c r="P15" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="str">
         <v>1</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="str">
         <v>274</v>
       </c>
       <c r="S15" t="str">
@@ -1288,14 +1288,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" t="str">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="str">
         <v>34.32080417</v>
       </c>
-      <c r="C16">
-        <v>134.07471944</v>
+      <c r="C16" t="str">
+        <v>134.0747194</v>
       </c>
       <c r="D16" t="str">
         <v>木太南小学校</v>
@@ -1336,10 +1336,10 @@
       <c r="P16" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="str">
         <v>3.2</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="str">
         <v>324</v>
       </c>
       <c r="S16" t="str">
@@ -1347,14 +1347,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" t="str">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="str">
         <v>34.33228972</v>
       </c>
-      <c r="C17">
-        <v>134.10677444</v>
+      <c r="C17" t="str">
+        <v>134.1067744</v>
       </c>
       <c r="D17" t="str">
         <v>古高松小学校</v>
@@ -1395,10 +1395,10 @@
       <c r="P17" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="str">
         <v>4.1</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="str">
         <v>314</v>
       </c>
       <c r="S17" t="str">
@@ -1406,14 +1406,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" t="str">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="str">
         <v>34.32686222</v>
       </c>
-      <c r="C18">
-        <v>134.09864194</v>
+      <c r="C18" t="str">
+        <v>134.0986419</v>
       </c>
       <c r="D18" t="str">
         <v>古高松南小学校</v>
@@ -1454,10 +1454,10 @@
       <c r="P18" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="str">
         <v>3.3</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="str">
         <v>277</v>
       </c>
       <c r="S18" t="str">
@@ -1465,14 +1465,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" t="str">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="str">
         <v>34.347035</v>
       </c>
-      <c r="C19">
-        <v>134.09963306</v>
+      <c r="C19" t="str">
+        <v>134.0996331</v>
       </c>
       <c r="D19" t="str">
         <v>屋島小学校</v>
@@ -1513,10 +1513,10 @@
       <c r="P19" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="str">
         <v>16.4</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="str">
         <v>405</v>
       </c>
       <c r="S19" t="str">
@@ -1524,14 +1524,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" t="str">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="str">
         <v>34.350915</v>
       </c>
-      <c r="C20">
-        <v>134.09065306</v>
+      <c r="C20" t="str">
+        <v>134.0906531</v>
       </c>
       <c r="D20" t="str">
         <v>屋島西小学校</v>
@@ -1572,10 +1572,10 @@
       <c r="P20" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="str">
         <v>2.7</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="str">
         <v>396</v>
       </c>
       <c r="S20" t="str">
@@ -1583,14 +1583,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" t="str">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="str">
         <v>34.3537625</v>
       </c>
-      <c r="C21">
-        <v>134.11598694</v>
+      <c r="C21" t="str">
+        <v>134.1159869</v>
       </c>
       <c r="D21" t="str">
         <v>屋島東小学校</v>
@@ -1631,10 +1631,10 @@
       <c r="P21" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="str">
         <v>2.5</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="str">
         <v>247</v>
       </c>
       <c r="S21" t="str">
@@ -1642,14 +1642,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" t="str">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="str">
         <v>34.29588</v>
       </c>
-      <c r="C22">
-        <v>134.11301944</v>
+      <c r="C22" t="str">
+        <v>134.1130194</v>
       </c>
       <c r="D22" t="str">
         <v>前田小学校</v>
@@ -1690,10 +1690,10 @@
       <c r="P22" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="str">
         <v>13.3</v>
       </c>
-      <c r="R22">
+      <c r="R22" t="str">
         <v>315</v>
       </c>
       <c r="S22" t="str">
@@ -1701,14 +1701,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" t="str">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="str">
         <v>34.30559528</v>
       </c>
-      <c r="C23">
-        <v>134.09283194</v>
+      <c r="C23" t="str">
+        <v>134.0928319</v>
       </c>
       <c r="D23" t="str">
         <v>川添小学校</v>
@@ -1749,10 +1749,10 @@
       <c r="P23" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="str">
         <v>7.8</v>
       </c>
-      <c r="R23">
+      <c r="R23" t="str">
         <v>396</v>
       </c>
       <c r="S23" t="str">
@@ -1760,14 +1760,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" t="str">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="str">
         <v>34.30118417</v>
       </c>
-      <c r="C24">
-        <v>134.07016472</v>
+      <c r="C24" t="str">
+        <v>134.0701647</v>
       </c>
       <c r="D24" t="str">
         <v>林小学校</v>
@@ -1808,10 +1808,10 @@
       <c r="P24" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="str">
         <v>13.8</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="str">
         <v>315</v>
       </c>
       <c r="S24" t="str">
@@ -1819,14 +1819,14 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" t="str">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="str">
         <v>34.27360944</v>
       </c>
-      <c r="C25">
-        <v>134.06860472</v>
+      <c r="C25" t="str">
+        <v>134.0686047</v>
       </c>
       <c r="D25" t="str">
         <v>三渓小学校</v>
@@ -1867,10 +1867,10 @@
       <c r="P25" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="str">
         <v>28.4</v>
       </c>
-      <c r="R25">
+      <c r="R25" t="str">
         <v>234</v>
       </c>
       <c r="S25" t="str">
@@ -1878,14 +1878,14 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" t="str">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="str">
         <v>34.27413944</v>
       </c>
-      <c r="C26">
-        <v>134.04763694</v>
+      <c r="C26" t="str">
+        <v>134.0476369</v>
       </c>
       <c r="D26" t="str">
         <v>仏生山小学校</v>
@@ -1926,10 +1926,10 @@
       <c r="P26" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="str">
         <v>41.2</v>
       </c>
-      <c r="R26">
+      <c r="R26" t="str">
         <v>405</v>
       </c>
       <c r="S26" t="str">
@@ -1937,14 +1937,14 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" t="str">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="str">
         <v>34.29231528</v>
       </c>
-      <c r="C27">
-        <v>134.05300278</v>
+      <c r="C27" t="str">
+        <v>134.0530028</v>
       </c>
       <c r="D27" t="str">
         <v>多肥小学校</v>
@@ -1985,10 +1985,10 @@
       <c r="P27" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" t="str">
         <v>25.2</v>
       </c>
-      <c r="R27">
+      <c r="R27" t="str">
         <v>315</v>
       </c>
       <c r="S27" t="str">
@@ -1996,14 +1996,14 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" t="str">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="str">
         <v>34.29075917</v>
       </c>
-      <c r="C28">
-        <v>134.02443861</v>
+      <c r="C28" t="str">
+        <v>134.0244386</v>
       </c>
       <c r="D28" t="str">
         <v>一宮小学校</v>
@@ -2044,10 +2044,10 @@
       <c r="P28" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" t="str">
         <v>33.5</v>
       </c>
-      <c r="R28">
+      <c r="R28" t="str">
         <v>405</v>
       </c>
       <c r="S28" t="str">
@@ -2055,14 +2055,14 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" t="str">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="str">
         <v>34.28495667</v>
       </c>
-      <c r="C29">
-        <v>134.00452389</v>
+      <c r="C29" t="str">
+        <v>134.0045239</v>
       </c>
       <c r="D29" t="str">
         <v>円座小学校</v>
@@ -2103,10 +2103,10 @@
       <c r="P29" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" t="str">
         <v>38</v>
       </c>
-      <c r="R29">
+      <c r="R29" t="str">
         <v>301</v>
       </c>
       <c r="S29" t="str">
@@ -2114,14 +2114,14 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="A30" t="str">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="str">
         <v>34.26712278</v>
       </c>
-      <c r="C30">
-        <v>134.00698528</v>
+      <c r="C30" t="str">
+        <v>134.0069853</v>
       </c>
       <c r="D30" t="str">
         <v>川岡小学校</v>
@@ -2162,10 +2162,10 @@
       <c r="P30" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" t="str">
         <v>53.4</v>
       </c>
-      <c r="R30">
+      <c r="R30" t="str">
         <v>315</v>
       </c>
       <c r="S30" t="str">
@@ -2173,14 +2173,14 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="A31" t="str">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="str">
         <v>34.30011306</v>
       </c>
-      <c r="C31">
-        <v>133.99381611</v>
+      <c r="C31" t="str">
+        <v>133.9938161</v>
       </c>
       <c r="D31" t="str">
         <v>檀紙小学校</v>
@@ -2221,10 +2221,10 @@
       <c r="P31" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="str">
         <v>26</v>
       </c>
-      <c r="R31">
+      <c r="R31" t="str">
         <v>405</v>
       </c>
       <c r="S31" t="str">
@@ -2232,13 +2232,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="A32" t="str">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="str">
         <v>34.32895444</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="str">
         <v>134.0047975</v>
       </c>
       <c r="D32" t="str">
@@ -2280,10 +2280,10 @@
       <c r="P32" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" t="str">
         <v>7.1</v>
       </c>
-      <c r="R32">
+      <c r="R32" t="str">
         <v>405</v>
       </c>
       <c r="S32" t="str">
@@ -2291,14 +2291,14 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="A33" t="str">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="str">
         <v>34.32669889</v>
       </c>
-      <c r="C33">
-        <v>133.98803778</v>
+      <c r="C33" t="str">
+        <v>133.9880378</v>
       </c>
       <c r="D33" t="str">
         <v>鬼無小学校</v>
@@ -2339,10 +2339,10 @@
       <c r="P33" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" t="str">
         <v>21.9</v>
       </c>
-      <c r="R33">
+      <c r="R33" t="str">
         <v>315</v>
       </c>
       <c r="S33" t="str">
@@ -2350,14 +2350,14 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" t="str">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="str">
         <v>34.34546083</v>
       </c>
-      <c r="C34">
-        <v>133.99790028</v>
+      <c r="C34" t="str">
+        <v>133.9979003</v>
       </c>
       <c r="D34" t="str">
         <v>香西小学校</v>
@@ -2398,10 +2398,10 @@
       <c r="P34" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" t="str">
         <v>2.3</v>
       </c>
-      <c r="R34">
+      <c r="R34" t="str">
         <v>464</v>
       </c>
       <c r="S34" t="str">
@@ -2409,14 +2409,14 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="A35" t="str">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="str">
         <v>34.35779194</v>
       </c>
-      <c r="C35">
-        <v>133.96827194</v>
+      <c r="C35" t="str">
+        <v>133.9682719</v>
       </c>
       <c r="D35" t="str">
         <v>下笠居小学校</v>
@@ -2457,10 +2457,10 @@
       <c r="P35" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" t="str">
         <v>25.4</v>
       </c>
-      <c r="R35">
+      <c r="R35" t="str">
         <v>315</v>
       </c>
       <c r="S35" t="str">
@@ -2468,14 +2468,14 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="A36" t="str">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="str">
         <v>34.39200944</v>
       </c>
-      <c r="C36">
-        <v>134.05349667</v>
+      <c r="C36" t="str">
+        <v>134.0534967</v>
       </c>
       <c r="D36" t="str">
         <v>女木小学校</v>
@@ -2516,10 +2516,10 @@
       <c r="P36" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" t="str">
         <v>5.3</v>
       </c>
-      <c r="R36">
+      <c r="R36" t="str">
         <v>245</v>
       </c>
       <c r="S36" t="str">
@@ -2527,14 +2527,14 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37">
+      <c r="A37" t="str">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="str">
         <v>34.42010361</v>
       </c>
-      <c r="C37">
-        <v>134.05682333</v>
+      <c r="C37" t="str">
+        <v>134.0568233</v>
       </c>
       <c r="D37" t="str">
         <v>男木小・中学校</v>
@@ -2575,10 +2575,10 @@
       <c r="P37" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" t="str">
         <v>12.6</v>
       </c>
-      <c r="R37">
+      <c r="R37" t="str">
         <v>245</v>
       </c>
       <c r="S37" t="str">
@@ -2586,14 +2586,14 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38">
+      <c r="A38" t="str">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="str">
         <v>34.27599278</v>
       </c>
-      <c r="C38">
-        <v>134.08886111</v>
+      <c r="C38" t="str">
+        <v>134.0888611</v>
       </c>
       <c r="D38" t="str">
         <v>川島小学校</v>
@@ -2634,10 +2634,10 @@
       <c r="P38" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" t="str">
         <v>21.3</v>
       </c>
-      <c r="R38">
+      <c r="R38" t="str">
         <v>315</v>
       </c>
       <c r="S38" t="str">
@@ -2645,14 +2645,14 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" t="str">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="str">
         <v>34.27514056</v>
       </c>
-      <c r="C39">
-        <v>134.10269611</v>
+      <c r="C39" t="str">
+        <v>134.1026961</v>
       </c>
       <c r="D39" t="str">
         <v>十河小学校</v>
@@ -2693,10 +2693,10 @@
       <c r="P39" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" t="str">
         <v>18.1</v>
       </c>
-      <c r="R39">
+      <c r="R39" t="str">
         <v>315</v>
       </c>
       <c r="S39" t="str">
@@ -2704,14 +2704,14 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="A40" t="str">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="str">
         <v>34.23884139</v>
       </c>
-      <c r="C40">
-        <v>134.07888833</v>
+      <c r="C40" t="str">
+        <v>134.0788883</v>
       </c>
       <c r="D40" t="str">
         <v>植田小学校</v>
@@ -2752,10 +2752,10 @@
       <c r="P40" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" t="str">
         <v>45.8</v>
       </c>
-      <c r="R40">
+      <c r="R40" t="str">
         <v>229</v>
       </c>
       <c r="S40" t="str">
@@ -2763,14 +2763,14 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41">
+      <c r="A41" t="str">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="str">
         <v>34.23871667</v>
       </c>
-      <c r="C41">
-        <v>134.09762556</v>
+      <c r="C41" t="str">
+        <v>134.0976256</v>
       </c>
       <c r="D41" t="str">
         <v>東植田小学校</v>
@@ -2811,10 +2811,10 @@
       <c r="P41" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" t="str">
         <v>50.7</v>
       </c>
-      <c r="R41">
+      <c r="R41" t="str">
         <v>245</v>
       </c>
       <c r="S41" t="str">
@@ -2822,14 +2822,14 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42">
+      <c r="A42" t="str">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="str">
         <v>34.19368583</v>
       </c>
-      <c r="C42">
-        <v>134.09807139</v>
+      <c r="C42" t="str">
+        <v>134.0980714</v>
       </c>
       <c r="D42" t="str">
         <v>東植田小学校菅沢分校</v>
@@ -2870,10 +2870,10 @@
       <c r="P42" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" t="str">
         <v>323</v>
       </c>
-      <c r="R42">
+      <c r="R42" t="str">
         <v>168</v>
       </c>
       <c r="S42" t="str">
@@ -2881,14 +2881,14 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43">
+      <c r="A43" t="str">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="str">
         <v>34.32629472</v>
       </c>
-      <c r="C43">
-        <v>134.05290722</v>
+      <c r="C43" t="str">
+        <v>134.0529072</v>
       </c>
       <c r="D43" t="str">
         <v>桜町中学校</v>
@@ -2929,10 +2929,10 @@
       <c r="P43" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" t="str">
         <v>6.2</v>
       </c>
-      <c r="R43">
+      <c r="R43" t="str">
         <v>390</v>
       </c>
       <c r="S43" t="str">
@@ -2940,14 +2940,14 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" t="str">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="str">
         <v>34.3410425</v>
       </c>
-      <c r="C44">
-        <v>134.03407222</v>
+      <c r="C44" t="str">
+        <v>134.0340722</v>
       </c>
       <c r="D44" t="str">
         <v>紫雲中学校</v>
@@ -2988,10 +2988,10 @@
       <c r="P44" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" t="str">
         <v>2.1</v>
       </c>
-      <c r="R44">
+      <c r="R44" t="str">
         <v>477</v>
       </c>
       <c r="S44" t="str">
@@ -2999,14 +2999,14 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45">
+      <c r="A45" t="str">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="str">
         <v>34.33427194</v>
       </c>
-      <c r="C45">
-        <v>134.06648361</v>
+      <c r="C45" t="str">
+        <v>134.0664836</v>
       </c>
       <c r="D45" t="str">
         <v>玉藻中学校</v>
@@ -3047,10 +3047,10 @@
       <c r="P45" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" t="str">
         <v>1.6</v>
       </c>
-      <c r="R45">
+      <c r="R45" t="str">
         <v>495</v>
       </c>
       <c r="S45" t="str">
@@ -3058,14 +3058,14 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46">
+      <c r="A46" t="str">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="str">
         <v>34.33868806</v>
       </c>
-      <c r="C46">
-        <v>134.06216972</v>
+      <c r="C46" t="str">
+        <v>134.0621697</v>
       </c>
       <c r="D46" t="str">
         <v>高松第一学園（高松第一小・中学校）</v>
@@ -3106,10 +3106,10 @@
       <c r="P46" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" t="str">
         <v>3.1</v>
       </c>
-      <c r="R46">
+      <c r="R46" t="str">
         <v>721</v>
       </c>
       <c r="S46" t="str">
@@ -3117,14 +3117,14 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47">
+      <c r="A47" t="str">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="str">
         <v>34.31513694</v>
       </c>
-      <c r="C47">
-        <v>134.02639333</v>
+      <c r="C47" t="str">
+        <v>134.0263933</v>
       </c>
       <c r="D47" t="str">
         <v>鶴尾中学校跡施設</v>
@@ -3165,10 +3165,10 @@
       <c r="P47" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" t="str">
         <v>17.1</v>
       </c>
-      <c r="R47">
+      <c r="R47" t="str">
         <v>375</v>
       </c>
       <c r="S47" t="str">
@@ -3176,14 +3176,14 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48">
+      <c r="A48" t="str">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="str">
         <v>34.34105528</v>
       </c>
-      <c r="C48">
-        <v>134.10488833</v>
+      <c r="C48" t="str">
+        <v>134.1048883</v>
       </c>
       <c r="D48" t="str">
         <v>屋島中学校</v>
@@ -3224,10 +3224,10 @@
       <c r="P48" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" t="str">
         <v>1.8</v>
       </c>
-      <c r="R48">
+      <c r="R48" t="str">
         <v>362</v>
       </c>
       <c r="S48" t="str">
@@ -3235,14 +3235,14 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" t="str">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="str">
         <v>34.30690056</v>
       </c>
-      <c r="C49">
-        <v>134.08575778</v>
+      <c r="C49" t="str">
+        <v>134.0857578</v>
       </c>
       <c r="D49" t="str">
         <v>協和中学校</v>
@@ -3283,10 +3283,10 @@
       <c r="P49" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" t="str">
         <v>7.6</v>
       </c>
-      <c r="R49">
+      <c r="R49" t="str">
         <v>366</v>
       </c>
       <c r="S49" t="str">
@@ -3294,14 +3294,14 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50">
+      <c r="A50" t="str">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="str">
         <v>34.28317167</v>
       </c>
-      <c r="C50">
-        <v>134.05085028</v>
+      <c r="C50" t="str">
+        <v>134.0508503</v>
       </c>
       <c r="D50" t="str">
         <v>龍雲中学校</v>
@@ -3342,10 +3342,10 @@
       <c r="P50" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" t="str">
         <v>32</v>
       </c>
-      <c r="R50">
+      <c r="R50" t="str">
         <v>354</v>
       </c>
       <c r="S50" t="str">
@@ -3353,14 +3353,14 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51">
+      <c r="A51" t="str">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="str">
         <v>34.34179167</v>
       </c>
-      <c r="C51">
-        <v>133.99928083</v>
+      <c r="C51" t="str">
+        <v>133.9992808</v>
       </c>
       <c r="D51" t="str">
         <v>勝賀中学校</v>
@@ -3401,10 +3401,10 @@
       <c r="P51" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" t="str">
         <v>2.6</v>
       </c>
-      <c r="R51">
+      <c r="R51" t="str">
         <v>360</v>
       </c>
       <c r="S51" t="str">
@@ -3412,13 +3412,13 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52">
+      <c r="A52" t="str">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="str">
         <v>34.29222583</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="str">
         <v>134.0251275</v>
       </c>
       <c r="D52" t="str">
@@ -3460,10 +3460,10 @@
       <c r="P52" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" t="str">
         <v>32.3</v>
       </c>
-      <c r="R52">
+      <c r="R52" t="str">
         <v>396</v>
       </c>
       <c r="S52" t="str">
@@ -3471,14 +3471,14 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53">
+      <c r="A53" t="str">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="str">
         <v>34.29535556</v>
       </c>
-      <c r="C53">
-        <v>134.00882028</v>
+      <c r="C53" t="str">
+        <v>134.0088203</v>
       </c>
       <c r="D53" t="str">
         <v>香東中学校</v>
@@ -3519,10 +3519,10 @@
       <c r="P53" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" t="str">
         <v>30.3</v>
       </c>
-      <c r="R53">
+      <c r="R53" t="str">
         <v>354</v>
       </c>
       <c r="S53" t="str">
@@ -3530,14 +3530,14 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54">
+      <c r="A54" t="str">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="str">
         <v>34.35771139</v>
       </c>
-      <c r="C54">
-        <v>133.96664167</v>
+      <c r="C54" t="str">
+        <v>133.9666417</v>
       </c>
       <c r="D54" t="str">
         <v>下笠居中学校</v>
@@ -3578,10 +3578,10 @@
       <c r="P54" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" t="str">
         <v>32</v>
       </c>
-      <c r="R54">
+      <c r="R54" t="str">
         <v>396</v>
       </c>
       <c r="S54" t="str">
@@ -3589,14 +3589,14 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55">
+      <c r="A55" t="str">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="str">
         <v>34.26812167</v>
       </c>
-      <c r="C55">
-        <v>134.09285278</v>
+      <c r="C55" t="str">
+        <v>134.0928528</v>
       </c>
       <c r="D55" t="str">
         <v>山田中学校</v>
@@ -3637,10 +3637,10 @@
       <c r="P55" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" t="str">
         <v>25.4</v>
       </c>
-      <c r="R55">
+      <c r="R55" t="str">
         <v>362</v>
       </c>
       <c r="S55" t="str">
@@ -3648,14 +3648,14 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56">
+      <c r="A56" t="str">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="str">
         <v>34.30634139</v>
       </c>
-      <c r="C56">
-        <v>134.04597778</v>
+      <c r="C56" t="str">
+        <v>134.0459778</v>
       </c>
       <c r="D56" t="str">
         <v>太田中学校</v>
@@ -3696,10 +3696,10 @@
       <c r="P56" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" t="str">
         <v>18.9</v>
       </c>
-      <c r="R56">
+      <c r="R56" t="str">
         <v>439</v>
       </c>
       <c r="S56" t="str">
@@ -3707,14 +3707,14 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57">
+      <c r="A57" t="str">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="str">
         <v>34.33263944</v>
       </c>
-      <c r="C57">
-        <v>134.10308861</v>
+      <c r="C57" t="str">
+        <v>134.1030886</v>
       </c>
       <c r="D57" t="str">
         <v>古高松中学校</v>
@@ -3755,10 +3755,10 @@
       <c r="P57" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" t="str">
         <v>2.5</v>
       </c>
-      <c r="R57">
+      <c r="R57" t="str">
         <v>345</v>
       </c>
       <c r="S57" t="str">
@@ -3766,13 +3766,13 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58">
+      <c r="A58" t="str">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="str">
         <v>34.31392</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="str">
         <v>134.06739</v>
       </c>
       <c r="D58" t="str">
@@ -3814,10 +3814,10 @@
       <c r="P58" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" t="str">
         <v>5.8</v>
       </c>
-      <c r="R58">
+      <c r="R58" t="str">
         <v>345</v>
       </c>
       <c r="S58" t="str">
@@ -3825,14 +3825,14 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59">
+      <c r="A59" t="str">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="str">
         <v>34.29923639</v>
       </c>
-      <c r="C59">
-        <v>134.03327083</v>
+      <c r="C59" t="str">
+        <v>134.0332708</v>
       </c>
       <c r="D59" t="str">
         <v>香川大学附属中学校（体育館）</v>
@@ -3873,10 +3873,10 @@
       <c r="P59" t="str">
         <v>香川大学</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" t="str">
         <v>26.1</v>
       </c>
-      <c r="R59">
+      <c r="R59" t="str">
         <v>370</v>
       </c>
       <c r="S59" t="str">
@@ -3884,14 +3884,14 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60">
+      <c r="A60" t="str">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="str">
         <v>34.32800556</v>
       </c>
-      <c r="C60">
-        <v>134.05254889</v>
+      <c r="C60" t="str">
+        <v>134.0525489</v>
       </c>
       <c r="D60" t="str">
         <v>高松第一高校</v>
@@ -3932,10 +3932,10 @@
       <c r="P60" t="str">
         <v>高松第一高校</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" t="str">
         <v>5.2</v>
       </c>
-      <c r="R60">
+      <c r="R60" t="str">
         <v>953</v>
       </c>
       <c r="S60" t="str">
@@ -3943,13 +3943,13 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61">
+      <c r="A61" t="str">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="str">
         <v>34.285377</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="str">
         <v>134.023029</v>
       </c>
       <c r="D61" t="str">
@@ -3991,10 +3991,10 @@
       <c r="P61" t="str">
         <v>県高校教育課</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" t="str">
         <v>37.5</v>
       </c>
-      <c r="R61">
+      <c r="R61" t="str">
         <v>600</v>
       </c>
       <c r="S61" t="str">
@@ -4002,14 +4002,14 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62">
+      <c r="A62" t="str">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="str">
         <v>34.29496222</v>
       </c>
-      <c r="C62">
-        <v>134.05620222</v>
+      <c r="C62" t="str">
+        <v>134.0562022</v>
       </c>
       <c r="D62" t="str">
         <v>高松桜井高等学校（体育館）</v>
@@ -4050,10 +4050,10 @@
       <c r="P62" t="str">
         <v>県高校教育課</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" t="str">
         <v>23.2</v>
       </c>
-      <c r="R62">
+      <c r="R62" t="str">
         <v>760</v>
       </c>
       <c r="S62" t="str">
@@ -4061,14 +4061,14 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63">
+      <c r="A63" t="str">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="str">
         <v>34.3475725</v>
       </c>
-      <c r="C63">
-        <v>134.03245556</v>
+      <c r="C63" t="str">
+        <v>134.0324556</v>
       </c>
       <c r="D63" t="str">
         <v>日新コミュニティセンター</v>
@@ -4109,10 +4109,10 @@
       <c r="P63" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" t="str">
         <v>1.8</v>
       </c>
-      <c r="R63">
+      <c r="R63" t="str">
         <v>101</v>
       </c>
       <c r="S63" t="str">
@@ -4120,14 +4120,14 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64">
+      <c r="A64" t="str">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="str">
         <v>34.34451167</v>
       </c>
-      <c r="C64">
-        <v>134.03650806</v>
+      <c r="C64" t="str">
+        <v>134.0365081</v>
       </c>
       <c r="D64" t="str">
         <v>二番丁コミュニティセンター</v>
@@ -4168,10 +4168,10 @@
       <c r="P64" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" t="str">
         <v>1.5</v>
       </c>
-      <c r="R64">
+      <c r="R64" t="str">
         <v>93</v>
       </c>
       <c r="S64" t="str">
@@ -4179,14 +4179,14 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65">
+      <c r="A65" t="str">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="str">
         <v>34.34355083</v>
       </c>
-      <c r="C65">
-        <v>134.04488778</v>
+      <c r="C65" t="str">
+        <v>134.0448878</v>
       </c>
       <c r="D65" t="str">
         <v>四番丁コミュニティセンター</v>
@@ -4227,10 +4227,10 @@
       <c r="P65" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" t="str">
         <v>2.8</v>
       </c>
-      <c r="R65">
+      <c r="R65" t="str">
         <v>94</v>
       </c>
       <c r="S65" t="str">
@@ -4238,14 +4238,14 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66">
+      <c r="A66" t="str">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="str">
         <v>34.33958444</v>
       </c>
-      <c r="C66">
-        <v>134.03529167</v>
+      <c r="C66" t="str">
+        <v>134.0352917</v>
       </c>
       <c r="D66" t="str">
         <v>亀阜コミュニティセンター</v>
@@ -4286,10 +4286,10 @@
       <c r="P66" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" t="str">
         <v>2.5</v>
       </c>
-      <c r="R66">
+      <c r="R66" t="str">
         <v>111</v>
       </c>
       <c r="S66" t="str">
@@ -4297,14 +4297,14 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67">
+      <c r="A67" t="str">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="str">
         <v>34.32886944</v>
       </c>
-      <c r="C67">
-        <v>134.04799917</v>
+      <c r="C67" t="str">
+        <v>134.0479992</v>
       </c>
       <c r="D67" t="str">
         <v>栗林コミュニティセンター</v>
@@ -4345,10 +4345,10 @@
       <c r="P67" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" t="str">
         <v>7.7</v>
       </c>
-      <c r="R67">
+      <c r="R67" t="str">
         <v>86</v>
       </c>
       <c r="S67" t="str">
@@ -4356,14 +4356,14 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68">
+      <c r="A68" t="str">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="str">
         <v>34.33607972</v>
       </c>
-      <c r="C68">
-        <v>134.05686194</v>
+      <c r="C68" t="str">
+        <v>134.0568619</v>
       </c>
       <c r="D68" t="str">
         <v>花園コミュニティセンター</v>
@@ -4404,10 +4404,10 @@
       <c r="P68" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" t="str">
         <v>1.7</v>
       </c>
-      <c r="R68">
+      <c r="R68" t="str">
         <v>112</v>
       </c>
       <c r="S68" t="str">
@@ -4415,14 +4415,14 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69">
+      <c r="A69" t="str">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="str">
         <v>34.34022667</v>
       </c>
-      <c r="C69">
-        <v>134.06502778</v>
+      <c r="C69" t="str">
+        <v>134.0650278</v>
       </c>
       <c r="D69" t="str">
         <v>松島コミュニティセンター</v>
@@ -4463,10 +4463,10 @@
       <c r="P69" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" t="str">
         <v>1.5</v>
       </c>
-      <c r="R69">
+      <c r="R69" t="str">
         <v>123</v>
       </c>
       <c r="S69" t="str">
@@ -4474,14 +4474,14 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70">
+      <c r="A70" t="str">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="str">
         <v>34.34125139</v>
       </c>
-      <c r="C70">
-        <v>134.05681472</v>
+      <c r="C70" t="str">
+        <v>134.0568147</v>
       </c>
       <c r="D70" t="str">
         <v>築地コミュニティセンター</v>
@@ -4522,10 +4522,10 @@
       <c r="P70" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q70">
+      <c r="Q70" t="str">
         <v>1.6</v>
       </c>
-      <c r="R70">
+      <c r="R70" t="str">
         <v>122</v>
       </c>
       <c r="S70" t="str">
@@ -4533,14 +4533,14 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71">
+      <c r="A71" t="str">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="str">
         <v>34.34741472</v>
       </c>
-      <c r="C71">
-        <v>134.05595611</v>
+      <c r="C71" t="str">
+        <v>134.0559561</v>
       </c>
       <c r="D71" t="str">
         <v>新塩屋町コミュニティセンター</v>
@@ -4581,10 +4581,10 @@
       <c r="P71" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q71">
+      <c r="Q71" t="str">
         <v>2.2</v>
       </c>
-      <c r="R71">
+      <c r="R71" t="str">
         <v>95</v>
       </c>
       <c r="S71" t="str">
@@ -4592,14 +4592,14 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72">
+      <c r="A72" t="str">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="str">
         <v>34.31382333</v>
       </c>
-      <c r="C72">
-        <v>134.03022889</v>
+      <c r="C72" t="str">
+        <v>134.0302289</v>
       </c>
       <c r="D72" t="str">
         <v>鶴尾コミュニティセンター</v>
@@ -4640,10 +4640,10 @@
       <c r="P72" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q72">
+      <c r="Q72" t="str">
         <v>18.4</v>
       </c>
-      <c r="R72">
+      <c r="R72" t="str">
         <v>84</v>
       </c>
       <c r="S72" t="str">
@@ -4651,13 +4651,13 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73">
+      <c r="A73" t="str">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="str">
         <v>34.318641</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="str">
         <v>134.054399</v>
       </c>
       <c r="D73" t="str">
@@ -4699,10 +4699,10 @@
       <c r="P73" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q73">
+      <c r="Q73" t="str">
         <v>8.8</v>
       </c>
-      <c r="R73">
+      <c r="R73" t="str">
         <v>100</v>
       </c>
       <c r="S73" t="str">
@@ -4710,14 +4710,14 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74">
+      <c r="A74" t="str">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="str">
         <v>34.30185833</v>
       </c>
-      <c r="C74">
-        <v>134.04128111</v>
+      <c r="C74" t="str">
+        <v>134.0412811</v>
       </c>
       <c r="D74" t="str">
         <v>太田南コミュニティセンター</v>
@@ -4758,10 +4758,10 @@
       <c r="P74" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q74">
+      <c r="Q74" t="str">
         <v>23.1</v>
       </c>
-      <c r="R74">
+      <c r="R74" t="str">
         <v>81</v>
       </c>
       <c r="S74" t="str">
@@ -4769,14 +4769,14 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75">
+      <c r="A75" t="str">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="str">
         <v>34.31384917</v>
       </c>
-      <c r="C75">
-        <v>134.06404833</v>
+      <c r="C75" t="str">
+        <v>134.0640483</v>
       </c>
       <c r="D75" t="str">
         <v>太田中央コミュニティセンター</v>
@@ -4817,10 +4817,10 @@
       <c r="P75" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" t="str">
         <v>8.4</v>
       </c>
-      <c r="R75">
+      <c r="R75" t="str">
         <v>81</v>
       </c>
       <c r="S75" t="str">
@@ -4828,13 +4828,13 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76">
+      <c r="A76" t="str">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="str">
         <v>34.326186</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="str">
         <v>134.076753</v>
       </c>
       <c r="D76" t="str">
@@ -4876,10 +4876,10 @@
       <c r="P76" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" t="str">
         <v>20.6</v>
       </c>
-      <c r="R76">
+      <c r="R76" t="str">
         <v>104</v>
       </c>
       <c r="S76" t="str">
@@ -4887,14 +4887,14 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77">
+      <c r="A77" t="str">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="str">
         <v>34.33559694</v>
       </c>
-      <c r="C77">
-        <v>134.07944333</v>
+      <c r="C77" t="str">
+        <v>134.0794433</v>
       </c>
       <c r="D77" t="str">
         <v>木太北部コミュニティセンター</v>
@@ -4935,10 +4935,10 @@
       <c r="P77" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q77">
+      <c r="Q77" t="str">
         <v>1</v>
       </c>
-      <c r="R77">
+      <c r="R77" t="str">
         <v>71</v>
       </c>
       <c r="S77" t="str">
@@ -4946,14 +4946,14 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78">
+      <c r="A78" t="str">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="str">
         <v>34.31924611</v>
       </c>
-      <c r="C78">
-        <v>134.07618028</v>
+      <c r="C78" t="str">
+        <v>134.0761803</v>
       </c>
       <c r="D78" t="str">
         <v>木太南コミュニティセンター</v>
@@ -4994,10 +4994,10 @@
       <c r="P78" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" t="str">
         <v>3</v>
       </c>
-      <c r="R78">
+      <c r="R78" t="str">
         <v>74</v>
       </c>
       <c r="S78" t="str">
@@ -5005,14 +5005,14 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79">
+      <c r="A79" t="str">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="str">
         <v>34.33566417</v>
       </c>
-      <c r="C79">
-        <v>134.10751306</v>
+      <c r="C79" t="str">
+        <v>134.1075131</v>
       </c>
       <c r="D79" t="str">
         <v>古高松コミュニティセンター</v>
@@ -5053,10 +5053,10 @@
       <c r="P79" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q79">
+      <c r="Q79" t="str">
         <v>2.9</v>
       </c>
-      <c r="R79">
+      <c r="R79" t="str">
         <v>90</v>
       </c>
       <c r="S79" t="str">
@@ -5064,14 +5064,14 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80">
+      <c r="A80" t="str">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="str">
         <v>34.32697333</v>
       </c>
-      <c r="C80">
-        <v>134.09171194</v>
+      <c r="C80" t="str">
+        <v>134.0917119</v>
       </c>
       <c r="D80" t="str">
         <v>古高松南コミュニティセンター</v>
@@ -5112,10 +5112,10 @@
       <c r="P80" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q80">
+      <c r="Q80" t="str">
         <v>2.4</v>
       </c>
-      <c r="R80">
+      <c r="R80" t="str">
         <v>69</v>
       </c>
       <c r="S80" t="str">
@@ -5123,14 +5123,14 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81">
+      <c r="A81" t="str">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="str">
         <v>34.34371056</v>
       </c>
-      <c r="C81">
-        <v>134.10129944</v>
+      <c r="C81" t="str">
+        <v>134.1012994</v>
       </c>
       <c r="D81" t="str">
         <v>屋島コミュニティセンター</v>
@@ -5171,10 +5171,10 @@
       <c r="P81" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q81">
+      <c r="Q81" t="str">
         <v>2.2</v>
       </c>
-      <c r="R81">
+      <c r="R81" t="str">
         <v>61</v>
       </c>
       <c r="S81" t="str">
@@ -5182,14 +5182,14 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82">
+      <c r="A82" t="str">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="str">
         <v>34.35227583</v>
       </c>
-      <c r="C82">
-        <v>134.08916139</v>
+      <c r="C82" t="str">
+        <v>134.0891614</v>
       </c>
       <c r="D82" t="str">
         <v>屋島西コミュニティセンター</v>
@@ -5230,10 +5230,10 @@
       <c r="P82" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q82">
+      <c r="Q82" t="str">
         <v>3</v>
       </c>
-      <c r="R82">
+      <c r="R82" t="str">
         <v>80</v>
       </c>
       <c r="S82" t="str">
@@ -5241,14 +5241,14 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83">
+      <c r="A83" t="str">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="str">
         <v>34.35496778</v>
       </c>
-      <c r="C83">
-        <v>134.11591722</v>
+      <c r="C83" t="str">
+        <v>134.1159172</v>
       </c>
       <c r="D83" t="str">
         <v>屋島東コミュニティセンター</v>
@@ -5289,10 +5289,10 @@
       <c r="P83" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q83">
+      <c r="Q83" t="str">
         <v>10.5</v>
       </c>
-      <c r="R83">
+      <c r="R83" t="str">
         <v>75</v>
       </c>
       <c r="S83" t="str">
@@ -5300,14 +5300,14 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84">
+      <c r="A84" t="str">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="str">
         <v>34.29657722</v>
       </c>
-      <c r="C84">
-        <v>134.11259444</v>
+      <c r="C84" t="str">
+        <v>134.1125944</v>
       </c>
       <c r="D84" t="str">
         <v>前田コミュニティセンター</v>
@@ -5348,10 +5348,10 @@
       <c r="P84" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q84">
+      <c r="Q84" t="str">
         <v>13.5</v>
       </c>
-      <c r="R84">
+      <c r="R84" t="str">
         <v>77</v>
       </c>
       <c r="S84" t="str">
@@ -5359,14 +5359,14 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85">
+      <c r="A85" t="str">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="str">
         <v>34.30697278</v>
       </c>
-      <c r="C85">
-        <v>134.08946833</v>
+      <c r="C85" t="str">
+        <v>134.0894683</v>
       </c>
       <c r="D85" t="str">
         <v>川添コミュニティセンター</v>
@@ -5407,10 +5407,10 @@
       <c r="P85" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q85">
+      <c r="Q85" t="str">
         <v>8.6</v>
       </c>
-      <c r="R85">
+      <c r="R85" t="str">
         <v>118</v>
       </c>
       <c r="S85" t="str">
@@ -5418,13 +5418,13 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86">
+      <c r="A86" t="str">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="str">
         <v>34.29767</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="str">
         <v>134.07622</v>
       </c>
       <c r="D86" t="str">
@@ -5466,10 +5466,10 @@
       <c r="P86" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q86">
+      <c r="Q86" t="str">
         <v>13.2</v>
       </c>
-      <c r="R86">
+      <c r="R86" t="str">
         <v>113</v>
       </c>
       <c r="S86" t="str">
@@ -5477,14 +5477,14 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87">
+      <c r="A87" t="str">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="str">
         <v>34.27796722</v>
       </c>
-      <c r="C87">
-        <v>134.06945722</v>
+      <c r="C87" t="str">
+        <v>134.0694572</v>
       </c>
       <c r="D87" t="str">
         <v>三谷コミュニティセンター</v>
@@ -5525,10 +5525,10 @@
       <c r="P87" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q87">
+      <c r="Q87" t="str">
         <v>26</v>
       </c>
-      <c r="R87">
+      <c r="R87" t="str">
         <v>143</v>
       </c>
       <c r="S87" t="str">
@@ -5536,14 +5536,14 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88">
+      <c r="A88" t="str">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="str">
         <v>34.27850556</v>
       </c>
-      <c r="C88">
-        <v>134.04784528</v>
+      <c r="C88" t="str">
+        <v>134.0478453</v>
       </c>
       <c r="D88" t="str">
         <v>仏生山コミュニティセンター</v>
@@ -5584,10 +5584,10 @@
       <c r="P88" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q88">
+      <c r="Q88" t="str">
         <v>36.6</v>
       </c>
-      <c r="R88">
+      <c r="R88" t="str">
         <v>121</v>
       </c>
       <c r="S88" t="str">
@@ -5595,14 +5595,14 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89">
+      <c r="A89" t="str">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="str">
         <v>34.29044611</v>
       </c>
-      <c r="C89">
-        <v>134.05146667</v>
+      <c r="C89" t="str">
+        <v>134.0514667</v>
       </c>
       <c r="D89" t="str">
         <v>多肥コミュニティセンター</v>
@@ -5643,10 +5643,10 @@
       <c r="P89" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q89">
+      <c r="Q89" t="str">
         <v>26.9</v>
       </c>
-      <c r="R89">
+      <c r="R89" t="str">
         <v>89</v>
       </c>
       <c r="S89" t="str">
@@ -5654,14 +5654,14 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90">
+      <c r="A90" t="str">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="str">
         <v>34.29067333</v>
       </c>
-      <c r="C90">
-        <v>134.02893556</v>
+      <c r="C90" t="str">
+        <v>134.0289356</v>
       </c>
       <c r="D90" t="str">
         <v>一宮コミュニティセンター</v>
@@ -5702,10 +5702,10 @@
       <c r="P90" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q90">
+      <c r="Q90" t="str">
         <v>33.9</v>
       </c>
-      <c r="R90">
+      <c r="R90" t="str">
         <v>153</v>
       </c>
       <c r="S90" t="str">
@@ -5713,14 +5713,14 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91">
+      <c r="A91" t="str">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="str">
         <v>34.28543722</v>
       </c>
-      <c r="C91">
-        <v>134.00547111</v>
+      <c r="C91" t="str">
+        <v>134.0054711</v>
       </c>
       <c r="D91" t="str">
         <v>円座コミュニティセンター</v>
@@ -5761,10 +5761,10 @@
       <c r="P91" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q91">
+      <c r="Q91" t="str">
         <v>38.1</v>
       </c>
-      <c r="R91">
+      <c r="R91" t="str">
         <v>90</v>
       </c>
       <c r="S91" t="str">
@@ -5772,13 +5772,13 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92">
+      <c r="A92" t="str">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="str">
         <v>34.269316</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="str">
         <v>134.009945</v>
       </c>
       <c r="D92" t="str">
@@ -5820,10 +5820,10 @@
       <c r="P92" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q92">
+      <c r="Q92" t="str">
         <v>52.5</v>
       </c>
-      <c r="R92">
+      <c r="R92" t="str">
         <v>130</v>
       </c>
       <c r="S92" t="str">
@@ -5831,14 +5831,14 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93">
+      <c r="A93" t="str">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="str">
         <v>34.30092139</v>
       </c>
-      <c r="C93">
-        <v>133.99466861</v>
+      <c r="C93" t="str">
+        <v>133.9946686</v>
       </c>
       <c r="D93" t="str">
         <v>檀紙コミュニティセンター</v>
@@ -5879,10 +5879,10 @@
       <c r="P93" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q93">
+      <c r="Q93" t="str">
         <v>24.1</v>
       </c>
-      <c r="R93">
+      <c r="R93" t="str">
         <v>99</v>
       </c>
       <c r="S93" t="str">
@@ -5890,14 +5890,14 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94">
+      <c r="A94" t="str">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="str">
         <v>34.32894333</v>
       </c>
-      <c r="C94">
-        <v>134.00571417</v>
+      <c r="C94" t="str">
+        <v>134.0057142</v>
       </c>
       <c r="D94" t="str">
         <v>弦打コミュニティセンター</v>
@@ -5938,10 +5938,10 @@
       <c r="P94" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q94">
+      <c r="Q94" t="str">
         <v>7.1</v>
       </c>
-      <c r="R94">
+      <c r="R94" t="str">
         <v>131</v>
       </c>
       <c r="S94" t="str">
@@ -5949,14 +5949,14 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95">
+      <c r="A95" t="str">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="str">
         <v>34.32707667</v>
       </c>
-      <c r="C95">
-        <v>133.99324306</v>
+      <c r="C95" t="str">
+        <v>133.9932431</v>
       </c>
       <c r="D95" t="str">
         <v>鬼無コミュニティセンター</v>
@@ -5997,10 +5997,10 @@
       <c r="P95" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q95">
+      <c r="Q95" t="str">
         <v>12.8</v>
       </c>
-      <c r="R95">
+      <c r="R95" t="str">
         <v>127</v>
       </c>
       <c r="S95" t="str">
@@ -6008,13 +6008,13 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96">
+      <c r="A96" t="str">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="str">
         <v>34.34682444</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="str">
         <v>133.99622</v>
       </c>
       <c r="D96" t="str">
@@ -6056,10 +6056,10 @@
       <c r="P96" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q96">
+      <c r="Q96" t="str">
         <v>3.6</v>
       </c>
-      <c r="R96">
+      <c r="R96" t="str">
         <v>130</v>
       </c>
       <c r="S96" t="str">
@@ -6067,14 +6067,14 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97">
+      <c r="A97" t="str">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="str">
         <v>34.35870861</v>
       </c>
-      <c r="C97">
-        <v>133.96876639</v>
+      <c r="C97" t="str">
+        <v>133.9687664</v>
       </c>
       <c r="D97" t="str">
         <v>下笠居コミュニティセンター</v>
@@ -6115,10 +6115,10 @@
       <c r="P97" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q97">
+      <c r="Q97" t="str">
         <v>24.2</v>
       </c>
-      <c r="R97">
+      <c r="R97" t="str">
         <v>230</v>
       </c>
       <c r="S97" t="str">
@@ -6126,13 +6126,13 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98">
+      <c r="A98" t="str">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="str">
         <v>34.39210389</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="str">
         <v>134.0517525</v>
       </c>
       <c r="D98" t="str">
@@ -6174,10 +6174,10 @@
       <c r="P98" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q98">
+      <c r="Q98" t="str">
         <v>7.7</v>
       </c>
-      <c r="R98">
+      <c r="R98" t="str">
         <v>61</v>
       </c>
       <c r="S98" t="str">
@@ -6185,13 +6185,13 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99">
+      <c r="A99" t="str">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="str">
         <v>34.422622</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="str">
         <v>134.054127</v>
       </c>
       <c r="D99" t="str">
@@ -6233,10 +6233,10 @@
       <c r="P99" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q99">
+      <c r="Q99" t="str">
         <v>2.4</v>
       </c>
-      <c r="R99">
+      <c r="R99" t="str">
         <v>62</v>
       </c>
       <c r="S99" t="str">
@@ -6244,14 +6244,14 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100">
+      <c r="A100" t="str">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="str">
         <v>34.27605389</v>
       </c>
-      <c r="C100">
-        <v>134.08523639</v>
+      <c r="C100" t="str">
+        <v>134.0852364</v>
       </c>
       <c r="D100" t="str">
         <v>川島コミュニティセンター</v>
@@ -6292,10 +6292,10 @@
       <c r="P100" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q100">
+      <c r="Q100" t="str">
         <v>21.2</v>
       </c>
-      <c r="R100">
+      <c r="R100" t="str">
         <v>123</v>
       </c>
       <c r="S100" t="str">
@@ -6303,14 +6303,14 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101">
+      <c r="A101" t="str">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="str">
         <v>34.24028</v>
       </c>
-      <c r="C101">
-        <v>134.07882694</v>
+      <c r="C101" t="str">
+        <v>134.0788269</v>
       </c>
       <c r="D101" t="str">
         <v>西植田コミュニティセンター</v>
@@ -6351,10 +6351,10 @@
       <c r="P101" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q101">
+      <c r="Q101" t="str">
         <v>41.8</v>
       </c>
-      <c r="R101">
+      <c r="R101" t="str">
         <v>73</v>
       </c>
       <c r="S101" t="str">
@@ -6362,14 +6362,14 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102">
+      <c r="A102" t="str">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="str">
         <v>34.23821417</v>
       </c>
-      <c r="C102">
-        <v>134.09904472</v>
+      <c r="C102" t="str">
+        <v>134.0990447</v>
       </c>
       <c r="D102" t="str">
         <v>東植田コミュニティセンター</v>
@@ -6410,10 +6410,10 @@
       <c r="P102" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q102">
+      <c r="Q102" t="str">
         <v>51.8</v>
       </c>
-      <c r="R102">
+      <c r="R102" t="str">
         <v>92</v>
       </c>
       <c r="S102" t="str">
@@ -6421,13 +6421,13 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103">
+      <c r="A103" t="str">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="str">
         <v>34.34605</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="str">
         <v>134.1427625</v>
       </c>
       <c r="D103" t="str">
@@ -6469,10 +6469,10 @@
       <c r="P103" t="str">
         <v>県高校教育課</v>
       </c>
-      <c r="Q103">
+      <c r="Q103" t="str">
         <v>42.2</v>
       </c>
-      <c r="R103">
+      <c r="R103" t="str">
         <v>550</v>
       </c>
       <c r="S103" t="str">
@@ -6480,14 +6480,14 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104">
+      <c r="A104" t="str">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="str">
         <v>34.33900083</v>
       </c>
-      <c r="C104">
-        <v>134.14328222</v>
+      <c r="C104" t="str">
+        <v>134.1432822</v>
       </c>
       <c r="D104" t="str">
         <v>牟礼中学校</v>
@@ -6528,10 +6528,10 @@
       <c r="P104" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q104">
+      <c r="Q104" t="str">
         <v>31.8</v>
       </c>
-      <c r="R104">
+      <c r="R104" t="str">
         <v>452</v>
       </c>
       <c r="S104" t="str">
@@ -6539,14 +6539,14 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105">
+      <c r="A105" t="str">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="str">
         <v>34.33782306</v>
       </c>
-      <c r="C105">
-        <v>134.13914083</v>
+      <c r="C105" t="str">
+        <v>134.1391408</v>
       </c>
       <c r="D105" t="str">
         <v>牟礼コミュニティセンター</v>
@@ -6587,10 +6587,10 @@
       <c r="P105" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q105">
+      <c r="Q105" t="str">
         <v>14.8</v>
       </c>
-      <c r="R105">
+      <c r="R105" t="str">
         <v>149</v>
       </c>
       <c r="S105" t="str">
@@ -6598,14 +6598,14 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106">
+      <c r="A106" t="str">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="str">
         <v>34.34252806</v>
       </c>
-      <c r="C106">
-        <v>134.14306528</v>
+      <c r="C106" t="str">
+        <v>134.1430653</v>
       </c>
       <c r="D106" t="str">
         <v>牟礼総合体育館</v>
@@ -6646,10 +6646,10 @@
       <c r="P106" t="str">
         <v>スポーツ振興課</v>
       </c>
-      <c r="Q106">
+      <c r="Q106" t="str">
         <v>37.9</v>
       </c>
-      <c r="R106">
+      <c r="R106" t="str">
         <v>1100</v>
       </c>
       <c r="S106" t="str">
@@ -6657,14 +6657,14 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107">
+      <c r="A107" t="str">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="str">
         <v>34.35012694</v>
       </c>
-      <c r="C107">
-        <v>134.12606667</v>
+      <c r="C107" t="str">
+        <v>134.1260667</v>
       </c>
       <c r="D107" t="str">
         <v>牟礼北小学校</v>
@@ -6705,10 +6705,10 @@
       <c r="P107" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q107">
+      <c r="Q107" t="str">
         <v>12.6</v>
       </c>
-      <c r="R107">
+      <c r="R107" t="str">
         <v>318</v>
       </c>
       <c r="S107" t="str">
@@ -6716,14 +6716,14 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108">
+      <c r="A108" t="str">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="str">
         <v>34.33645944</v>
       </c>
-      <c r="C108">
-        <v>134.14152389</v>
+      <c r="C108" t="str">
+        <v>134.1415239</v>
       </c>
       <c r="D108" t="str">
         <v>牟礼小学校</v>
@@ -6764,10 +6764,10 @@
       <c r="P108" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q108">
+      <c r="Q108" t="str">
         <v>15.1</v>
       </c>
-      <c r="R108">
+      <c r="R108" t="str">
         <v>348</v>
       </c>
       <c r="S108" t="str">
@@ -6775,14 +6775,14 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109">
+      <c r="A109" t="str">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="str">
         <v>34.32021139</v>
       </c>
-      <c r="C109">
-        <v>134.15081806</v>
+      <c r="C109" t="str">
+        <v>134.1508181</v>
       </c>
       <c r="D109" t="str">
         <v>牟礼中央公園運動センター</v>
@@ -6823,10 +6823,10 @@
       <c r="P109" t="str">
         <v>スポーツ振興課</v>
       </c>
-      <c r="Q109">
+      <c r="Q109" t="str">
         <v>27.6</v>
       </c>
-      <c r="R109">
+      <c r="R109" t="str">
         <v>360</v>
       </c>
       <c r="S109" t="str">
@@ -6834,14 +6834,14 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110">
+      <c r="A110" t="str">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="str">
         <v>34.33318222</v>
       </c>
-      <c r="C110">
-        <v>134.15272861</v>
+      <c r="C110" t="str">
+        <v>134.1527286</v>
       </c>
       <c r="D110" t="str">
         <v>牟礼南小学校</v>
@@ -6882,10 +6882,10 @@
       <c r="P110" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q110">
+      <c r="Q110" t="str">
         <v>13.3</v>
       </c>
-      <c r="R110">
+      <c r="R110" t="str">
         <v>261</v>
       </c>
       <c r="S110" t="str">
@@ -6893,14 +6893,14 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111">
+      <c r="A111" t="str">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="str">
         <v>34.32863278</v>
       </c>
-      <c r="C111">
-        <v>134.15596194</v>
+      <c r="C111" t="str">
+        <v>134.1559619</v>
       </c>
       <c r="D111" t="str">
         <v>はらこども園</v>
@@ -6935,13 +6935,16 @@
       <c r="N111" t="str">
         <v>○</v>
       </c>
+      <c r="O111" t="str">
+        <v/>
+      </c>
       <c r="P111" t="str">
         <v>こども園運営課</v>
       </c>
-      <c r="Q111">
+      <c r="Q111" t="str">
         <v>7.4</v>
       </c>
-      <c r="R111">
+      <c r="R111" t="str">
         <v>60</v>
       </c>
       <c r="S111" t="str">
@@ -6949,14 +6952,14 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112">
+      <c r="A112" t="str">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="str">
         <v>34.33609278</v>
       </c>
-      <c r="C112">
-        <v>134.14272944</v>
+      <c r="C112" t="str">
+        <v>134.1427294</v>
       </c>
       <c r="D112" t="str">
         <v>大町コミュニティセンター</v>
@@ -6997,10 +7000,10 @@
       <c r="P112" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q112">
+      <c r="Q112" t="str">
         <v>13.6</v>
       </c>
-      <c r="R112">
+      <c r="R112" t="str">
         <v>121</v>
       </c>
       <c r="S112" t="str">
@@ -7008,13 +7011,13 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113">
+      <c r="A113" t="str">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="str">
         <v>34.32183361</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="str">
         <v>134.1581675</v>
       </c>
       <c r="D113" t="str">
@@ -7056,10 +7059,10 @@
       <c r="P113" t="str">
         <v>県立保健医療大学</v>
       </c>
-      <c r="Q113">
+      <c r="Q113" t="str">
         <v>21.5</v>
       </c>
-      <c r="R113">
+      <c r="R113" t="str">
         <v>420</v>
       </c>
       <c r="S113" t="str">
@@ -7067,14 +7070,14 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114">
+      <c r="A114" t="str">
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="str">
         <v>34.36844139</v>
       </c>
-      <c r="C114">
-        <v>134.12065806</v>
+      <c r="C114" t="str">
+        <v>134.1206581</v>
       </c>
       <c r="D114" t="str">
         <v>深間ふれあいセンター</v>
@@ -7109,13 +7112,16 @@
       <c r="N114" t="str">
         <v>○</v>
       </c>
+      <c r="O114" t="str">
+        <v/>
+      </c>
       <c r="P114" t="str">
         <v>牟礼総合センター</v>
       </c>
-      <c r="Q114">
+      <c r="Q114" t="str">
         <v>3.2</v>
       </c>
-      <c r="R114">
+      <c r="R114" t="str">
         <v>87</v>
       </c>
       <c r="S114" t="str">
@@ -7123,14 +7129,14 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115">
+      <c r="A115" t="str">
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="str">
         <v>34.38324278</v>
       </c>
-      <c r="C115">
-        <v>134.13077056</v>
+      <c r="C115" t="str">
+        <v>134.1307706</v>
       </c>
       <c r="D115" t="str">
         <v>庵治中学校</v>
@@ -7171,10 +7177,10 @@
       <c r="P115" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q115">
+      <c r="Q115" t="str">
         <v>2.7</v>
       </c>
-      <c r="R115">
+      <c r="R115" t="str">
         <v>441</v>
       </c>
       <c r="S115" t="str">
@@ -7182,14 +7188,14 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116">
+      <c r="A116" t="str">
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="str">
         <v>34.3844425</v>
       </c>
-      <c r="C116">
-        <v>134.13185389</v>
+      <c r="C116" t="str">
+        <v>134.1318539</v>
       </c>
       <c r="D116" t="str">
         <v>庵治小学校</v>
@@ -7230,10 +7236,10 @@
       <c r="P116" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q116">
+      <c r="Q116" t="str">
         <v>2.1</v>
       </c>
-      <c r="R116">
+      <c r="R116" t="str">
         <v>243</v>
       </c>
       <c r="S116" t="str">
@@ -7241,14 +7247,14 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117">
+      <c r="A117" t="str">
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="str">
         <v>34.3853175</v>
       </c>
-      <c r="C117">
-        <v>134.12994833</v>
+      <c r="C117" t="str">
+        <v>134.1299483</v>
       </c>
       <c r="D117" t="str">
         <v>庵治コミュニティセンター・庵治武道館</v>
@@ -7289,10 +7295,10 @@
       <c r="P117" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q117">
+      <c r="Q117" t="str">
         <v>3.3</v>
       </c>
-      <c r="R117">
+      <c r="R117" t="str">
         <v>226</v>
       </c>
       <c r="S117" t="str">
@@ -7300,14 +7306,14 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118">
+      <c r="A118" t="str">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="str">
         <v>34.38540639</v>
       </c>
-      <c r="C118">
-        <v>134.13037611</v>
+      <c r="C118" t="str">
+        <v>134.1303761</v>
       </c>
       <c r="D118" t="str">
         <v>庵治小学校第二体育館</v>
@@ -7348,10 +7354,10 @@
       <c r="P118" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q118">
+      <c r="Q118" t="str">
         <v>3.1</v>
       </c>
-      <c r="R118">
+      <c r="R118" t="str">
         <v>387</v>
       </c>
       <c r="S118" t="str">
@@ -7359,14 +7365,14 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119">
+      <c r="A119" t="str">
         <v>118</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="str">
         <v>34.38297056</v>
       </c>
-      <c r="C119">
-        <v>134.12712111</v>
+      <c r="C119" t="str">
+        <v>134.1271211</v>
       </c>
       <c r="D119" t="str">
         <v>庵治やすらぎ会館</v>
@@ -7401,13 +7407,16 @@
       <c r="N119" t="str">
         <v>○</v>
       </c>
+      <c r="O119" t="str">
+        <v/>
+      </c>
       <c r="P119" t="str">
         <v>牟礼総合センター</v>
       </c>
-      <c r="Q119">
+      <c r="Q119" t="str">
         <v>2.7</v>
       </c>
-      <c r="R119">
+      <c r="R119" t="str">
         <v>98</v>
       </c>
       <c r="S119" t="str">
@@ -7415,14 +7424,14 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120">
+      <c r="A120" t="str">
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="str">
         <v>34.39073917</v>
       </c>
-      <c r="C120">
-        <v>134.13615889</v>
+      <c r="C120" t="str">
+        <v>134.1361589</v>
       </c>
       <c r="D120" t="str">
         <v>庵治斎場</v>
@@ -7457,13 +7466,16 @@
       <c r="N120" t="str">
         <v>○</v>
       </c>
+      <c r="O120" t="str">
+        <v/>
+      </c>
       <c r="P120" t="str">
         <v>市民やすらぎ課</v>
       </c>
-      <c r="Q120">
+      <c r="Q120" t="str">
         <v>36.2</v>
       </c>
-      <c r="R120">
+      <c r="R120" t="str">
         <v>80</v>
       </c>
       <c r="S120" t="str">
@@ -7471,14 +7483,14 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121">
+      <c r="A121" t="str">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="str">
         <v>34.40445917</v>
       </c>
-      <c r="C121">
-        <v>134.10570278</v>
+      <c r="C121" t="str">
+        <v>134.1057028</v>
       </c>
       <c r="D121" t="str">
         <v>庵治第二小学校</v>
@@ -7519,10 +7531,10 @@
       <c r="P121" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q121">
+      <c r="Q121" t="str">
         <v>2.7</v>
       </c>
-      <c r="R121">
+      <c r="R121" t="str">
         <v>182</v>
       </c>
       <c r="S121" t="str">
@@ -7530,14 +7542,14 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122">
+      <c r="A122" t="str">
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="str">
         <v>34.26717583</v>
       </c>
-      <c r="C122">
-        <v>134.02466444</v>
+      <c r="C122" t="str">
+        <v>134.0246644</v>
       </c>
       <c r="D122" t="str">
         <v>大野コミュニティセンター</v>
@@ -7578,10 +7590,10 @@
       <c r="P122" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q122">
+      <c r="Q122" t="str">
         <v>56.5</v>
       </c>
-      <c r="R122">
+      <c r="R122" t="str">
         <v>108</v>
       </c>
       <c r="S122" t="str">
@@ -7589,14 +7601,14 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123">
+      <c r="A123" t="str">
         <v>122</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="str">
         <v>34.26665917</v>
       </c>
-      <c r="C123">
-        <v>134.02648639</v>
+      <c r="C123" t="str">
+        <v>134.0264864</v>
       </c>
       <c r="D123" t="str">
         <v>大野小学校</v>
@@ -7637,10 +7649,10 @@
       <c r="P123" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q123">
+      <c r="Q123" t="str">
         <v>57</v>
       </c>
-      <c r="R123">
+      <c r="R123" t="str">
         <v>336</v>
       </c>
       <c r="S123" t="str">
@@ -7648,14 +7660,14 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124">
+      <c r="A124" t="str">
         <v>123</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="str">
         <v>34.25967139</v>
       </c>
-      <c r="C124">
-        <v>134.04174639</v>
+      <c r="C124" t="str">
+        <v>134.0417464</v>
       </c>
       <c r="D124" t="str">
         <v>浅野小学校</v>
@@ -7696,10 +7708,10 @@
       <c r="P124" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q124">
+      <c r="Q124" t="str">
         <v>74.9</v>
       </c>
-      <c r="R124">
+      <c r="R124" t="str">
         <v>336</v>
       </c>
       <c r="S124" t="str">
@@ -7707,14 +7719,14 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125">
+      <c r="A125" t="str">
         <v>124</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="str">
         <v>34.25664111</v>
       </c>
-      <c r="C125">
-        <v>134.03568028</v>
+      <c r="C125" t="str">
+        <v>134.0356803</v>
       </c>
       <c r="D125" t="str">
         <v>浅野コミュニティセンター</v>
@@ -7755,10 +7767,10 @@
       <c r="P125" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q125">
+      <c r="Q125" t="str">
         <v>64.6</v>
       </c>
-      <c r="R125">
+      <c r="R125" t="str">
         <v>93</v>
       </c>
       <c r="S125" t="str">
@@ -7766,14 +7778,14 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126">
+      <c r="A126" t="str">
         <v>125</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="str">
         <v>34.25499944</v>
       </c>
-      <c r="C126">
-        <v>134.02794222</v>
+      <c r="C126" t="str">
+        <v>134.0279422</v>
       </c>
       <c r="D126" t="str">
         <v>香川総合体育館</v>
@@ -7814,10 +7826,10 @@
       <c r="P126" t="str">
         <v>スポーツ振興課</v>
       </c>
-      <c r="Q126">
+      <c r="Q126" t="str">
         <v>68.8</v>
       </c>
-      <c r="R126">
+      <c r="R126" t="str">
         <v>1136</v>
       </c>
       <c r="S126" t="str">
@@ -7825,14 +7837,14 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127">
+      <c r="A127" t="str">
         <v>126</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="str">
         <v>34.24133444</v>
       </c>
-      <c r="C127">
-        <v>134.03397833</v>
+      <c r="C127" t="str">
+        <v>134.0339783</v>
       </c>
       <c r="D127" t="str">
         <v>川東コミュニティセンター</v>
@@ -7873,10 +7885,10 @@
       <c r="P127" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q127">
+      <c r="Q127" t="str">
         <v>87.1</v>
       </c>
-      <c r="R127">
+      <c r="R127" t="str">
         <v>315</v>
       </c>
       <c r="S127" t="str">
@@ -7884,14 +7896,14 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128">
+      <c r="A128" t="str">
         <v>127</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="str">
         <v>34.24127611</v>
       </c>
-      <c r="C128">
-        <v>134.03575306</v>
+      <c r="C128" t="str">
+        <v>134.0357531</v>
       </c>
       <c r="D128" t="str">
         <v>川東小学校</v>
@@ -7932,10 +7944,10 @@
       <c r="P128" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q128">
+      <c r="Q128" t="str">
         <v>87.1</v>
       </c>
-      <c r="R128">
+      <c r="R128" t="str">
         <v>336</v>
       </c>
       <c r="S128" t="str">
@@ -7943,14 +7955,14 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129">
+      <c r="A129" t="str">
         <v>128</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="str">
         <v>34.22676417</v>
       </c>
-      <c r="C129">
-        <v>134.03776444</v>
+      <c r="C129" t="str">
+        <v>134.0377644</v>
       </c>
       <c r="D129" t="str">
         <v>香川町グリーンセンター</v>
@@ -7985,13 +7997,16 @@
       <c r="N129" t="str">
         <v>○</v>
       </c>
+      <c r="O129" t="str">
+        <v/>
+      </c>
       <c r="P129" t="str">
         <v>香川総合センター</v>
       </c>
-      <c r="Q129">
+      <c r="Q129" t="str">
         <v>133.8</v>
       </c>
-      <c r="R129">
+      <c r="R129" t="str">
         <v>200</v>
       </c>
       <c r="S129" t="str">
@@ -7999,14 +8014,14 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130">
+      <c r="A130" t="str">
         <v>129</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="str">
         <v>34.21197667</v>
       </c>
-      <c r="C130">
-        <v>134.03136833</v>
+      <c r="C130" t="str">
+        <v>134.0313683</v>
       </c>
       <c r="D130" t="str">
         <v>香川町多目的研修集会施設</v>
@@ -8041,13 +8056,16 @@
       <c r="N130" t="str">
         <v>○</v>
       </c>
+      <c r="O130" t="str">
+        <v/>
+      </c>
       <c r="P130" t="str">
         <v>農林水産課</v>
       </c>
-      <c r="Q130">
+      <c r="Q130" t="str">
         <v>118</v>
       </c>
-      <c r="R130">
+      <c r="R130" t="str">
         <v>179</v>
       </c>
       <c r="S130" t="str">
@@ -8055,14 +8073,14 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131">
+      <c r="A131" t="str">
         <v>130</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="str">
         <v>34.21657389</v>
       </c>
-      <c r="C131">
-        <v>134.05046917</v>
+      <c r="C131" t="str">
+        <v>134.0504692</v>
       </c>
       <c r="D131" t="str">
         <v>香川町高齢者活動促進センター</v>
@@ -8097,13 +8115,16 @@
       <c r="N131" t="str">
         <v>○</v>
       </c>
+      <c r="O131" t="str">
+        <v/>
+      </c>
       <c r="P131" t="str">
         <v>農林水産課</v>
       </c>
-      <c r="Q131">
+      <c r="Q131" t="str">
         <v>139.5</v>
       </c>
-      <c r="R131">
+      <c r="R131" t="str">
         <v>56</v>
       </c>
       <c r="S131" t="str">
@@ -8111,14 +8132,14 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132">
+      <c r="A132" t="str">
         <v>131</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="str">
         <v>34.20461444</v>
       </c>
-      <c r="C132">
-        <v>134.06167694</v>
+      <c r="C132" t="str">
+        <v>134.0616769</v>
       </c>
       <c r="D132" t="str">
         <v>東谷コミュニティセンター</v>
@@ -8159,10 +8180,10 @@
       <c r="P132" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q132">
+      <c r="Q132" t="str">
         <v>179.3</v>
       </c>
-      <c r="R132">
+      <c r="R132" t="str">
         <v>31</v>
       </c>
       <c r="S132" t="str">
@@ -8170,14 +8191,14 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133">
+      <c r="A133" t="str">
         <v>132</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="str">
         <v>34.24104222</v>
       </c>
-      <c r="C133">
-        <v>134.00912222</v>
+      <c r="C133" t="str">
+        <v>134.0091222</v>
       </c>
       <c r="D133" t="str">
         <v>香南小学校</v>
@@ -8218,10 +8239,10 @@
       <c r="P133" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q133">
+      <c r="Q133" t="str">
         <v>93</v>
       </c>
-      <c r="R133">
+      <c r="R133" t="str">
         <v>285</v>
       </c>
       <c r="S133" t="str">
@@ -8229,14 +8250,14 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134">
+      <c r="A134" t="str">
         <v>133</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="str">
         <v>34.24334472</v>
       </c>
-      <c r="C134">
-        <v>134.00856361</v>
+      <c r="C134" t="str">
+        <v>134.0085636</v>
       </c>
       <c r="D134" t="str">
         <v>香南中学校</v>
@@ -8277,10 +8298,10 @@
       <c r="P134" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q134">
+      <c r="Q134" t="str">
         <v>89.1</v>
       </c>
-      <c r="R134">
+      <c r="R134" t="str">
         <v>485</v>
       </c>
       <c r="S134" t="str">
@@ -8288,13 +8309,13 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135">
+      <c r="A135" t="str">
         <v>134</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="str">
         <v>34.23997</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="str">
         <v>134.01318</v>
       </c>
       <c r="D135" t="str">
@@ -8336,10 +8357,10 @@
       <c r="P135" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q135">
+      <c r="Q135" t="str">
         <v>82.1</v>
       </c>
-      <c r="R135">
+      <c r="R135" t="str">
         <v>141</v>
       </c>
       <c r="S135" t="str">
@@ -8347,14 +8368,14 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136">
+      <c r="A136" t="str">
         <v>135</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="str">
         <v>34.24024556</v>
       </c>
-      <c r="C136">
-        <v>134.01889917</v>
+      <c r="C136" t="str">
+        <v>134.0188992</v>
       </c>
       <c r="D136" t="str">
         <v>由佐農村環境改善センター</v>
@@ -8395,10 +8416,10 @@
       <c r="P136" t="str">
         <v>農林水産課</v>
       </c>
-      <c r="Q136">
+      <c r="Q136" t="str">
         <v>83.3</v>
       </c>
-      <c r="R136">
+      <c r="R136" t="str">
         <v>150</v>
       </c>
       <c r="S136" t="str">
@@ -8406,14 +8427,14 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137">
+      <c r="A137" t="str">
         <v>136</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="str">
         <v>34.245175</v>
       </c>
-      <c r="C137">
-        <v>134.00035333</v>
+      <c r="C137" t="str">
+        <v>134.0003533</v>
       </c>
       <c r="D137" t="str">
         <v>池西農村環境改善センター</v>
@@ -8454,10 +8475,10 @@
       <c r="P137" t="str">
         <v>農林水産課</v>
       </c>
-      <c r="Q137">
+      <c r="Q137" t="str">
         <v>84.3</v>
       </c>
-      <c r="R137">
+      <c r="R137" t="str">
         <v>165</v>
       </c>
       <c r="S137" t="str">
@@ -8465,14 +8486,14 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138">
+      <c r="A138" t="str">
         <v>137</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="str">
         <v>34.1963675</v>
       </c>
-      <c r="C138">
-        <v>134.04155944</v>
+      <c r="C138" t="str">
+        <v>134.0415594</v>
       </c>
       <c r="D138" t="str">
         <v>塩江コミュニティセンター</v>
@@ -8513,10 +8534,10 @@
       <c r="P138" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q138">
+      <c r="Q138" t="str">
         <v>139.4</v>
       </c>
-      <c r="R138">
+      <c r="R138" t="str">
         <v>189</v>
       </c>
       <c r="S138" t="str">
@@ -8524,14 +8545,14 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139">
+      <c r="A139" t="str">
         <v>138</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="str">
         <v>34.19820889</v>
       </c>
-      <c r="C139">
-        <v>134.04040667</v>
+      <c r="C139" t="str">
+        <v>134.0404067</v>
       </c>
       <c r="D139" t="str">
         <v>安原小学校跡施設</v>
@@ -8572,10 +8593,10 @@
       <c r="P139" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q139">
+      <c r="Q139" t="str">
         <v>137</v>
       </c>
-      <c r="R139">
+      <c r="R139" t="str">
         <v>225</v>
       </c>
       <c r="S139" t="str">
@@ -8583,14 +8604,14 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140">
+      <c r="A140" t="str">
         <v>139</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="str">
         <v>34.15596056</v>
       </c>
-      <c r="C140">
-        <v>134.02463722</v>
+      <c r="C140" t="str">
+        <v>134.0246372</v>
       </c>
       <c r="D140" t="str">
         <v>安原小学校　戸石分校跡施設</v>
@@ -8625,25 +8646,31 @@
       <c r="N140" t="str">
         <v>○</v>
       </c>
+      <c r="O140" t="str">
+        <v/>
+      </c>
       <c r="P140" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q140">
+      <c r="Q140" t="str">
         <v>379</v>
+      </c>
+      <c r="R140" t="str">
+        <v/>
       </c>
       <c r="S140" t="str">
         <v>塩江地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141">
+      <c r="A141" t="str">
         <v>140</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="str">
         <v>34.1697325</v>
       </c>
-      <c r="C141">
-        <v>134.08280667</v>
+      <c r="C141" t="str">
+        <v>134.0828067</v>
       </c>
       <c r="D141" t="str">
         <v>塩江支所　塩江連絡事務所</v>
@@ -8678,13 +8705,16 @@
       <c r="N141" t="str">
         <v>○</v>
       </c>
+      <c r="O141" t="str">
+        <v/>
+      </c>
       <c r="P141" t="str">
         <v>香川総合センター</v>
       </c>
-      <c r="Q141">
+      <c r="Q141" t="str">
         <v>206</v>
       </c>
-      <c r="R141">
+      <c r="R141" t="str">
         <v>24</v>
       </c>
       <c r="S141" t="str">
@@ -8692,14 +8722,14 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142">
+      <c r="A142" t="str">
         <v>141</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="str">
         <v>34.17048806</v>
       </c>
-      <c r="C142">
-        <v>134.08330944</v>
+      <c r="C142" t="str">
+        <v>134.0833094</v>
       </c>
       <c r="D142" t="str">
         <v>塩江小学校跡施設</v>
@@ -8740,10 +8770,10 @@
       <c r="P142" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q142">
+      <c r="Q142" t="str">
         <v>215</v>
       </c>
-      <c r="R142">
+      <c r="R142" t="str">
         <v>20</v>
       </c>
       <c r="S142" t="str">
@@ -8751,14 +8781,14 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143">
+      <c r="A143" t="str">
         <v>142</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="str">
         <v>34.15379861</v>
       </c>
-      <c r="C143">
-        <v>134.10119167</v>
+      <c r="C143" t="str">
+        <v>134.1011917</v>
       </c>
       <c r="D143" t="str">
         <v>椛川集会所</v>
@@ -8793,13 +8823,16 @@
       <c r="N143" t="str">
         <v>○</v>
       </c>
+      <c r="O143" t="str">
+        <v/>
+      </c>
       <c r="P143" t="str">
         <v>法人　椛川地域</v>
       </c>
-      <c r="Q143">
+      <c r="Q143" t="str">
         <v>265</v>
       </c>
-      <c r="R143">
+      <c r="R143" t="str">
         <v>49</v>
       </c>
       <c r="S143" t="str">
@@ -8807,14 +8840,14 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144">
+      <c r="A144" t="str">
         <v>143</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="str">
         <v>34.18143389</v>
       </c>
-      <c r="C144">
-        <v>134.07422111</v>
+      <c r="C144" t="str">
+        <v>134.0742211</v>
       </c>
       <c r="D144" t="str">
         <v>塩江小・中学校</v>
@@ -8855,10 +8888,10 @@
       <c r="P144" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q144">
+      <c r="Q144" t="str">
         <v>175</v>
       </c>
-      <c r="R144">
+      <c r="R144" t="str">
         <v>897</v>
       </c>
       <c r="S144" t="str">
@@ -8866,14 +8899,14 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145">
+      <c r="A145" t="str">
         <v>144</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="str">
         <v>34.15046528</v>
       </c>
-      <c r="C145">
-        <v>134.07660778</v>
+      <c r="C145" t="str">
+        <v>134.0766078</v>
       </c>
       <c r="D145" t="str">
         <v>塩江支所　上西連絡事務所</v>
@@ -8908,13 +8941,16 @@
       <c r="N145" t="str">
         <v>○</v>
       </c>
+      <c r="O145" t="str">
+        <v/>
+      </c>
       <c r="P145" t="str">
         <v>香川総合センター</v>
       </c>
-      <c r="Q145">
+      <c r="Q145" t="str">
         <v>276</v>
       </c>
-      <c r="R145">
+      <c r="R145" t="str">
         <v>16</v>
       </c>
       <c r="S145" t="str">
@@ -8922,14 +8958,14 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146">
+      <c r="A146" t="str">
         <v>145</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="str">
         <v>34.15226222</v>
       </c>
-      <c r="C146">
-        <v>134.07636056</v>
+      <c r="C146" t="str">
+        <v>134.0763606</v>
       </c>
       <c r="D146" t="str">
         <v>上西小学校跡施設</v>
@@ -8970,10 +9006,10 @@
       <c r="P146" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q146">
+      <c r="Q146" t="str">
         <v>266</v>
       </c>
-      <c r="R146">
+      <c r="R146" t="str">
         <v>143</v>
       </c>
       <c r="S146" t="str">
@@ -8981,14 +9017,14 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147">
+      <c r="A147" t="str">
         <v>146</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="str">
         <v>34.12607917</v>
       </c>
-      <c r="C147">
-        <v>134.07372833</v>
+      <c r="C147" t="str">
+        <v>134.0737283</v>
       </c>
       <c r="D147" t="str">
         <v>西山ふれあいセンター</v>
@@ -9023,13 +9059,16 @@
       <c r="N147" t="str">
         <v>○</v>
       </c>
+      <c r="O147" t="str">
+        <v/>
+      </c>
       <c r="P147" t="str">
         <v>香川総合センター</v>
       </c>
-      <c r="Q147">
+      <c r="Q147" t="str">
         <v>392</v>
       </c>
-      <c r="R147">
+      <c r="R147" t="str">
         <v>38</v>
       </c>
       <c r="S147" t="str">
@@ -9037,14 +9076,14 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148">
+      <c r="A148" t="str">
         <v>147</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="str">
         <v>34.29691</v>
       </c>
-      <c r="C148">
-        <v>133.96432139</v>
+      <c r="C148" t="str">
+        <v>133.9643214</v>
       </c>
       <c r="D148" t="str">
         <v>国分寺中学校</v>
@@ -9085,10 +9124,10 @@
       <c r="P148" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q148">
+      <c r="Q148" t="str">
         <v>23.5</v>
       </c>
-      <c r="R148">
+      <c r="R148" t="str">
         <v>297</v>
       </c>
       <c r="S148" t="str">
@@ -9096,13 +9135,13 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149">
+      <c r="A149" t="str">
         <v>148</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="str">
         <v>34.30594222</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="str">
         <v>133.9631825</v>
       </c>
       <c r="D149" t="str">
@@ -9144,10 +9183,10 @@
       <c r="P149" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q149">
+      <c r="Q149" t="str">
         <v>26.5</v>
       </c>
-      <c r="R149">
+      <c r="R149" t="str">
         <v>383</v>
       </c>
       <c r="S149" t="str">
@@ -9155,14 +9194,14 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150">
+      <c r="A150" t="str">
         <v>149</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="str">
         <v>34.30537556</v>
       </c>
-      <c r="C150">
-        <v>133.96234361</v>
+      <c r="C150" t="str">
+        <v>133.9623436</v>
       </c>
       <c r="D150" t="str">
         <v>国分寺北部コミュニティセンター</v>
@@ -9203,10 +9242,10 @@
       <c r="P150" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q150">
+      <c r="Q150" t="str">
         <v>26</v>
       </c>
-      <c r="R150">
+      <c r="R150" t="str">
         <v>294</v>
       </c>
       <c r="S150" t="str">
@@ -9214,14 +9253,14 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151">
+      <c r="A151" t="str">
         <v>150</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="str">
         <v>34.29734611</v>
       </c>
-      <c r="C151">
-        <v>133.96598806</v>
+      <c r="C151" t="str">
+        <v>133.9659881</v>
       </c>
       <c r="D151" t="str">
         <v>国分寺中学校第二体育館</v>
@@ -9262,10 +9301,10 @@
       <c r="P151" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q151">
+      <c r="Q151" t="str">
         <v>23.6</v>
       </c>
-      <c r="R151">
+      <c r="R151" t="str">
         <v>380</v>
       </c>
       <c r="S151" t="str">
@@ -9273,14 +9312,14 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152">
+      <c r="A152" t="str">
         <v>151</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="str">
         <v>34.30795889</v>
       </c>
-      <c r="C152">
-        <v>133.97181222</v>
+      <c r="C152" t="str">
+        <v>133.9718122</v>
       </c>
       <c r="D152" t="str">
         <v>新居東児童館</v>
@@ -9315,13 +9354,16 @@
       <c r="N152" t="str">
         <v>○</v>
       </c>
+      <c r="O152" t="str">
+        <v/>
+      </c>
       <c r="P152" t="str">
         <v>子育て支援課</v>
       </c>
-      <c r="Q152">
+      <c r="Q152" t="str">
         <v>31</v>
       </c>
-      <c r="R152">
+      <c r="R152" t="str">
         <v>70</v>
       </c>
       <c r="S152" t="str">
@@ -9329,14 +9371,14 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153">
+      <c r="A153" t="str">
         <v>152</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="str">
         <v>34.29960139</v>
       </c>
-      <c r="C153">
-        <v>133.95921083</v>
+      <c r="C153" t="str">
+        <v>133.9592108</v>
       </c>
       <c r="D153" t="str">
         <v>国分寺文化センター</v>
@@ -9377,10 +9419,10 @@
       <c r="P153" t="str">
         <v>人権啓発課</v>
       </c>
-      <c r="Q153">
+      <c r="Q153" t="str">
         <v>23</v>
       </c>
-      <c r="R153">
+      <c r="R153" t="str">
         <v>30</v>
       </c>
       <c r="S153" t="str">
@@ -9388,14 +9430,14 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154">
+      <c r="A154" t="str">
         <v>153</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="str">
         <v>34.30291167</v>
       </c>
-      <c r="C154">
-        <v>133.94646167</v>
+      <c r="C154" t="str">
+        <v>133.9464617</v>
       </c>
       <c r="D154" t="str">
         <v>国分児童館</v>
@@ -9430,13 +9472,16 @@
       <c r="N154" t="str">
         <v>○</v>
       </c>
+      <c r="O154" t="str">
+        <v/>
+      </c>
       <c r="P154" t="str">
         <v>子育て支援課</v>
       </c>
-      <c r="Q154">
+      <c r="Q154" t="str">
         <v>34.2</v>
       </c>
-      <c r="R154">
+      <c r="R154" t="str">
         <v>70</v>
       </c>
       <c r="S154" t="str">
@@ -9444,14 +9489,14 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155">
+      <c r="A155" t="str">
         <v>154</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="str">
         <v>34.28308639</v>
       </c>
-      <c r="C155">
-        <v>133.96142222</v>
+      <c r="C155" t="str">
+        <v>133.9614222</v>
       </c>
       <c r="D155" t="str">
         <v>国分寺南部小学校</v>
@@ -9492,10 +9537,10 @@
       <c r="P155" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q155">
+      <c r="Q155" t="str">
         <v>28.9</v>
       </c>
-      <c r="R155">
+      <c r="R155" t="str">
         <v>405</v>
       </c>
       <c r="S155" t="str">
@@ -9503,14 +9548,14 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156">
+      <c r="A156" t="str">
         <v>155</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="str">
         <v>34.28410306</v>
       </c>
-      <c r="C156">
-        <v>133.96101111</v>
+      <c r="C156" t="str">
+        <v>133.9610111</v>
       </c>
       <c r="D156" t="str">
         <v>国分寺南部コミュニティセンター</v>
@@ -9551,10 +9596,10 @@
       <c r="P156" t="str">
         <v>地域振興課</v>
       </c>
-      <c r="Q156">
+      <c r="Q156" t="str">
         <v>28.6</v>
       </c>
-      <c r="R156">
+      <c r="R156" t="str">
         <v>137</v>
       </c>
       <c r="S156" t="str">
@@ -9562,14 +9607,14 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157">
+      <c r="A157" t="str">
         <v>156</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="str">
         <v>34.28308639</v>
       </c>
-      <c r="C157">
-        <v>133.96142222</v>
+      <c r="C157" t="str">
+        <v>133.9614222</v>
       </c>
       <c r="D157" t="str">
         <v>国分寺勤労青少年ホーム</v>
@@ -9610,10 +9655,10 @@
       <c r="P157" t="str">
         <v>スポーツ振興課</v>
       </c>
-      <c r="Q157">
+      <c r="Q157" t="str">
         <v>28.4</v>
       </c>
-      <c r="R157">
+      <c r="R157" t="str">
         <v>180</v>
       </c>
       <c r="S157" t="str">
@@ -9621,13 +9666,13 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158">
+      <c r="A158" t="str">
         <v>157</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="str">
         <v>34.27412944</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="str">
         <v>133.9727575</v>
       </c>
       <c r="D158" t="str">
@@ -9663,13 +9708,16 @@
       <c r="N158" t="str">
         <v>○</v>
       </c>
+      <c r="O158" t="str">
+        <v/>
+      </c>
       <c r="P158" t="str">
         <v>子育て支援課</v>
       </c>
-      <c r="Q158">
+      <c r="Q158" t="str">
         <v>42.9</v>
       </c>
-      <c r="R158">
+      <c r="R158" t="str">
         <v>70</v>
       </c>
       <c r="S158" t="str">
@@ -9677,14 +9725,14 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159">
+      <c r="A159" t="str">
         <v>158</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="str">
         <v>34.29664333</v>
       </c>
-      <c r="C159">
-        <v>133.96011361</v>
+      <c r="C159" t="str">
+        <v>133.9601136</v>
       </c>
       <c r="D159" t="str">
         <v>国分寺会館</v>
@@ -9719,13 +9767,16 @@
       <c r="N159" t="str">
         <v>○</v>
       </c>
+      <c r="O159" t="str">
+        <v/>
+      </c>
       <c r="P159" t="str">
         <v>国分寺総合センター</v>
       </c>
-      <c r="Q159">
+      <c r="Q159" t="str">
         <v>24.4</v>
       </c>
-      <c r="R159">
+      <c r="R159" t="str">
         <v>135</v>
       </c>
       <c r="S159" t="str">
@@ -9733,14 +9784,14 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160">
+      <c r="A160" t="str">
         <v>159</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="str">
         <v>34.29932583</v>
       </c>
-      <c r="C160">
-        <v>133.94212889</v>
+      <c r="C160" t="str">
+        <v>133.9421289</v>
       </c>
       <c r="D160" t="str">
         <v>香川県青年センター</v>
@@ -9781,10 +9832,10 @@
       <c r="P160" t="str">
         <v>香川県青年センター</v>
       </c>
-      <c r="Q160">
+      <c r="Q160" t="str">
         <v>31.5</v>
       </c>
-      <c r="R160">
+      <c r="R160" t="str">
         <v>384</v>
       </c>
       <c r="S160" t="str">
@@ -9792,14 +9843,14 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161">
+      <c r="A161" t="str">
         <v>160</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="str">
         <v>34.36483306</v>
       </c>
-      <c r="C161">
-        <v>133.96951611</v>
+      <c r="C161" t="str">
+        <v>133.9695161</v>
       </c>
       <c r="D161" t="str">
         <v>香川県消防学校</v>
@@ -9834,13 +9885,16 @@
       <c r="N161" t="str">
         <v>○</v>
       </c>
+      <c r="O161" t="str">
+        <v/>
+      </c>
       <c r="P161" t="str">
         <v>香川県消防学校</v>
       </c>
-      <c r="Q161">
+      <c r="Q161" t="str">
         <v>3.1</v>
       </c>
-      <c r="R161">
+      <c r="R161" t="str">
         <v>250</v>
       </c>
       <c r="S161" t="str">
@@ -9848,13 +9902,13 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162">
+      <c r="A162" t="str">
         <v>161</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="str">
         <v>34.34431472</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="str">
         <v>134.0423575</v>
       </c>
       <c r="D162" t="str">
@@ -9896,10 +9950,10 @@
       <c r="P162" t="str">
         <v>県高校教育課</v>
       </c>
-      <c r="Q162">
+      <c r="Q162" t="str">
         <v>2.6</v>
       </c>
-      <c r="R162">
+      <c r="R162" t="str">
         <v>715</v>
       </c>
       <c r="S162" t="str">
@@ -9907,14 +9961,14 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163">
+      <c r="A163" t="str">
         <v>162</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="str">
         <v>34.34147611</v>
       </c>
-      <c r="C163">
-        <v>134.04409639</v>
+      <c r="C163" t="str">
+        <v>134.0440964</v>
       </c>
       <c r="D163" t="str">
         <v>高松高等学校（体育館）</v>
@@ -9955,10 +10009,10 @@
       <c r="P163" t="str">
         <v>県高校教育課</v>
       </c>
-      <c r="Q163">
+      <c r="Q163" t="str">
         <v>3.5</v>
       </c>
-      <c r="R163">
+      <c r="R163" t="str">
         <v>700</v>
       </c>
       <c r="S163" t="str">
@@ -9966,13 +10020,13 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164">
+      <c r="A164" t="str">
         <v>163</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="str">
         <v>34.33839083</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="str">
         <v>134.059245</v>
       </c>
       <c r="D164" t="str">
@@ -10014,10 +10068,10 @@
       <c r="P164" t="str">
         <v>県高校教育課</v>
       </c>
-      <c r="Q164">
+      <c r="Q164" t="str">
         <v>1.5</v>
       </c>
-      <c r="R164">
+      <c r="R164" t="str">
         <v>610</v>
       </c>
       <c r="S164" t="str">
@@ -10025,14 +10079,14 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165">
+      <c r="A165" t="str">
         <v>164</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="str">
         <v>34.34262028</v>
       </c>
-      <c r="C165">
-        <v>134.03753861</v>
+      <c r="C165" t="str">
+        <v>134.0375386</v>
       </c>
       <c r="D165" t="str">
         <v>香川大学（経済学部構内体育館）</v>
@@ -10073,10 +10127,10 @@
       <c r="P165" t="str">
         <v>香川大学</v>
       </c>
-      <c r="Q165">
+      <c r="Q165" t="str">
         <v>2.7</v>
       </c>
-      <c r="R165">
+      <c r="R165" t="str">
         <v>400</v>
       </c>
       <c r="S165" t="str">
@@ -10084,14 +10138,14 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166">
+      <c r="A166" t="str">
         <v>165</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="str">
         <v>34.29744222</v>
       </c>
-      <c r="C166">
-        <v>134.04150361</v>
+      <c r="C166" t="str">
+        <v>134.0415036</v>
       </c>
       <c r="D166" t="str">
         <v>香川県立聾学校（体育館）※地震時のみ使用</v>
@@ -10126,13 +10180,16 @@
       <c r="N166" t="str">
         <v>○</v>
       </c>
+      <c r="O166" t="str">
+        <v/>
+      </c>
       <c r="P166" t="str">
         <v>香川県聾学校</v>
       </c>
-      <c r="Q166">
+      <c r="Q166" t="str">
         <v>26.3</v>
       </c>
-      <c r="R166">
+      <c r="R166" t="str">
         <v>200</v>
       </c>
       <c r="S166" t="str">
@@ -10140,14 +10197,14 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167">
+      <c r="A167" t="str">
         <v>166</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="str">
         <v>34.34546194</v>
       </c>
-      <c r="C167">
-        <v>134.05345361</v>
+      <c r="C167" t="str">
+        <v>134.0534536</v>
       </c>
       <c r="D167" t="str">
         <v>高松市生涯学習センター（まなびCAN）</v>
@@ -10188,10 +10245,10 @@
       <c r="P167" t="str">
         <v>生涯学習課</v>
       </c>
-      <c r="Q167">
+      <c r="Q167" t="str">
         <v>2.1</v>
       </c>
-      <c r="R167">
+      <c r="R167" t="str">
         <v>50</v>
       </c>
       <c r="S167" t="str">
@@ -10199,14 +10256,14 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168">
+      <c r="A168" t="str">
         <v>167</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="str">
         <v>34.34199056</v>
       </c>
-      <c r="C168">
-        <v>134.07412694</v>
+      <c r="C168" t="str">
+        <v>134.0741269</v>
       </c>
       <c r="D168" t="str">
         <v>高松市総合体育館</v>
@@ -10247,10 +10304,10 @@
       <c r="P168" t="str">
         <v>スポーツ振興課</v>
       </c>
-      <c r="Q168">
+      <c r="Q168" t="str">
         <v>2.5</v>
       </c>
-      <c r="R168">
+      <c r="R168" t="str">
         <v>1445</v>
       </c>
       <c r="S168" t="str">
@@ -10258,14 +10315,14 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169">
+      <c r="A169" t="str">
         <v>168</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="str">
         <v>34.29206944</v>
       </c>
-      <c r="C169">
-        <v>134.11143639</v>
+      <c r="C169" t="str">
+        <v>134.1114364</v>
       </c>
       <c r="D169" t="str">
         <v>高松東高校（体育館）</v>
@@ -10306,10 +10363,10 @@
       <c r="P169" t="str">
         <v>県高校教育課</v>
       </c>
-      <c r="Q169">
+      <c r="Q169" t="str">
         <v>13.1</v>
       </c>
-      <c r="R169">
+      <c r="R169" t="str">
         <v>500</v>
       </c>
       <c r="S169" t="str">
@@ -10317,14 +10374,14 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170">
+      <c r="A170" t="str">
         <v>169</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="str">
         <v>34.31115389</v>
       </c>
-      <c r="C170">
-        <v>134.01108083</v>
+      <c r="C170" t="str">
+        <v>134.0110808</v>
       </c>
       <c r="D170" t="str">
         <v>香川高等専門学校（体育館）</v>
@@ -10365,10 +10422,10 @@
       <c r="P170" t="str">
         <v>独立行政法人　国立高等専門学校機構</v>
       </c>
-      <c r="Q170">
+      <c r="Q170" t="str">
         <v>26.5</v>
       </c>
-      <c r="R170">
+      <c r="R170" t="str">
         <v>800</v>
       </c>
       <c r="S170" t="str">
@@ -10376,14 +10433,14 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171">
+      <c r="A171" t="str">
         <v>170</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="str">
         <v>34.290355</v>
       </c>
-      <c r="C171">
-        <v>133.95202833</v>
+      <c r="C171" t="str">
+        <v>133.9520283</v>
       </c>
       <c r="D171" t="str">
         <v>香川県営住宅国分寺団地集会場</v>
@@ -10418,13 +10475,16 @@
       <c r="N171" t="str">
         <v>×</v>
       </c>
+      <c r="O171" t="str">
+        <v/>
+      </c>
       <c r="P171" t="str">
         <v>県住宅課</v>
       </c>
-      <c r="Q171">
+      <c r="Q171" t="str">
         <v>28.7</v>
       </c>
-      <c r="R171">
+      <c r="R171" t="str">
         <v>45</v>
       </c>
       <c r="S171" t="str">
@@ -10432,14 +10492,14 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172">
+      <c r="A172" t="str">
         <v>171</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="str">
         <v>34.25265806</v>
       </c>
-      <c r="C172">
-        <v>134.03109194</v>
+      <c r="C172" t="str">
+        <v>134.0310919</v>
       </c>
       <c r="D172" t="str">
         <v>香川第一中学校</v>
@@ -10480,10 +10540,10 @@
       <c r="P172" t="str">
         <v>教育総務課</v>
       </c>
-      <c r="Q172">
+      <c r="Q172" t="str">
         <v>98</v>
       </c>
-      <c r="R172">
+      <c r="R172" t="str">
         <v>540</v>
       </c>
       <c r="S172" t="str">
@@ -10491,13 +10551,13 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173">
+      <c r="A173" t="str">
         <v>172</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="str">
         <v>34.28533528</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="str">
         <v>134.0381625</v>
       </c>
       <c r="D173" t="str">
@@ -10533,13 +10593,16 @@
       <c r="N173" t="str">
         <v>○</v>
       </c>
+      <c r="O173" t="str">
+        <v/>
+      </c>
       <c r="P173" t="str">
         <v>香川県農業共済組合</v>
       </c>
-      <c r="Q173">
+      <c r="Q173" t="str">
         <v>36.1</v>
       </c>
-      <c r="R173">
+      <c r="R173" t="str">
         <v>119</v>
       </c>
       <c r="S173" t="str">
@@ -10547,14 +10610,14 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174">
+      <c r="A174" t="str">
         <v>173</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="str">
         <v>34.29277111</v>
       </c>
-      <c r="C174">
-        <v>134.06300722</v>
+      <c r="C174" t="str">
+        <v>134.0630072</v>
       </c>
       <c r="D174" t="str">
         <v>香川大学創造工学部</v>
@@ -10595,10 +10658,10 @@
       <c r="P174" t="str">
         <v>香川大学</v>
       </c>
-      <c r="Q174">
+      <c r="Q174" t="str">
         <v>22</v>
       </c>
-      <c r="R174">
+      <c r="R174" t="str">
         <v>240</v>
       </c>
       <c r="S174" t="str">
@@ -10606,14 +10669,14 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175">
+      <c r="A175" t="str">
         <v>174</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="str">
         <v>34.3292175</v>
       </c>
-      <c r="C175">
-        <v>134.09928361</v>
+      <c r="C175" t="str">
+        <v>134.0992836</v>
       </c>
       <c r="D175" t="str">
         <v>介護老人保健施設サンライズ屋島</v>
@@ -10648,13 +10711,16 @@
       <c r="N175" t="str">
         <v>○</v>
       </c>
+      <c r="O175" t="str">
+        <v/>
+      </c>
       <c r="P175" t="str">
         <v>介護老人保健施設サンライズ屋島</v>
       </c>
-      <c r="Q175">
+      <c r="Q175" t="str">
         <v>2.7</v>
       </c>
-      <c r="R175">
+      <c r="R175" t="str">
         <v>136</v>
       </c>
       <c r="S175" t="str">
@@ -10662,14 +10728,14 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176">
+      <c r="A176" t="str">
         <v>175</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="str">
         <v>34.35068639</v>
       </c>
-      <c r="C176">
-        <v>134.05094278</v>
+      <c r="C176" t="str">
+        <v>134.0509428</v>
       </c>
       <c r="D176" t="str">
         <v>玉藻公園</v>
@@ -10704,25 +10770,31 @@
       <c r="N176" t="str">
         <v>○</v>
       </c>
+      <c r="O176" t="str">
+        <v/>
+      </c>
       <c r="P176" t="str">
         <v>文化財課</v>
       </c>
-      <c r="Q176">
+      <c r="Q176" t="str">
         <v>2.6</v>
+      </c>
+      <c r="R176" t="str">
+        <v/>
       </c>
       <c r="S176" t="str">
         <v>四番丁コミュニティ協議会</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177">
+      <c r="A177" t="str">
         <v>176</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="str">
         <v>34.34194556</v>
       </c>
-      <c r="C177">
-        <v>134.04743222</v>
+      <c r="C177" t="str">
+        <v>134.0474322</v>
       </c>
       <c r="D177" t="str">
         <v>中央公園</v>
@@ -10757,25 +10829,31 @@
       <c r="N177" t="str">
         <v>○</v>
       </c>
+      <c r="O177" t="str">
+        <v/>
+      </c>
       <c r="P177" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q177">
+      <c r="Q177" t="str">
         <v>4.8</v>
+      </c>
+      <c r="R177" t="str">
+        <v/>
       </c>
       <c r="S177" t="str">
         <v>四番丁コミュニティ協議会</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178">
+      <c r="A178" t="str">
         <v>177</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="str">
         <v>34.32530333</v>
       </c>
-      <c r="C178">
-        <v>134.05862611</v>
+      <c r="C178" t="str">
+        <v>134.0586261</v>
       </c>
       <c r="D178" t="str">
         <v>今里中央公園</v>
@@ -10810,24 +10888,30 @@
       <c r="N178" t="str">
         <v>○</v>
       </c>
+      <c r="O178" t="str">
+        <v/>
+      </c>
       <c r="P178" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q178">
+      <c r="Q178" t="str">
         <v>4.8</v>
+      </c>
+      <c r="R178" t="str">
+        <v/>
       </c>
       <c r="S178" t="str">
         <v>太田地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179">
+      <c r="A179" t="str">
         <v>178</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="str">
         <v>34.31414</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="str">
         <v>134.0551</v>
       </c>
       <c r="D179" t="str">
@@ -10863,24 +10947,30 @@
       <c r="N179" t="str">
         <v>○</v>
       </c>
+      <c r="O179" t="str">
+        <v/>
+      </c>
       <c r="P179" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q179">
+      <c r="Q179" t="str">
         <v>12.3</v>
+      </c>
+      <c r="R179" t="str">
+        <v/>
       </c>
       <c r="S179" t="str">
         <v>太田地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180">
+      <c r="A180" t="str">
         <v>179</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="str">
         <v>34.31564151</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="str">
         <v>134.065604</v>
       </c>
       <c r="D180" t="str">
@@ -10916,25 +11006,31 @@
       <c r="N180" t="str">
         <v>○</v>
       </c>
+      <c r="O180" t="str">
+        <v/>
+      </c>
       <c r="P180" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q180">
+      <c r="Q180" t="str">
         <v>6.5</v>
+      </c>
+      <c r="R180" t="str">
+        <v/>
       </c>
       <c r="S180" t="str">
         <v>木太地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181">
+      <c r="A181" t="str">
         <v>180</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="str">
         <v>34.33156222</v>
       </c>
-      <c r="C181">
-        <v>134.11672083</v>
+      <c r="C181" t="str">
+        <v>134.1167208</v>
       </c>
       <c r="D181" t="str">
         <v>菱の池公園</v>
@@ -10969,25 +11065,31 @@
       <c r="N181" t="str">
         <v>○</v>
       </c>
+      <c r="O181" t="str">
+        <v/>
+      </c>
       <c r="P181" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q181">
+      <c r="Q181" t="str">
         <v>21.3</v>
+      </c>
+      <c r="R181" t="str">
+        <v/>
       </c>
       <c r="S181" t="str">
         <v>古高松地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182">
+      <c r="A182" t="str">
         <v>181</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="str">
         <v>34.29543016</v>
       </c>
-      <c r="C182">
-        <v>134.02514076</v>
+      <c r="C182" t="str">
+        <v>134.0251408</v>
       </c>
       <c r="D182" t="str">
         <v>一宮新池農村公園</v>
@@ -11022,25 +11124,31 @@
       <c r="N182" t="str">
         <v>○</v>
       </c>
+      <c r="O182" t="str">
+        <v/>
+      </c>
       <c r="P182" t="str">
         <v>土地改良課</v>
       </c>
-      <c r="Q182">
+      <c r="Q182" t="str">
         <v>29.9</v>
+      </c>
+      <c r="R182" t="str">
+        <v/>
       </c>
       <c r="S182" t="str">
         <v>一宮地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183">
+      <c r="A183" t="str">
         <v>182</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="str">
         <v>34.33351</v>
       </c>
-      <c r="C183">
-        <v>134.15671167</v>
+      <c r="C183" t="str">
+        <v>134.1567117</v>
       </c>
       <c r="D183" t="str">
         <v>房前公園・源平の里むれ（道の駅）</v>
@@ -11075,25 +11183,31 @@
       <c r="N183" t="str">
         <v>○</v>
       </c>
+      <c r="O183" t="str">
+        <v/>
+      </c>
       <c r="P183" t="str">
         <v>観光交流課</v>
       </c>
-      <c r="Q183">
+      <c r="Q183" t="str">
         <v>7.5</v>
+      </c>
+      <c r="R183" t="str">
+        <v/>
       </c>
       <c r="S183" t="str">
         <v>むれコミュニティ協議会</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184">
+      <c r="A184" t="str">
         <v>183</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="str">
         <v>34.3300825</v>
       </c>
-      <c r="C184">
-        <v>134.02583722</v>
+      <c r="C184" t="str">
+        <v>134.0258372</v>
       </c>
       <c r="D184" t="str">
         <v>峰山公園</v>
@@ -11128,25 +11242,31 @@
       <c r="N184" t="str">
         <v>○</v>
       </c>
+      <c r="O184" t="str">
+        <v/>
+      </c>
       <c r="P184" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q184">
+      <c r="Q184" t="str">
         <v>171.3</v>
+      </c>
+      <c r="R184" t="str">
+        <v/>
       </c>
       <c r="S184" t="str">
         <v>亀阜校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185">
+      <c r="A185" t="str">
         <v>184</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="str">
         <v>34.32904333</v>
       </c>
-      <c r="C185">
-        <v>134.12460361</v>
+      <c r="C185" t="str">
+        <v>134.1246036</v>
       </c>
       <c r="D185" t="str">
         <v>東部運動公園</v>
@@ -11181,25 +11301,31 @@
       <c r="N185" t="str">
         <v>○</v>
       </c>
+      <c r="O185" t="str">
+        <v/>
+      </c>
       <c r="P185" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q185">
+      <c r="Q185" t="str">
         <v>51.3</v>
+      </c>
+      <c r="R185" t="str">
+        <v/>
       </c>
       <c r="S185" t="str">
         <v>古高松地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186">
+      <c r="A186" t="str">
         <v>185</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="str">
         <v>34.27103972</v>
       </c>
-      <c r="C186">
-        <v>134.04834833</v>
+      <c r="C186" t="str">
+        <v>134.0483483</v>
       </c>
       <c r="D186" t="str">
         <v>仏生山公園</v>
@@ -11234,24 +11360,30 @@
       <c r="N186" t="str">
         <v>○</v>
       </c>
+      <c r="O186" t="str">
+        <v/>
+      </c>
       <c r="P186" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q186">
+      <c r="Q186" t="str">
         <v>46.4</v>
+      </c>
+      <c r="R186" t="str">
+        <v/>
       </c>
       <c r="S186" t="str">
         <v>仏生山地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187">
+      <c r="A187" t="str">
         <v>186</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="str">
         <v>34.30253</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="str">
         <v>134.06385</v>
       </c>
       <c r="D187" t="str">
@@ -11287,25 +11419,31 @@
       <c r="N187" t="str">
         <v>○</v>
       </c>
+      <c r="O187" t="str">
+        <v/>
+      </c>
       <c r="P187" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q187">
+      <c r="Q187" t="str">
         <v>15.5</v>
+      </c>
+      <c r="R187" t="str">
+        <v/>
       </c>
       <c r="S187" t="str">
         <v>林地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188">
+      <c r="A188" t="str">
         <v>187</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="str">
         <v>34.28000577</v>
       </c>
-      <c r="C188">
-        <v>134.05581158</v>
+      <c r="C188" t="str">
+        <v>134.0558116</v>
       </c>
       <c r="D188" t="str">
         <v>彦作池公園</v>
@@ -11340,25 +11478,31 @@
       <c r="N188" t="str">
         <v>○</v>
       </c>
+      <c r="O188" t="str">
+        <v/>
+      </c>
       <c r="P188" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q188">
+      <c r="Q188" t="str">
         <v>32.4</v>
+      </c>
+      <c r="R188" t="str">
+        <v/>
       </c>
       <c r="S188" t="str">
         <v>多肥地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189">
+      <c r="A189" t="str">
         <v>188</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="str">
         <v>34.24461694</v>
       </c>
-      <c r="C189">
-        <v>134.00551111</v>
+      <c r="C189" t="str">
+        <v>134.0055111</v>
       </c>
       <c r="D189" t="str">
         <v>月見ヶ原公園</v>
@@ -11393,25 +11537,31 @@
       <c r="N189" t="str">
         <v>○</v>
       </c>
+      <c r="O189" t="str">
+        <v/>
+      </c>
       <c r="P189" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q189">
+      <c r="Q189" t="str">
         <v>90.1</v>
+      </c>
+      <c r="R189" t="str">
+        <v/>
       </c>
       <c r="S189" t="str">
         <v>香南地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190">
+      <c r="A190" t="str">
         <v>189</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="str">
         <v>34.32021139</v>
       </c>
-      <c r="C190">
-        <v>134.15081806</v>
+      <c r="C190" t="str">
+        <v>134.1508181</v>
       </c>
       <c r="D190" t="str">
         <v>牟礼中央公園</v>
@@ -11446,25 +11596,31 @@
       <c r="N190" t="str">
         <v>○</v>
       </c>
+      <c r="O190" t="str">
+        <v/>
+      </c>
       <c r="P190" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q190">
+      <c r="Q190" t="str">
         <v>45.8</v>
+      </c>
+      <c r="R190" t="str">
+        <v/>
       </c>
       <c r="S190" t="str">
         <v>むれコミュニティ協議会</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191">
+      <c r="A191" t="str">
         <v>190</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="str">
         <v>34.34749417</v>
       </c>
-      <c r="C191">
-        <v>134.13416333</v>
+      <c r="C191" t="str">
+        <v>134.1341633</v>
       </c>
       <c r="D191" t="str">
         <v>御山公園</v>
@@ -11499,25 +11655,31 @@
       <c r="N191" t="str">
         <v>○</v>
       </c>
+      <c r="O191" t="str">
+        <v/>
+      </c>
       <c r="P191" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q191">
+      <c r="Q191" t="str">
         <v>45.5</v>
+      </c>
+      <c r="R191" t="str">
+        <v/>
       </c>
       <c r="S191" t="str">
         <v>むれコミュニティ協議会</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192">
+      <c r="A192" t="str">
         <v>191</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="str">
         <v>34.3081</v>
       </c>
-      <c r="C192">
-        <v>133.95190556</v>
+      <c r="C192" t="str">
+        <v>133.9519056</v>
       </c>
       <c r="D192" t="str">
         <v>如意輪寺公園</v>
@@ -11552,25 +11714,31 @@
       <c r="N192" t="str">
         <v>○</v>
       </c>
+      <c r="O192" t="str">
+        <v/>
+      </c>
       <c r="P192" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q192">
+      <c r="Q192" t="str">
         <v>49.1</v>
+      </c>
+      <c r="R192" t="str">
+        <v/>
       </c>
       <c r="S192" t="str">
         <v>国分寺北部校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193">
+      <c r="A193" t="str">
         <v>192</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="str">
         <v>34.27257361</v>
       </c>
-      <c r="C193">
-        <v>133.94997917</v>
+      <c r="C193" t="str">
+        <v>133.9499792</v>
       </c>
       <c r="D193" t="str">
         <v>橘ノ丘公園</v>
@@ -11605,24 +11773,30 @@
       <c r="N193" t="str">
         <v>○</v>
       </c>
+      <c r="O193" t="str">
+        <v/>
+      </c>
       <c r="P193" t="str">
         <v>公園緑地課</v>
       </c>
-      <c r="Q193">
+      <c r="Q193" t="str">
         <v>55.7</v>
+      </c>
+      <c r="R193" t="str">
+        <v/>
       </c>
       <c r="S193" t="str">
         <v>国分寺南部校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194">
+      <c r="A194" t="str">
         <v>193</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="str">
         <v>34.32746</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="str">
         <v>134.09237</v>
       </c>
       <c r="D194" t="str">
@@ -11658,13 +11832,16 @@
       <c r="N194" t="str">
         <v>○</v>
       </c>
+      <c r="O194" t="str">
+        <v/>
+      </c>
       <c r="P194" t="str">
         <v>トヨタカローラ香川株式会社</v>
       </c>
-      <c r="Q194">
+      <c r="Q194" t="str">
         <v>1.9</v>
       </c>
-      <c r="R194">
+      <c r="R194" t="str">
         <v>121</v>
       </c>
       <c r="S194" t="str">

--- a/data/evacuation_space/data.xlsx
+++ b/data/evacuation_space/data.xlsx
@@ -862,7 +862,7 @@
         <v>○</v>
       </c>
       <c r="P8" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q8" t="str">
         <v>1.6</v>
@@ -4107,7 +4107,7 @@
         <v>○</v>
       </c>
       <c r="P63" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q63" t="str">
         <v>1.8</v>
@@ -4166,7 +4166,7 @@
         <v>○</v>
       </c>
       <c r="P64" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q64" t="str">
         <v>1.5</v>
@@ -4225,7 +4225,7 @@
         <v>○</v>
       </c>
       <c r="P65" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q65" t="str">
         <v>2.8</v>
@@ -4284,7 +4284,7 @@
         <v>○</v>
       </c>
       <c r="P66" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q66" t="str">
         <v>2.5</v>
@@ -4343,7 +4343,7 @@
         <v>○</v>
       </c>
       <c r="P67" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q67" t="str">
         <v>7.7</v>
@@ -4402,7 +4402,7 @@
         <v>○</v>
       </c>
       <c r="P68" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q68" t="str">
         <v>1.7</v>
@@ -4461,7 +4461,7 @@
         <v>○</v>
       </c>
       <c r="P69" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q69" t="str">
         <v>1.5</v>
@@ -4520,7 +4520,7 @@
         <v>○</v>
       </c>
       <c r="P70" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q70" t="str">
         <v>1.6</v>
@@ -4579,7 +4579,7 @@
         <v>○</v>
       </c>
       <c r="P71" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q71" t="str">
         <v>2.2</v>
@@ -4638,7 +4638,7 @@
         <v>○</v>
       </c>
       <c r="P72" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q72" t="str">
         <v>18.4</v>
@@ -4697,7 +4697,7 @@
         <v>○</v>
       </c>
       <c r="P73" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q73" t="str">
         <v>8.8</v>
@@ -4756,7 +4756,7 @@
         <v>○</v>
       </c>
       <c r="P74" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q74" t="str">
         <v>23.1</v>
@@ -4815,7 +4815,7 @@
         <v>○</v>
       </c>
       <c r="P75" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q75" t="str">
         <v>8.4</v>
@@ -4874,7 +4874,7 @@
         <v>○</v>
       </c>
       <c r="P76" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q76" t="str">
         <v>20.6</v>
@@ -4933,7 +4933,7 @@
         <v>○</v>
       </c>
       <c r="P77" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q77" t="str">
         <v>1</v>
@@ -4992,7 +4992,7 @@
         <v>○</v>
       </c>
       <c r="P78" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q78" t="str">
         <v>3</v>
@@ -5051,7 +5051,7 @@
         <v>○</v>
       </c>
       <c r="P79" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q79" t="str">
         <v>2.9</v>
@@ -5110,7 +5110,7 @@
         <v>○</v>
       </c>
       <c r="P80" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q80" t="str">
         <v>2.4</v>
@@ -5169,7 +5169,7 @@
         <v>○</v>
       </c>
       <c r="P81" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q81" t="str">
         <v>2.2</v>
@@ -5228,7 +5228,7 @@
         <v>○</v>
       </c>
       <c r="P82" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q82" t="str">
         <v>3</v>
@@ -5287,7 +5287,7 @@
         <v>○</v>
       </c>
       <c r="P83" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q83" t="str">
         <v>10.5</v>
@@ -5346,7 +5346,7 @@
         <v>○</v>
       </c>
       <c r="P84" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q84" t="str">
         <v>13.5</v>
@@ -5405,7 +5405,7 @@
         <v>○</v>
       </c>
       <c r="P85" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q85" t="str">
         <v>8.6</v>
@@ -5464,7 +5464,7 @@
         <v>○</v>
       </c>
       <c r="P86" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q86" t="str">
         <v>13.2</v>
@@ -5523,7 +5523,7 @@
         <v>○</v>
       </c>
       <c r="P87" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q87" t="str">
         <v>26</v>
@@ -5582,7 +5582,7 @@
         <v>○</v>
       </c>
       <c r="P88" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q88" t="str">
         <v>36.6</v>
@@ -5641,7 +5641,7 @@
         <v>○</v>
       </c>
       <c r="P89" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q89" t="str">
         <v>26.9</v>
@@ -5700,7 +5700,7 @@
         <v>○</v>
       </c>
       <c r="P90" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q90" t="str">
         <v>33.9</v>
@@ -5759,7 +5759,7 @@
         <v>○</v>
       </c>
       <c r="P91" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q91" t="str">
         <v>38.1</v>
@@ -5818,7 +5818,7 @@
         <v>○</v>
       </c>
       <c r="P92" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q92" t="str">
         <v>52.5</v>
@@ -5877,7 +5877,7 @@
         <v>○</v>
       </c>
       <c r="P93" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q93" t="str">
         <v>24.1</v>
@@ -5936,7 +5936,7 @@
         <v>○</v>
       </c>
       <c r="P94" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q94" t="str">
         <v>7.1</v>
@@ -5995,7 +5995,7 @@
         <v>○</v>
       </c>
       <c r="P95" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q95" t="str">
         <v>12.8</v>
@@ -6054,7 +6054,7 @@
         <v>○</v>
       </c>
       <c r="P96" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q96" t="str">
         <v>3.6</v>
@@ -6113,7 +6113,7 @@
         <v>○</v>
       </c>
       <c r="P97" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q97" t="str">
         <v>24.2</v>
@@ -6172,7 +6172,7 @@
         <v>○</v>
       </c>
       <c r="P98" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q98" t="str">
         <v>7.7</v>
@@ -6231,7 +6231,7 @@
         <v>○</v>
       </c>
       <c r="P99" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q99" t="str">
         <v>2.4</v>
@@ -6290,7 +6290,7 @@
         <v>○</v>
       </c>
       <c r="P100" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q100" t="str">
         <v>21.2</v>
@@ -6349,7 +6349,7 @@
         <v>○</v>
       </c>
       <c r="P101" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q101" t="str">
         <v>41.8</v>
@@ -6408,7 +6408,7 @@
         <v>○</v>
       </c>
       <c r="P102" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q102" t="str">
         <v>51.8</v>
@@ -6585,7 +6585,7 @@
         <v>○</v>
       </c>
       <c r="P105" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q105" t="str">
         <v>14.8</v>
@@ -6998,7 +6998,7 @@
         <v>○</v>
       </c>
       <c r="P112" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q112" t="str">
         <v>13.6</v>
@@ -7293,7 +7293,7 @@
         <v>○</v>
       </c>
       <c r="P117" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q117" t="str">
         <v>3.3</v>
@@ -7588,7 +7588,7 @@
         <v>○</v>
       </c>
       <c r="P122" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q122" t="str">
         <v>56.5</v>
@@ -7765,7 +7765,7 @@
         <v>○</v>
       </c>
       <c r="P125" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q125" t="str">
         <v>64.6</v>
@@ -7883,7 +7883,7 @@
         <v>○</v>
       </c>
       <c r="P127" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q127" t="str">
         <v>87.1</v>
@@ -8178,7 +8178,7 @@
         <v>○</v>
       </c>
       <c r="P132" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q132" t="str">
         <v>179.3</v>
@@ -8355,7 +8355,7 @@
         <v>○</v>
       </c>
       <c r="P135" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q135" t="str">
         <v>82.1</v>
@@ -8532,7 +8532,7 @@
         <v>○</v>
       </c>
       <c r="P138" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q138" t="str">
         <v>139.4</v>
@@ -8591,7 +8591,7 @@
         <v>○</v>
       </c>
       <c r="P139" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q139" t="str">
         <v>137</v>
@@ -8768,7 +8768,7 @@
         <v>○</v>
       </c>
       <c r="P142" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q142" t="str">
         <v>215</v>
@@ -9004,7 +9004,7 @@
         <v>○</v>
       </c>
       <c r="P146" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q146" t="str">
         <v>266</v>
@@ -9240,7 +9240,7 @@
         <v>○</v>
       </c>
       <c r="P150" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q150" t="str">
         <v>26</v>
@@ -9594,7 +9594,7 @@
         <v>○</v>
       </c>
       <c r="P156" t="str">
-        <v>地域振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q156" t="str">
         <v>28.6</v>

--- a/data/evacuation_space/data.xlsx
+++ b/data/evacuation_space/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S194"/>
+  <dimension ref="A1:S196"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -779,7 +779,7 @@
         <v>○</v>
       </c>
       <c r="H7" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I7" t="str">
         <v>○</v>
@@ -838,7 +838,7 @@
         <v>○</v>
       </c>
       <c r="H8" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I8" t="str">
         <v>△</v>
@@ -897,7 +897,7 @@
         <v>○</v>
       </c>
       <c r="H9" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I9" t="str">
         <v>○</v>
@@ -2136,7 +2136,7 @@
         <v>○</v>
       </c>
       <c r="H30" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I30" t="str">
         <v>△</v>
@@ -3051,7 +3051,7 @@
         <v>1.6</v>
       </c>
       <c r="R45" t="str">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="S45" t="str">
         <v>花園地区コミュニティ協議会</v>
@@ -3080,7 +3080,7 @@
         <v>○</v>
       </c>
       <c r="H46" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I46" t="str">
         <v>△</v>
@@ -3788,7 +3788,7 @@
         <v>○</v>
       </c>
       <c r="H58" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I58" t="str">
         <v>○</v>
@@ -4378,7 +4378,7 @@
         <v>○</v>
       </c>
       <c r="H68" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I68" t="str">
         <v>○</v>
@@ -4437,7 +4437,7 @@
         <v>○</v>
       </c>
       <c r="H69" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I69" t="str">
         <v>△</v>
@@ -4496,7 +4496,7 @@
         <v>○</v>
       </c>
       <c r="H70" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I70" t="str">
         <v>△</v>
@@ -4555,7 +4555,7 @@
         <v>○</v>
       </c>
       <c r="H71" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I71" t="str">
         <v>○</v>
@@ -5322,7 +5322,7 @@
         <v>○</v>
       </c>
       <c r="H84" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I84" t="str">
         <v>△</v>
@@ -5440,7 +5440,7 @@
         <v>○</v>
       </c>
       <c r="H86" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I86" t="str">
         <v>○</v>
@@ -6307,58 +6307,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="str">
-        <v>34.24028</v>
+        <v>34.27605389</v>
       </c>
       <c r="C101" t="str">
-        <v>134.0788269</v>
+        <v>134.0852364</v>
       </c>
       <c r="D101" t="str">
-        <v>西植田コミュニティセンター</v>
-      </c>
-      <c r="E101" t="str">
-        <v>高松市西植田町2247-1</v>
-      </c>
-      <c r="F101" t="str">
-        <v>087-849-0101</v>
-      </c>
-      <c r="G101" t="str">
-        <v>○</v>
-      </c>
-      <c r="H101" t="str">
-        <v>○</v>
-      </c>
-      <c r="I101" t="str">
-        <v>○</v>
-      </c>
-      <c r="J101" t="str">
-        <v>○</v>
-      </c>
-      <c r="K101" t="str">
-        <v>○</v>
-      </c>
-      <c r="L101" t="str">
-        <v>○</v>
-      </c>
-      <c r="M101" t="str">
-        <v>×</v>
-      </c>
-      <c r="N101" t="str">
-        <v>○</v>
-      </c>
-      <c r="O101" t="str">
-        <v>○</v>
-      </c>
-      <c r="P101" t="str">
-        <v>協働コミュニティ推進課</v>
-      </c>
-      <c r="Q101" t="str">
-        <v>41.8</v>
-      </c>
-      <c r="R101" t="str">
-        <v>73</v>
-      </c>
-      <c r="S101" t="str">
-        <v>植田校区コミュニティ協議会</v>
+        <v>新規マップピン</v>
       </c>
     </row>
     <row r="102">
@@ -6366,19 +6321,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="str">
-        <v>34.23821417</v>
+        <v>34.24028</v>
       </c>
       <c r="C102" t="str">
-        <v>134.0990447</v>
+        <v>134.0788269</v>
       </c>
       <c r="D102" t="str">
-        <v>東植田コミュニティセンター</v>
+        <v>西植田コミュニティセンター</v>
       </c>
       <c r="E102" t="str">
-        <v>高松市東植田町1825-1</v>
+        <v>高松市西植田町2247-1</v>
       </c>
       <c r="F102" t="str">
-        <v>087-849-0104</v>
+        <v>087-849-0101</v>
       </c>
       <c r="G102" t="str">
         <v>○</v>
@@ -6411,13 +6366,13 @@
         <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q102" t="str">
-        <v>51.8</v>
+        <v>41.8</v>
       </c>
       <c r="R102" t="str">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="S102" t="str">
-        <v>東植田校区コミュニティ協議会</v>
+        <v>植田校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="103">
@@ -6425,19 +6380,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="str">
-        <v>34.34605</v>
+        <v>34.23821417</v>
       </c>
       <c r="C103" t="str">
-        <v>134.1427625</v>
+        <v>134.0990447</v>
       </c>
       <c r="D103" t="str">
-        <v>高松北高等（中）学校（体育館）</v>
+        <v>東植田コミュニティセンター</v>
       </c>
       <c r="E103" t="str">
-        <v>高松市牟礼町牟礼1583-1</v>
+        <v>高松市東植田町1825-1</v>
       </c>
       <c r="F103" t="str">
-        <v>087-845-2155</v>
+        <v>087-849-0104</v>
       </c>
       <c r="G103" t="str">
         <v>○</v>
@@ -6449,7 +6404,7 @@
         <v>○</v>
       </c>
       <c r="J103" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="K103" t="str">
         <v>○</v>
@@ -6467,16 +6422,16 @@
         <v>○</v>
       </c>
       <c r="P103" t="str">
-        <v>県高校教育課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q103" t="str">
-        <v>42.2</v>
+        <v>51.8</v>
       </c>
       <c r="R103" t="str">
-        <v>550</v>
+        <v>92</v>
       </c>
       <c r="S103" t="str">
-        <v>むれコミュニティ協議会</v>
+        <v>東植田校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="104">
@@ -6484,19 +6439,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="str">
-        <v>34.33900083</v>
+        <v>34.34605</v>
       </c>
       <c r="C104" t="str">
-        <v>134.1432822</v>
+        <v>134.1427625</v>
       </c>
       <c r="D104" t="str">
-        <v>牟礼中学校</v>
+        <v>高松北高等（中）学校（体育館）</v>
       </c>
       <c r="E104" t="str">
-        <v>高松市牟礼町牟礼46-2</v>
+        <v>高松市牟礼町牟礼1583-1</v>
       </c>
       <c r="F104" t="str">
-        <v>087-845-9604</v>
+        <v>087-845-2155</v>
       </c>
       <c r="G104" t="str">
         <v>○</v>
@@ -6517,7 +6472,7 @@
         <v>○</v>
       </c>
       <c r="M104" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N104" t="str">
         <v>○</v>
@@ -6526,13 +6481,13 @@
         <v>○</v>
       </c>
       <c r="P104" t="str">
-        <v>教育総務課</v>
+        <v>県高校教育課</v>
       </c>
       <c r="Q104" t="str">
-        <v>31.8</v>
+        <v>42.2</v>
       </c>
       <c r="R104" t="str">
-        <v>452</v>
+        <v>550</v>
       </c>
       <c r="S104" t="str">
         <v>むれコミュニティ協議会</v>
@@ -6543,19 +6498,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="str">
-        <v>34.33782306</v>
+        <v>34.33900083</v>
       </c>
       <c r="C105" t="str">
-        <v>134.1391408</v>
+        <v>134.1432822</v>
       </c>
       <c r="D105" t="str">
-        <v>牟礼コミュニティセンター</v>
+        <v>牟礼中学校</v>
       </c>
       <c r="E105" t="str">
-        <v>高松市牟礼町牟礼302-1</v>
+        <v>高松市牟礼町牟礼46-2</v>
       </c>
       <c r="F105" t="str">
-        <v>087-845-4111</v>
+        <v>087-845-9604</v>
       </c>
       <c r="G105" t="str">
         <v>○</v>
@@ -6567,7 +6522,7 @@
         <v>○</v>
       </c>
       <c r="J105" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="K105" t="str">
         <v>○</v>
@@ -6576,7 +6531,7 @@
         <v>○</v>
       </c>
       <c r="M105" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N105" t="str">
         <v>○</v>
@@ -6585,13 +6540,13 @@
         <v>○</v>
       </c>
       <c r="P105" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q105" t="str">
-        <v>14.8</v>
+        <v>31.8</v>
       </c>
       <c r="R105" t="str">
-        <v>149</v>
+        <v>452</v>
       </c>
       <c r="S105" t="str">
         <v>むれコミュニティ協議会</v>
@@ -6602,19 +6557,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="str">
-        <v>34.34252806</v>
+        <v>34.33782306</v>
       </c>
       <c r="C106" t="str">
-        <v>134.1430653</v>
+        <v>134.1391408</v>
       </c>
       <c r="D106" t="str">
-        <v>牟礼総合体育館</v>
+        <v>牟礼コミュニティセンター</v>
       </c>
       <c r="E106" t="str">
-        <v>高松市牟礼町牟礼152-10</v>
+        <v>高松市牟礼町牟礼302-1</v>
       </c>
       <c r="F106" t="str">
-        <v>087-845-7060</v>
+        <v>087-845-4111</v>
       </c>
       <c r="G106" t="str">
         <v>○</v>
@@ -6626,7 +6581,7 @@
         <v>○</v>
       </c>
       <c r="J106" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K106" t="str">
         <v>○</v>
@@ -6644,13 +6599,13 @@
         <v>○</v>
       </c>
       <c r="P106" t="str">
-        <v>スポーツ振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q106" t="str">
-        <v>37.9</v>
+        <v>14.8</v>
       </c>
       <c r="R106" t="str">
-        <v>1100</v>
+        <v>149</v>
       </c>
       <c r="S106" t="str">
         <v>むれコミュニティ協議会</v>
@@ -6661,19 +6616,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="str">
-        <v>34.35012694</v>
+        <v>34.34252806</v>
       </c>
       <c r="C107" t="str">
-        <v>134.1260667</v>
+        <v>134.1430653</v>
       </c>
       <c r="D107" t="str">
-        <v>牟礼北小学校</v>
+        <v>牟礼総合体育館</v>
       </c>
       <c r="E107" t="str">
-        <v>高松市牟礼町牟礼2900-1</v>
+        <v>高松市牟礼町牟礼152-10</v>
       </c>
       <c r="F107" t="str">
-        <v>087-845-5742</v>
+        <v>087-845-7060</v>
       </c>
       <c r="G107" t="str">
         <v>○</v>
@@ -6685,7 +6640,7 @@
         <v>○</v>
       </c>
       <c r="J107" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K107" t="str">
         <v>○</v>
@@ -6694,7 +6649,7 @@
         <v>○</v>
       </c>
       <c r="M107" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N107" t="str">
         <v>○</v>
@@ -6703,13 +6658,13 @@
         <v>○</v>
       </c>
       <c r="P107" t="str">
-        <v>教育総務課</v>
+        <v>スポーツ振興課</v>
       </c>
       <c r="Q107" t="str">
-        <v>12.6</v>
+        <v>37.9</v>
       </c>
       <c r="R107" t="str">
-        <v>318</v>
+        <v>1100</v>
       </c>
       <c r="S107" t="str">
         <v>むれコミュニティ協議会</v>
@@ -6720,19 +6675,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="str">
-        <v>34.33645944</v>
+        <v>34.35012694</v>
       </c>
       <c r="C108" t="str">
-        <v>134.1415239</v>
+        <v>134.1260667</v>
       </c>
       <c r="D108" t="str">
-        <v>牟礼小学校</v>
+        <v>牟礼北小学校</v>
       </c>
       <c r="E108" t="str">
-        <v>高松市牟礼町大町1560</v>
+        <v>高松市牟礼町牟礼2900-1</v>
       </c>
       <c r="F108" t="str">
-        <v>087-845-9239</v>
+        <v>087-845-5742</v>
       </c>
       <c r="G108" t="str">
         <v>○</v>
@@ -6765,10 +6720,10 @@
         <v>教育総務課</v>
       </c>
       <c r="Q108" t="str">
-        <v>15.1</v>
+        <v>12.6</v>
       </c>
       <c r="R108" t="str">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="S108" t="str">
         <v>むれコミュニティ協議会</v>
@@ -6779,19 +6734,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="str">
-        <v>34.32021139</v>
+        <v>34.33645944</v>
       </c>
       <c r="C109" t="str">
-        <v>134.1508181</v>
+        <v>134.1415239</v>
       </c>
       <c r="D109" t="str">
-        <v>牟礼中央公園運動センター</v>
+        <v>牟礼小学校</v>
       </c>
       <c r="E109" t="str">
-        <v>高松市牟礼町原1019-8</v>
+        <v>高松市牟礼町大町1560</v>
       </c>
       <c r="F109" t="str">
-        <v>087-845-1563</v>
+        <v>087-845-9239</v>
       </c>
       <c r="G109" t="str">
         <v>○</v>
@@ -6821,13 +6776,13 @@
         <v>○</v>
       </c>
       <c r="P109" t="str">
-        <v>スポーツ振興課</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q109" t="str">
-        <v>27.6</v>
+        <v>15.1</v>
       </c>
       <c r="R109" t="str">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="S109" t="str">
         <v>むれコミュニティ協議会</v>
@@ -6838,19 +6793,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="str">
-        <v>34.33318222</v>
+        <v>34.32021139</v>
       </c>
       <c r="C110" t="str">
-        <v>134.1527286</v>
+        <v>134.1508181</v>
       </c>
       <c r="D110" t="str">
-        <v>牟礼南小学校</v>
+        <v>牟礼中央公園運動センター</v>
       </c>
       <c r="E110" t="str">
-        <v>高松市牟礼町大町1115-1</v>
+        <v>高松市牟礼町原1019-8</v>
       </c>
       <c r="F110" t="str">
-        <v>087-845-9324</v>
+        <v>087-845-1563</v>
       </c>
       <c r="G110" t="str">
         <v>○</v>
@@ -6880,13 +6835,13 @@
         <v>○</v>
       </c>
       <c r="P110" t="str">
-        <v>教育総務課</v>
+        <v>スポーツ振興課</v>
       </c>
       <c r="Q110" t="str">
-        <v>13.3</v>
+        <v>27.6</v>
       </c>
       <c r="R110" t="str">
-        <v>261</v>
+        <v>360</v>
       </c>
       <c r="S110" t="str">
         <v>むれコミュニティ協議会</v>
@@ -6897,19 +6852,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="str">
-        <v>34.32863278</v>
+        <v>34.33318222</v>
       </c>
       <c r="C111" t="str">
-        <v>134.1559619</v>
+        <v>134.1527286</v>
       </c>
       <c r="D111" t="str">
-        <v>はらこども園</v>
+        <v>牟礼南小学校</v>
       </c>
       <c r="E111" t="str">
-        <v>高松市牟礼町原570-1</v>
+        <v>高松市牟礼町大町1115-1</v>
       </c>
       <c r="F111" t="str">
-        <v>087-845-0234</v>
+        <v>087-845-9324</v>
       </c>
       <c r="G111" t="str">
         <v>○</v>
@@ -6930,22 +6885,22 @@
         <v>○</v>
       </c>
       <c r="M111" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N111" t="str">
         <v>○</v>
       </c>
       <c r="O111" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P111" t="str">
-        <v>こども園運営課</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q111" t="str">
-        <v>7.4</v>
+        <v>13.3</v>
       </c>
       <c r="R111" t="str">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="S111" t="str">
         <v>むれコミュニティ協議会</v>
@@ -6956,19 +6911,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="str">
-        <v>34.33609278</v>
+        <v>34.32863278</v>
       </c>
       <c r="C112" t="str">
-        <v>134.1427294</v>
+        <v>134.1559619</v>
       </c>
       <c r="D112" t="str">
-        <v>大町コミュニティセンター</v>
+        <v>はらこども園</v>
       </c>
       <c r="E112" t="str">
-        <v>高松市牟礼町大町1463-2</v>
+        <v>高松市牟礼町原570-1</v>
       </c>
       <c r="F112" t="str">
-        <v>087-870-1306</v>
+        <v>087-845-0234</v>
       </c>
       <c r="G112" t="str">
         <v>○</v>
@@ -6995,16 +6950,16 @@
         <v>○</v>
       </c>
       <c r="O112" t="str">
-        <v>○</v>
+        <v/>
       </c>
       <c r="P112" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>こども園運営課</v>
       </c>
       <c r="Q112" t="str">
-        <v>13.6</v>
+        <v>7.4</v>
       </c>
       <c r="R112" t="str">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="S112" t="str">
         <v>むれコミュニティ協議会</v>
@@ -7015,25 +6970,25 @@
         <v>112</v>
       </c>
       <c r="B113" t="str">
-        <v>34.32183361</v>
+        <v>34.33609278</v>
       </c>
       <c r="C113" t="str">
-        <v>134.1581675</v>
+        <v>134.1427294</v>
       </c>
       <c r="D113" t="str">
-        <v>香川県立保健医療大学（体育館）</v>
+        <v>大町コミュニティセンター</v>
       </c>
       <c r="E113" t="str">
-        <v>高松市牟礼町原281-1</v>
+        <v>高松市牟礼町大町1463-2</v>
       </c>
       <c r="F113" t="str">
-        <v>087-870-1212</v>
+        <v>087-870-1306</v>
       </c>
       <c r="G113" t="str">
         <v>○</v>
       </c>
       <c r="H113" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I113" t="str">
         <v>○</v>
@@ -7057,13 +7012,13 @@
         <v>○</v>
       </c>
       <c r="P113" t="str">
-        <v>県立保健医療大学</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q113" t="str">
-        <v>21.5</v>
+        <v>13.6</v>
       </c>
       <c r="R113" t="str">
-        <v>420</v>
+        <v>121</v>
       </c>
       <c r="S113" t="str">
         <v>むれコミュニティ協議会</v>
@@ -7074,19 +7029,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="str">
-        <v>34.36844139</v>
+        <v>34.32183361</v>
       </c>
       <c r="C114" t="str">
-        <v>134.1206581</v>
+        <v>134.1581675</v>
       </c>
       <c r="D114" t="str">
-        <v>深間ふれあいセンター</v>
+        <v>香川県立保健医療大学（体育館）</v>
       </c>
       <c r="E114" t="str">
-        <v>高松市庵治町6391-17</v>
+        <v>高松市牟礼町原281-1</v>
       </c>
       <c r="F114" t="str">
-        <v>-</v>
+        <v>087-870-1212</v>
       </c>
       <c r="G114" t="str">
         <v>○</v>
@@ -7098,7 +7053,7 @@
         <v>○</v>
       </c>
       <c r="J114" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K114" t="str">
         <v>○</v>
@@ -7113,19 +7068,19 @@
         <v>○</v>
       </c>
       <c r="O114" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P114" t="str">
-        <v>牟礼総合センター</v>
+        <v>県立保健医療大学</v>
       </c>
       <c r="Q114" t="str">
-        <v>3.2</v>
+        <v>21.5</v>
       </c>
       <c r="R114" t="str">
-        <v>87</v>
+        <v>420</v>
       </c>
       <c r="S114" t="str">
-        <v>庵治地区コミュニティ協議会</v>
+        <v>むれコミュニティ協議会</v>
       </c>
     </row>
     <row r="115">
@@ -7133,19 +7088,19 @@
         <v>114</v>
       </c>
       <c r="B115" t="str">
-        <v>34.38324278</v>
+        <v>34.36844139</v>
       </c>
       <c r="C115" t="str">
-        <v>134.1307706</v>
+        <v>134.1206581</v>
       </c>
       <c r="D115" t="str">
-        <v>庵治中学校</v>
+        <v>深間ふれあいセンター</v>
       </c>
       <c r="E115" t="str">
-        <v>高松市庵治町691-1</v>
+        <v>高松市庵治町6391-17</v>
       </c>
       <c r="F115" t="str">
-        <v>087-871-2716</v>
+        <v>-</v>
       </c>
       <c r="G115" t="str">
         <v>○</v>
@@ -7157,31 +7112,31 @@
         <v>○</v>
       </c>
       <c r="J115" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K115" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="L115" t="str">
         <v>○</v>
       </c>
       <c r="M115" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N115" t="str">
         <v>○</v>
       </c>
       <c r="O115" t="str">
-        <v>○</v>
+        <v/>
       </c>
       <c r="P115" t="str">
-        <v>教育総務課</v>
+        <v>牟礼総合センター</v>
       </c>
       <c r="Q115" t="str">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="R115" t="str">
-        <v>441</v>
+        <v>87</v>
       </c>
       <c r="S115" t="str">
         <v>庵治地区コミュニティ協議会</v>
@@ -7192,25 +7147,25 @@
         <v>115</v>
       </c>
       <c r="B116" t="str">
-        <v>34.3844425</v>
+        <v>34.38324278</v>
       </c>
       <c r="C116" t="str">
-        <v>134.1318539</v>
+        <v>134.1307706</v>
       </c>
       <c r="D116" t="str">
-        <v>庵治小学校</v>
+        <v>庵治中学校</v>
       </c>
       <c r="E116" t="str">
-        <v>高松市庵治町790-1</v>
+        <v>高松市庵治町691-1</v>
       </c>
       <c r="F116" t="str">
-        <v>087-871-2581</v>
+        <v>087-871-2716</v>
       </c>
       <c r="G116" t="str">
         <v>○</v>
       </c>
       <c r="H116" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I116" t="str">
         <v>○</v>
@@ -7237,10 +7192,10 @@
         <v>教育総務課</v>
       </c>
       <c r="Q116" t="str">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="R116" t="str">
-        <v>243</v>
+        <v>441</v>
       </c>
       <c r="S116" t="str">
         <v>庵治地区コミュニティ協議会</v>
@@ -7251,25 +7206,25 @@
         <v>116</v>
       </c>
       <c r="B117" t="str">
-        <v>34.3853175</v>
+        <v>34.3844425</v>
       </c>
       <c r="C117" t="str">
-        <v>134.1299483</v>
+        <v>134.1318539</v>
       </c>
       <c r="D117" t="str">
-        <v>庵治コミュニティセンター・庵治武道館</v>
+        <v>庵治小学校</v>
       </c>
       <c r="E117" t="str">
-        <v>高松市庵治町888-1</v>
+        <v>高松市庵治町790-1</v>
       </c>
       <c r="F117" t="str">
-        <v>087-871-4162</v>
+        <v>087-871-2581</v>
       </c>
       <c r="G117" t="str">
         <v>○</v>
       </c>
       <c r="H117" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I117" t="str">
         <v>○</v>
@@ -7284,7 +7239,7 @@
         <v>○</v>
       </c>
       <c r="M117" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N117" t="str">
         <v>○</v>
@@ -7293,13 +7248,13 @@
         <v>○</v>
       </c>
       <c r="P117" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q117" t="str">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="R117" t="str">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="S117" t="str">
         <v>庵治地区コミュニティ協議会</v>
@@ -7310,25 +7265,25 @@
         <v>117</v>
       </c>
       <c r="B118" t="str">
-        <v>34.38540639</v>
+        <v>34.3853175</v>
       </c>
       <c r="C118" t="str">
-        <v>134.1303761</v>
+        <v>134.1299483</v>
       </c>
       <c r="D118" t="str">
-        <v>庵治小学校第二体育館</v>
+        <v>庵治コミュニティセンター・庵治武道館</v>
       </c>
       <c r="E118" t="str">
-        <v>高松市庵治町866-4</v>
+        <v>高松市庵治町888-1</v>
       </c>
       <c r="F118" t="str">
-        <v>087-871-2581</v>
+        <v>087-871-4162</v>
       </c>
       <c r="G118" t="str">
         <v>○</v>
       </c>
       <c r="H118" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I118" t="str">
         <v>○</v>
@@ -7352,13 +7307,13 @@
         <v>○</v>
       </c>
       <c r="P118" t="str">
-        <v>教育総務課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q118" t="str">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="R118" t="str">
-        <v>387</v>
+        <v>226</v>
       </c>
       <c r="S118" t="str">
         <v>庵治地区コミュニティ協議会</v>
@@ -7369,25 +7324,25 @@
         <v>118</v>
       </c>
       <c r="B119" t="str">
-        <v>34.38297056</v>
+        <v>34.38540639</v>
       </c>
       <c r="C119" t="str">
-        <v>134.1271211</v>
+        <v>134.1303761</v>
       </c>
       <c r="D119" t="str">
-        <v>庵治やすらぎ会館</v>
+        <v>庵治小学校第二体育館</v>
       </c>
       <c r="E119" t="str">
-        <v>高松市庵治町6392-14</v>
+        <v>高松市庵治町866-4</v>
       </c>
       <c r="F119" t="str">
-        <v>087-871-5111</v>
+        <v>087-871-2581</v>
       </c>
       <c r="G119" t="str">
         <v>○</v>
       </c>
       <c r="H119" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I119" t="str">
         <v>○</v>
@@ -7408,16 +7363,16 @@
         <v>○</v>
       </c>
       <c r="O119" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P119" t="str">
-        <v>牟礼総合センター</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q119" t="str">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="R119" t="str">
-        <v>98</v>
+        <v>387</v>
       </c>
       <c r="S119" t="str">
         <v>庵治地区コミュニティ協議会</v>
@@ -7428,19 +7383,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="str">
-        <v>34.39073917</v>
+        <v>34.38297056</v>
       </c>
       <c r="C120" t="str">
-        <v>134.1361589</v>
+        <v>134.1271211</v>
       </c>
       <c r="D120" t="str">
-        <v>庵治斎場</v>
+        <v>庵治やすらぎ会館</v>
       </c>
       <c r="E120" t="str">
-        <v>高松市庵治町1391</v>
+        <v>高松市庵治町6392-14</v>
       </c>
       <c r="F120" t="str">
-        <v>087-871-2539</v>
+        <v>087-871-5111</v>
       </c>
       <c r="G120" t="str">
         <v>○</v>
@@ -7455,7 +7410,7 @@
         <v>○</v>
       </c>
       <c r="K120" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="L120" t="str">
         <v>○</v>
@@ -7470,13 +7425,13 @@
         <v/>
       </c>
       <c r="P120" t="str">
-        <v>市民やすらぎ課</v>
+        <v>牟礼総合センター</v>
       </c>
       <c r="Q120" t="str">
-        <v>36.2</v>
+        <v>2.7</v>
       </c>
       <c r="R120" t="str">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="S120" t="str">
         <v>庵治地区コミュニティ協議会</v>
@@ -7487,55 +7442,55 @@
         <v>120</v>
       </c>
       <c r="B121" t="str">
-        <v>34.40445917</v>
+        <v>34.39073917</v>
       </c>
       <c r="C121" t="str">
-        <v>134.1057028</v>
+        <v>134.1361589</v>
       </c>
       <c r="D121" t="str">
-        <v>庵治第二小学校</v>
+        <v>庵治斎場</v>
       </c>
       <c r="E121" t="str">
-        <v>高松市庵治町6034-1</v>
+        <v>高松市庵治町1391</v>
       </c>
       <c r="F121" t="str">
-        <v>087-871-5110</v>
+        <v>087-871-2539</v>
       </c>
       <c r="G121" t="str">
-        <v>-</v>
+        <v>○</v>
       </c>
       <c r="H121" t="str">
-        <v>-</v>
+        <v>○</v>
       </c>
       <c r="I121" t="str">
-        <v>-</v>
+        <v>○</v>
       </c>
       <c r="J121" t="str">
-        <v>-</v>
+        <v>○</v>
       </c>
       <c r="K121" t="str">
-        <v>-</v>
+        <v>○</v>
       </c>
       <c r="L121" t="str">
-        <v>-</v>
+        <v>○</v>
       </c>
       <c r="M121" t="str">
-        <v>-</v>
+        <v>×</v>
       </c>
       <c r="N121" t="str">
-        <v>-</v>
+        <v>○</v>
       </c>
       <c r="O121" t="str">
-        <v>○</v>
+        <v/>
       </c>
       <c r="P121" t="str">
-        <v>教育総務課</v>
+        <v>市民やすらぎ課</v>
       </c>
       <c r="Q121" t="str">
-        <v>2.7</v>
+        <v>36.2</v>
       </c>
       <c r="R121" t="str">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="S121" t="str">
         <v>庵治地区コミュニティ協議会</v>
@@ -7546,19 +7501,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="str">
-        <v>34.26717583</v>
+        <v>34.40445917</v>
       </c>
       <c r="C122" t="str">
-        <v>134.0246644</v>
+        <v>134.1057028</v>
       </c>
       <c r="D122" t="str">
-        <v>大野コミュニティセンター</v>
+        <v>庵治第二小学校</v>
       </c>
       <c r="E122" t="str">
-        <v>高松市香川町大野1329-1</v>
+        <v>高松市庵治町6034-1</v>
       </c>
       <c r="F122" t="str">
-        <v>087-886-1960</v>
+        <v>087-871-5110</v>
       </c>
       <c r="G122" t="str">
         <v>○</v>
@@ -7573,13 +7528,13 @@
         <v>○</v>
       </c>
       <c r="K122" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="L122" t="str">
         <v>○</v>
       </c>
       <c r="M122" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N122" t="str">
         <v>○</v>
@@ -7588,16 +7543,16 @@
         <v>○</v>
       </c>
       <c r="P122" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q122" t="str">
-        <v>56.5</v>
+        <v>2.7</v>
       </c>
       <c r="R122" t="str">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="S122" t="str">
-        <v>大野校区コミュニティ協議会</v>
+        <v>庵治地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="123">
@@ -7605,19 +7560,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="str">
-        <v>34.26665917</v>
+        <v>34.26717583</v>
       </c>
       <c r="C123" t="str">
-        <v>134.0264864</v>
+        <v>134.0246644</v>
       </c>
       <c r="D123" t="str">
-        <v>大野小学校</v>
+        <v>大野コミュニティセンター</v>
       </c>
       <c r="E123" t="str">
-        <v>高松市香川町大野1045-1</v>
+        <v>高松市香川町大野1329-1</v>
       </c>
       <c r="F123" t="str">
-        <v>087-885-2165</v>
+        <v>087-886-1960</v>
       </c>
       <c r="G123" t="str">
         <v>○</v>
@@ -7638,7 +7593,7 @@
         <v>○</v>
       </c>
       <c r="M123" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N123" t="str">
         <v>○</v>
@@ -7647,13 +7602,13 @@
         <v>○</v>
       </c>
       <c r="P123" t="str">
-        <v>教育総務課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q123" t="str">
-        <v>57</v>
+        <v>56.5</v>
       </c>
       <c r="R123" t="str">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="S123" t="str">
         <v>大野校区コミュニティ協議会</v>
@@ -7664,19 +7619,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="str">
-        <v>34.25967139</v>
+        <v>34.26665917</v>
       </c>
       <c r="C124" t="str">
-        <v>134.0417464</v>
+        <v>134.0264864</v>
       </c>
       <c r="D124" t="str">
-        <v>浅野小学校</v>
+        <v>大野小学校</v>
       </c>
       <c r="E124" t="str">
-        <v>高松市香川町浅野3088</v>
+        <v>高松市香川町大野1045-1</v>
       </c>
       <c r="F124" t="str">
-        <v>087-889-0215</v>
+        <v>087-885-2165</v>
       </c>
       <c r="G124" t="str">
         <v>○</v>
@@ -7688,7 +7643,7 @@
         <v>○</v>
       </c>
       <c r="J124" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="K124" t="str">
         <v>○</v>
@@ -7709,13 +7664,13 @@
         <v>教育総務課</v>
       </c>
       <c r="Q124" t="str">
-        <v>74.9</v>
+        <v>57</v>
       </c>
       <c r="R124" t="str">
         <v>336</v>
       </c>
       <c r="S124" t="str">
-        <v>浅野校区コミュニティ協議会</v>
+        <v>大野校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="125">
@@ -7723,19 +7678,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="str">
-        <v>34.25664111</v>
+        <v>34.25967139</v>
       </c>
       <c r="C125" t="str">
-        <v>134.0356803</v>
+        <v>134.0417464</v>
       </c>
       <c r="D125" t="str">
-        <v>浅野コミュニティセンター</v>
+        <v>浅野小学校</v>
       </c>
       <c r="E125" t="str">
-        <v>高松市香川町浅野826-2</v>
+        <v>高松市香川町浅野3088</v>
       </c>
       <c r="F125" t="str">
-        <v>087-888-2537</v>
+        <v>087-889-0215</v>
       </c>
       <c r="G125" t="str">
         <v>○</v>
@@ -7747,7 +7702,7 @@
         <v>○</v>
       </c>
       <c r="J125" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="K125" t="str">
         <v>○</v>
@@ -7756,7 +7711,7 @@
         <v>○</v>
       </c>
       <c r="M125" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N125" t="str">
         <v>○</v>
@@ -7765,13 +7720,13 @@
         <v>○</v>
       </c>
       <c r="P125" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q125" t="str">
-        <v>64.6</v>
+        <v>74.9</v>
       </c>
       <c r="R125" t="str">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="S125" t="str">
         <v>浅野校区コミュニティ協議会</v>
@@ -7782,19 +7737,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="str">
-        <v>34.25499944</v>
+        <v>34.25664111</v>
       </c>
       <c r="C126" t="str">
-        <v>134.0279422</v>
+        <v>134.0356803</v>
       </c>
       <c r="D126" t="str">
-        <v>香川総合体育館</v>
+        <v>浅野コミュニティセンター</v>
       </c>
       <c r="E126" t="str">
-        <v>高松市香川町川東下1917-1</v>
+        <v>高松市香川町浅野826-2</v>
       </c>
       <c r="F126" t="str">
-        <v>087-879-8000</v>
+        <v>087-888-2537</v>
       </c>
       <c r="G126" t="str">
         <v>○</v>
@@ -7824,16 +7779,16 @@
         <v>○</v>
       </c>
       <c r="P126" t="str">
-        <v>スポーツ振興課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q126" t="str">
-        <v>68.8</v>
+        <v>64.6</v>
       </c>
       <c r="R126" t="str">
-        <v>1136</v>
+        <v>93</v>
       </c>
       <c r="S126" t="str">
-        <v>川東校区コミュニティ協議会</v>
+        <v>浅野校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="127">
@@ -7841,19 +7796,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="str">
-        <v>34.24133444</v>
+        <v>34.25499944</v>
       </c>
       <c r="C127" t="str">
-        <v>134.0339783</v>
+        <v>134.0279422</v>
       </c>
       <c r="D127" t="str">
-        <v>川東コミュニティセンター</v>
+        <v>香川総合体育館</v>
       </c>
       <c r="E127" t="str">
-        <v>高松市香川町川東上1865-13</v>
+        <v>高松市香川町川東下1917-1</v>
       </c>
       <c r="F127" t="str">
-        <v>087-879-4215</v>
+        <v>087-879-8000</v>
       </c>
       <c r="G127" t="str">
         <v>○</v>
@@ -7883,13 +7838,13 @@
         <v>○</v>
       </c>
       <c r="P127" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>スポーツ振興課</v>
       </c>
       <c r="Q127" t="str">
-        <v>87.1</v>
+        <v>68.8</v>
       </c>
       <c r="R127" t="str">
-        <v>315</v>
+        <v>1136</v>
       </c>
       <c r="S127" t="str">
         <v>川東校区コミュニティ協議会</v>
@@ -7900,19 +7855,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="str">
-        <v>34.24127611</v>
+        <v>34.24133444</v>
       </c>
       <c r="C128" t="str">
-        <v>134.0357531</v>
+        <v>134.0339783</v>
       </c>
       <c r="D128" t="str">
-        <v>川東小学校</v>
+        <v>川東コミュニティセンター</v>
       </c>
       <c r="E128" t="str">
-        <v>高松市香川町川東上1865-8</v>
+        <v>高松市香川町川東上1865-13</v>
       </c>
       <c r="F128" t="str">
-        <v>087-879-2012</v>
+        <v>087-879-4215</v>
       </c>
       <c r="G128" t="str">
         <v>○</v>
@@ -7933,7 +7888,7 @@
         <v>○</v>
       </c>
       <c r="M128" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N128" t="str">
         <v>○</v>
@@ -7942,13 +7897,13 @@
         <v>○</v>
       </c>
       <c r="P128" t="str">
-        <v>教育総務課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q128" t="str">
         <v>87.1</v>
       </c>
       <c r="R128" t="str">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="S128" t="str">
         <v>川東校区コミュニティ協議会</v>
@@ -7959,19 +7914,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="str">
-        <v>34.22676417</v>
+        <v>34.24127611</v>
       </c>
       <c r="C129" t="str">
-        <v>134.0377644</v>
+        <v>134.0357531</v>
       </c>
       <c r="D129" t="str">
-        <v>香川町グリーンセンター</v>
+        <v>川東小学校</v>
       </c>
       <c r="E129" t="str">
-        <v>高松市香川町川東上604-85</v>
+        <v>高松市香川町川東上1865-8</v>
       </c>
       <c r="F129" t="str">
-        <v>087-879-5597</v>
+        <v>087-879-2012</v>
       </c>
       <c r="G129" t="str">
         <v>○</v>
@@ -7983,7 +7938,7 @@
         <v>○</v>
       </c>
       <c r="J129" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K129" t="str">
         <v>○</v>
@@ -7992,22 +7947,22 @@
         <v>○</v>
       </c>
       <c r="M129" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N129" t="str">
         <v>○</v>
       </c>
       <c r="O129" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P129" t="str">
-        <v>香川総合センター</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q129" t="str">
-        <v>133.8</v>
+        <v>87.1</v>
       </c>
       <c r="R129" t="str">
-        <v>200</v>
+        <v>336</v>
       </c>
       <c r="S129" t="str">
         <v>川東校区コミュニティ協議会</v>
@@ -8018,19 +7973,19 @@
         <v>129</v>
       </c>
       <c r="B130" t="str">
-        <v>34.21197667</v>
+        <v>34.22676417</v>
       </c>
       <c r="C130" t="str">
-        <v>134.0313683</v>
+        <v>134.0377644</v>
       </c>
       <c r="D130" t="str">
-        <v>香川町多目的研修集会施設</v>
+        <v>香川町グリーンセンター</v>
       </c>
       <c r="E130" t="str">
-        <v>高松市香川町安原下第３号194-1</v>
+        <v>高松市香川町川東上604-85</v>
       </c>
       <c r="F130" t="str">
-        <v>087-879-7153</v>
+        <v>087-879-5597</v>
       </c>
       <c r="G130" t="str">
         <v>○</v>
@@ -8060,13 +8015,13 @@
         <v/>
       </c>
       <c r="P130" t="str">
-        <v>農林水産課</v>
+        <v>香川総合センター</v>
       </c>
       <c r="Q130" t="str">
-        <v>118</v>
+        <v>133.8</v>
       </c>
       <c r="R130" t="str">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="S130" t="str">
         <v>川東校区コミュニティ協議会</v>
@@ -8077,19 +8032,19 @@
         <v>130</v>
       </c>
       <c r="B131" t="str">
-        <v>34.21657389</v>
+        <v>34.21197667</v>
       </c>
       <c r="C131" t="str">
-        <v>134.0504692</v>
+        <v>134.0313683</v>
       </c>
       <c r="D131" t="str">
-        <v>香川町高齢者活動促進センター</v>
+        <v>香川町多目的研修集会施設</v>
       </c>
       <c r="E131" t="str">
-        <v>高松市香川町東谷159-1</v>
+        <v>高松市香川町安原下第３号194-1</v>
       </c>
       <c r="F131" t="str">
-        <v>087-879-7310</v>
+        <v>-</v>
       </c>
       <c r="G131" t="str">
         <v>○</v>
@@ -8098,10 +8053,10 @@
         <v>○</v>
       </c>
       <c r="I131" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="J131" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K131" t="str">
         <v>○</v>
@@ -8122,10 +8077,10 @@
         <v>農林水産課</v>
       </c>
       <c r="Q131" t="str">
-        <v>139.5</v>
+        <v>118</v>
       </c>
       <c r="R131" t="str">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="S131" t="str">
         <v>川東校区コミュニティ協議会</v>
@@ -8136,19 +8091,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="str">
-        <v>34.20461444</v>
+        <v>34.21657389</v>
       </c>
       <c r="C132" t="str">
-        <v>134.0616769</v>
+        <v>134.0504692</v>
       </c>
       <c r="D132" t="str">
-        <v>東谷コミュニティセンター</v>
+        <v>香川町高齢者活動促進センター</v>
       </c>
       <c r="E132" t="str">
-        <v>高松市香川町東谷873-3</v>
+        <v>高松市香川町東谷159-1</v>
       </c>
       <c r="F132" t="str">
-        <v>087-879-7997</v>
+        <v>-</v>
       </c>
       <c r="G132" t="str">
         <v>○</v>
@@ -8160,7 +8115,7 @@
         <v>△</v>
       </c>
       <c r="J132" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K132" t="str">
         <v>○</v>
@@ -8175,16 +8130,16 @@
         <v>○</v>
       </c>
       <c r="O132" t="str">
-        <v>○</v>
+        <v/>
       </c>
       <c r="P132" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>農林水産課</v>
       </c>
       <c r="Q132" t="str">
-        <v>179.3</v>
+        <v>139.5</v>
       </c>
       <c r="R132" t="str">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="S132" t="str">
         <v>川東校区コミュニティ協議会</v>
@@ -8195,19 +8150,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="str">
-        <v>34.24104222</v>
+        <v>34.20461444</v>
       </c>
       <c r="C133" t="str">
-        <v>134.0091222</v>
+        <v>134.0616769</v>
       </c>
       <c r="D133" t="str">
-        <v>香南小学校</v>
+        <v>東谷コミュニティセンター</v>
       </c>
       <c r="E133" t="str">
-        <v>高松市香南町横井1008</v>
+        <v>高松市香川町東谷873-3</v>
       </c>
       <c r="F133" t="str">
-        <v>087-879-2269</v>
+        <v>087-879-7997</v>
       </c>
       <c r="G133" t="str">
         <v>○</v>
@@ -8216,10 +8171,10 @@
         <v>○</v>
       </c>
       <c r="I133" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="J133" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K133" t="str">
         <v>○</v>
@@ -8228,7 +8183,7 @@
         <v>○</v>
       </c>
       <c r="M133" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N133" t="str">
         <v>○</v>
@@ -8237,16 +8192,16 @@
         <v>○</v>
       </c>
       <c r="P133" t="str">
-        <v>教育総務課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q133" t="str">
-        <v>93</v>
+        <v>179.3</v>
       </c>
       <c r="R133" t="str">
-        <v>285</v>
+        <v>31</v>
       </c>
       <c r="S133" t="str">
-        <v>香南地区コミュニティ協議会</v>
+        <v>川東校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="134">
@@ -8254,19 +8209,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="str">
-        <v>34.24334472</v>
+        <v>34.24104222</v>
       </c>
       <c r="C134" t="str">
-        <v>134.0085636</v>
+        <v>134.0091222</v>
       </c>
       <c r="D134" t="str">
-        <v>香南中学校</v>
+        <v>香南小学校</v>
       </c>
       <c r="E134" t="str">
-        <v>高松市香南町横井801</v>
+        <v>高松市香南町横井1008</v>
       </c>
       <c r="F134" t="str">
-        <v>087-879-2064</v>
+        <v>087-879-2269</v>
       </c>
       <c r="G134" t="str">
         <v>○</v>
@@ -8299,10 +8254,10 @@
         <v>教育総務課</v>
       </c>
       <c r="Q134" t="str">
-        <v>89.1</v>
+        <v>93</v>
       </c>
       <c r="R134" t="str">
-        <v>485</v>
+        <v>285</v>
       </c>
       <c r="S134" t="str">
         <v>香南地区コミュニティ協議会</v>
@@ -8313,19 +8268,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="str">
-        <v>34.23997</v>
+        <v>34.24334472</v>
       </c>
       <c r="C135" t="str">
-        <v>134.01318</v>
+        <v>134.0085636</v>
       </c>
       <c r="D135" t="str">
-        <v>香南コミュニティセンター</v>
+        <v>香南中学校</v>
       </c>
       <c r="E135" t="str">
-        <v>高松市香南町由佐1167</v>
+        <v>高松市香南町横井801</v>
       </c>
       <c r="F135" t="str">
-        <v>087-879-8993</v>
+        <v>087-879-2064</v>
       </c>
       <c r="G135" t="str">
         <v>○</v>
@@ -8346,7 +8301,7 @@
         <v>○</v>
       </c>
       <c r="M135" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N135" t="str">
         <v>○</v>
@@ -8355,13 +8310,13 @@
         <v>○</v>
       </c>
       <c r="P135" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q135" t="str">
-        <v>82.1</v>
+        <v>89.1</v>
       </c>
       <c r="R135" t="str">
-        <v>141</v>
+        <v>485</v>
       </c>
       <c r="S135" t="str">
         <v>香南地区コミュニティ協議会</v>
@@ -8372,19 +8327,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="str">
-        <v>34.24024556</v>
+        <v>34.23997</v>
       </c>
       <c r="C136" t="str">
-        <v>134.0188992</v>
+        <v>134.01318</v>
       </c>
       <c r="D136" t="str">
-        <v>由佐農村環境改善センター</v>
+        <v>香南コミュニティセンター</v>
       </c>
       <c r="E136" t="str">
-        <v>高松市香南町由佐357-2</v>
+        <v>高松市香南町由佐1167</v>
       </c>
       <c r="F136" t="str">
-        <v>087-879-0115</v>
+        <v>087-879-8993</v>
       </c>
       <c r="G136" t="str">
         <v>○</v>
@@ -8414,13 +8369,13 @@
         <v>○</v>
       </c>
       <c r="P136" t="str">
-        <v>農林水産課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q136" t="str">
-        <v>83.3</v>
+        <v>82.1</v>
       </c>
       <c r="R136" t="str">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="S136" t="str">
         <v>香南地区コミュニティ協議会</v>
@@ -8431,19 +8386,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="str">
-        <v>34.245175</v>
+        <v>34.24024556</v>
       </c>
       <c r="C137" t="str">
-        <v>134.0003533</v>
+        <v>134.0188992</v>
       </c>
       <c r="D137" t="str">
-        <v>池西農村環境改善センター</v>
+        <v>由佐農村環境改善センター</v>
       </c>
       <c r="E137" t="str">
-        <v>高松市香南町池内522-1</v>
+        <v>高松市香南町由佐357-2</v>
       </c>
       <c r="F137" t="str">
-        <v>087-879-3788</v>
+        <v>-</v>
       </c>
       <c r="G137" t="str">
         <v>○</v>
@@ -8476,10 +8431,10 @@
         <v>農林水産課</v>
       </c>
       <c r="Q137" t="str">
-        <v>84.3</v>
+        <v>83.3</v>
       </c>
       <c r="R137" t="str">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="S137" t="str">
         <v>香南地区コミュニティ協議会</v>
@@ -8490,19 +8445,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="str">
-        <v>34.1963675</v>
+        <v>34.245175</v>
       </c>
       <c r="C138" t="str">
-        <v>134.0415594</v>
+        <v>134.0003533</v>
       </c>
       <c r="D138" t="str">
-        <v>塩江コミュニティセンター</v>
+        <v>池西農村環境改善センター</v>
       </c>
       <c r="E138" t="str">
-        <v>高松市塩江町安原下第２号1645</v>
+        <v>高松市香南町池内522-1</v>
       </c>
       <c r="F138" t="str">
-        <v>087-897-0137</v>
+        <v>-</v>
       </c>
       <c r="G138" t="str">
         <v>○</v>
@@ -8514,7 +8469,7 @@
         <v>○</v>
       </c>
       <c r="J138" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K138" t="str">
         <v>○</v>
@@ -8532,16 +8487,16 @@
         <v>○</v>
       </c>
       <c r="P138" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>農林水産課</v>
       </c>
       <c r="Q138" t="str">
-        <v>139.4</v>
+        <v>84.3</v>
       </c>
       <c r="R138" t="str">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="S138" t="str">
-        <v>塩江地区コミュニティ協議会</v>
+        <v>香南地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="139">
@@ -8549,19 +8504,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="str">
-        <v>34.19820889</v>
+        <v>34.1963675</v>
       </c>
       <c r="C139" t="str">
-        <v>134.0404067</v>
+        <v>134.0415594</v>
       </c>
       <c r="D139" t="str">
-        <v>安原小学校跡施設</v>
+        <v>塩江コミュニティセンター</v>
       </c>
       <c r="E139" t="str">
-        <v>高松市塩江町安原下第２号1684</v>
+        <v>高松市塩江町安原下第２号1645</v>
       </c>
       <c r="F139" t="str">
-        <v>087-839-2611</v>
+        <v>087-897-0137</v>
       </c>
       <c r="G139" t="str">
         <v>○</v>
@@ -8582,7 +8537,7 @@
         <v>○</v>
       </c>
       <c r="M139" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N139" t="str">
         <v>○</v>
@@ -8594,10 +8549,10 @@
         <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q139" t="str">
-        <v>137</v>
+        <v>139.4</v>
       </c>
       <c r="R139" t="str">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="S139" t="str">
         <v>塩江地区コミュニティ協議会</v>
@@ -8608,16 +8563,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="str">
-        <v>34.15596056</v>
+        <v>34.19820889</v>
       </c>
       <c r="C140" t="str">
-        <v>134.0246372</v>
+        <v>134.0404067</v>
       </c>
       <c r="D140" t="str">
-        <v>安原小学校　戸石分校跡施設</v>
+        <v>安原小学校跡施設</v>
       </c>
       <c r="E140" t="str">
-        <v>高松市塩江町安原下第２号857</v>
+        <v>高松市塩江町安原下第２号1684</v>
       </c>
       <c r="F140" t="str">
         <v>087-839-2611</v>
@@ -8641,22 +8596,22 @@
         <v>○</v>
       </c>
       <c r="M140" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N140" t="str">
         <v>○</v>
       </c>
       <c r="O140" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P140" t="str">
-        <v>教育総務課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q140" t="str">
-        <v>379</v>
+        <v>137</v>
       </c>
       <c r="R140" t="str">
-        <v/>
+        <v>225</v>
       </c>
       <c r="S140" t="str">
         <v>塩江地区コミュニティ協議会</v>
@@ -8667,19 +8622,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="str">
-        <v>34.1697325</v>
+        <v>34.15596056</v>
       </c>
       <c r="C141" t="str">
-        <v>134.0828067</v>
+        <v>134.0246372</v>
       </c>
       <c r="D141" t="str">
-        <v>塩江支所　塩江連絡事務所</v>
+        <v>安原小学校　戸石分校跡施設</v>
       </c>
       <c r="E141" t="str">
-        <v>高松市塩江町安原上東３９４番地の２</v>
+        <v>高松市塩江町安原下第２号857</v>
       </c>
       <c r="F141" t="str">
-        <v>087-893-0220</v>
+        <v>087-839-2611</v>
       </c>
       <c r="G141" t="str">
         <v>○</v>
@@ -8691,7 +8646,7 @@
         <v>○</v>
       </c>
       <c r="J141" t="str">
-        <v>△</v>
+        <v>×</v>
       </c>
       <c r="K141" t="str">
         <v>○</v>
@@ -8709,13 +8664,13 @@
         <v/>
       </c>
       <c r="P141" t="str">
-        <v>香川総合センター</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q141" t="str">
-        <v>206</v>
+        <v>379</v>
       </c>
       <c r="R141" t="str">
-        <v>24</v>
+        <v/>
       </c>
       <c r="S141" t="str">
         <v>塩江地区コミュニティ協議会</v>
@@ -8726,19 +8681,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="str">
-        <v>34.17048806</v>
+        <v>34.1697325</v>
       </c>
       <c r="C142" t="str">
-        <v>134.0833094</v>
+        <v>134.0828067</v>
       </c>
       <c r="D142" t="str">
-        <v>塩江小学校跡施設</v>
+        <v>塩江支所　塩江連絡事務所</v>
       </c>
       <c r="E142" t="str">
-        <v>高松市塩江町安原上東365</v>
+        <v>高松市塩江町安原上東３９４番地の２</v>
       </c>
       <c r="F142" t="str">
-        <v>087-839-2611</v>
+        <v>087-893-0220</v>
       </c>
       <c r="G142" t="str">
         <v>○</v>
@@ -8750,7 +8705,7 @@
         <v>○</v>
       </c>
       <c r="J142" t="str">
-        <v>×</v>
+        <v>△</v>
       </c>
       <c r="K142" t="str">
         <v>○</v>
@@ -8759,22 +8714,22 @@
         <v>○</v>
       </c>
       <c r="M142" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N142" t="str">
         <v>○</v>
       </c>
       <c r="O142" t="str">
-        <v>○</v>
+        <v/>
       </c>
       <c r="P142" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>香川総合センター</v>
       </c>
       <c r="Q142" t="str">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="R142" t="str">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="S142" t="str">
         <v>塩江地区コミュニティ協議会</v>
@@ -8785,19 +8740,19 @@
         <v>142</v>
       </c>
       <c r="B143" t="str">
-        <v>34.15379861</v>
+        <v>34.17048806</v>
       </c>
       <c r="C143" t="str">
-        <v>134.1011917</v>
+        <v>134.0833094</v>
       </c>
       <c r="D143" t="str">
-        <v>椛川集会所</v>
+        <v>塩江小学校跡施設</v>
       </c>
       <c r="E143" t="str">
-        <v>高松市塩江町安原上東字椛川2173-8</v>
+        <v>高松市塩江町安原上東365</v>
       </c>
       <c r="F143" t="str">
-        <v>087-839-2184</v>
+        <v>087-839-2611</v>
       </c>
       <c r="G143" t="str">
         <v>○</v>
@@ -8809,7 +8764,7 @@
         <v>○</v>
       </c>
       <c r="J143" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K143" t="str">
         <v>○</v>
@@ -8818,22 +8773,22 @@
         <v>○</v>
       </c>
       <c r="M143" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N143" t="str">
         <v>○</v>
       </c>
       <c r="O143" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P143" t="str">
-        <v>法人　椛川地域</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q143" t="str">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="R143" t="str">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="S143" t="str">
         <v>塩江地区コミュニティ協議会</v>
@@ -8844,19 +8799,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="str">
-        <v>34.18143389</v>
+        <v>34.15379861</v>
       </c>
       <c r="C144" t="str">
-        <v>134.0742211</v>
+        <v>134.1011917</v>
       </c>
       <c r="D144" t="str">
-        <v>塩江小・中学校</v>
+        <v>椛川集会所</v>
       </c>
       <c r="E144" t="str">
-        <v>高松市塩江町安原上231</v>
+        <v>高松市塩江町安原上東字椛川2173-8</v>
       </c>
       <c r="F144" t="str">
-        <v>087-893-0032</v>
+        <v>087-839-2184</v>
       </c>
       <c r="G144" t="str">
         <v>○</v>
@@ -8865,7 +8820,7 @@
         <v>○</v>
       </c>
       <c r="I144" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="J144" t="str">
         <v>○</v>
@@ -8877,22 +8832,22 @@
         <v>○</v>
       </c>
       <c r="M144" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N144" t="str">
         <v>○</v>
       </c>
       <c r="O144" t="str">
-        <v>○</v>
+        <v/>
       </c>
       <c r="P144" t="str">
-        <v>教育総務課</v>
+        <v>法人　椛川地域</v>
       </c>
       <c r="Q144" t="str">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="R144" t="str">
-        <v>897</v>
+        <v>49</v>
       </c>
       <c r="S144" t="str">
         <v>塩江地区コミュニティ協議会</v>
@@ -8903,28 +8858,28 @@
         <v>144</v>
       </c>
       <c r="B145" t="str">
-        <v>34.15046528</v>
+        <v>34.18143389</v>
       </c>
       <c r="C145" t="str">
-        <v>134.0766078</v>
+        <v>134.0742211</v>
       </c>
       <c r="D145" t="str">
-        <v>塩江支所　上西連絡事務所</v>
+        <v>塩江小・中学校</v>
       </c>
       <c r="E145" t="str">
-        <v>高松市塩江町上西乙549</v>
+        <v>高松市塩江町安原上231</v>
       </c>
       <c r="F145" t="str">
-        <v>087-893-0311</v>
+        <v>087-893-0032</v>
       </c>
       <c r="G145" t="str">
         <v>○</v>
       </c>
       <c r="H145" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I145" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="J145" t="str">
         <v>○</v>
@@ -8936,22 +8891,22 @@
         <v>○</v>
       </c>
       <c r="M145" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N145" t="str">
         <v>○</v>
       </c>
       <c r="O145" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P145" t="str">
-        <v>香川総合センター</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q145" t="str">
-        <v>276</v>
+        <v>175</v>
       </c>
       <c r="R145" t="str">
-        <v>16</v>
+        <v>897</v>
       </c>
       <c r="S145" t="str">
         <v>塩江地区コミュニティ協議会</v>
@@ -8962,19 +8917,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="str">
-        <v>34.15226222</v>
+        <v>34.15046528</v>
       </c>
       <c r="C146" t="str">
-        <v>134.0763606</v>
+        <v>134.0766078</v>
       </c>
       <c r="D146" t="str">
-        <v>上西小学校跡施設</v>
+        <v>塩江支所　上西連絡事務所</v>
       </c>
       <c r="E146" t="str">
-        <v>高松市塩江町上西乙461</v>
+        <v>高松市塩江町上西乙549</v>
       </c>
       <c r="F146" t="str">
-        <v>087-839-2611</v>
+        <v>087-893-0311</v>
       </c>
       <c r="G146" t="str">
         <v>○</v>
@@ -8995,22 +8950,22 @@
         <v>○</v>
       </c>
       <c r="M146" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N146" t="str">
         <v>○</v>
       </c>
       <c r="O146" t="str">
-        <v>○</v>
+        <v/>
       </c>
       <c r="P146" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>香川総合センター</v>
       </c>
       <c r="Q146" t="str">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="R146" t="str">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="S146" t="str">
         <v>塩江地区コミュニティ協議会</v>
@@ -9021,19 +8976,19 @@
         <v>146</v>
       </c>
       <c r="B147" t="str">
-        <v>34.12607917</v>
+        <v>34.15226222</v>
       </c>
       <c r="C147" t="str">
-        <v>134.0737283</v>
+        <v>134.0763606</v>
       </c>
       <c r="D147" t="str">
-        <v>西山ふれあいセンター</v>
+        <v>上西小学校跡施設</v>
       </c>
       <c r="E147" t="str">
-        <v>高松市塩江町上西甲９４７番地３</v>
+        <v>高松市塩江町上西乙461</v>
       </c>
       <c r="F147" t="str">
-        <v>087-893-0192</v>
+        <v>087-839-2611</v>
       </c>
       <c r="G147" t="str">
         <v>○</v>
@@ -9045,7 +9000,7 @@
         <v>○</v>
       </c>
       <c r="J147" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K147" t="str">
         <v>○</v>
@@ -9054,22 +9009,22 @@
         <v>○</v>
       </c>
       <c r="M147" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N147" t="str">
         <v>○</v>
       </c>
       <c r="O147" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P147" t="str">
-        <v>香川総合センター</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q147" t="str">
-        <v>392</v>
+        <v>266</v>
       </c>
       <c r="R147" t="str">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="S147" t="str">
         <v>塩江地区コミュニティ協議会</v>
@@ -9080,31 +9035,31 @@
         <v>147</v>
       </c>
       <c r="B148" t="str">
-        <v>34.29691</v>
+        <v>34.12607917</v>
       </c>
       <c r="C148" t="str">
-        <v>133.9643214</v>
+        <v>134.0737283</v>
       </c>
       <c r="D148" t="str">
-        <v>国分寺中学校</v>
+        <v>西山ふれあいセンター</v>
       </c>
       <c r="E148" t="str">
-        <v>高松市国分寺町新居1131-1</v>
+        <v>高松市塩江町上西甲９４７番地３</v>
       </c>
       <c r="F148" t="str">
-        <v>087-874-0031</v>
+        <v>087-893-0192</v>
       </c>
       <c r="G148" t="str">
         <v>○</v>
       </c>
       <c r="H148" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="I148" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="J148" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K148" t="str">
         <v>○</v>
@@ -9113,25 +9068,25 @@
         <v>○</v>
       </c>
       <c r="M148" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N148" t="str">
         <v>○</v>
       </c>
       <c r="O148" t="str">
-        <v>○</v>
+        <v/>
       </c>
       <c r="P148" t="str">
-        <v>教育総務課</v>
+        <v>香川総合センター</v>
       </c>
       <c r="Q148" t="str">
-        <v>23.5</v>
+        <v>392</v>
       </c>
       <c r="R148" t="str">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="S148" t="str">
-        <v>国分寺北部校区コミュニティ協議会</v>
+        <v>塩江地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="149">
@@ -9139,28 +9094,28 @@
         <v>148</v>
       </c>
       <c r="B149" t="str">
-        <v>34.30594222</v>
+        <v>34.29691</v>
       </c>
       <c r="C149" t="str">
-        <v>133.9631825</v>
+        <v>133.9643214</v>
       </c>
       <c r="D149" t="str">
-        <v>国分寺北部小学校</v>
+        <v>国分寺中学校</v>
       </c>
       <c r="E149" t="str">
-        <v>高松市国分寺町新居1880</v>
+        <v>高松市国分寺町新居1131-1</v>
       </c>
       <c r="F149" t="str">
-        <v>087-874-1154</v>
+        <v>087-874-0031</v>
       </c>
       <c r="G149" t="str">
         <v>○</v>
       </c>
       <c r="H149" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I149" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="J149" t="str">
         <v>○</v>
@@ -9184,10 +9139,10 @@
         <v>教育総務課</v>
       </c>
       <c r="Q149" t="str">
-        <v>26.5</v>
+        <v>23.5</v>
       </c>
       <c r="R149" t="str">
-        <v>383</v>
+        <v>297</v>
       </c>
       <c r="S149" t="str">
         <v>国分寺北部校区コミュニティ協議会</v>
@@ -9198,25 +9153,25 @@
         <v>149</v>
       </c>
       <c r="B150" t="str">
-        <v>34.30537556</v>
+        <v>34.30594222</v>
       </c>
       <c r="C150" t="str">
-        <v>133.9623436</v>
+        <v>133.9631825</v>
       </c>
       <c r="D150" t="str">
-        <v>国分寺北部コミュニティセンター</v>
+        <v>国分寺北部小学校</v>
       </c>
       <c r="E150" t="str">
-        <v>高松市国分寺町新居1840-6</v>
+        <v>高松市国分寺町新居1880</v>
       </c>
       <c r="F150" t="str">
-        <v>087-874-5805</v>
+        <v>087-874-1154</v>
       </c>
       <c r="G150" t="str">
         <v>○</v>
       </c>
       <c r="H150" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I150" t="str">
         <v>○</v>
@@ -9231,7 +9186,7 @@
         <v>○</v>
       </c>
       <c r="M150" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N150" t="str">
         <v>○</v>
@@ -9240,13 +9195,13 @@
         <v>○</v>
       </c>
       <c r="P150" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q150" t="str">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="R150" t="str">
-        <v>294</v>
+        <v>383</v>
       </c>
       <c r="S150" t="str">
         <v>国分寺北部校区コミュニティ協議会</v>
@@ -9257,19 +9212,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="str">
-        <v>34.29734611</v>
+        <v>34.30537556</v>
       </c>
       <c r="C151" t="str">
-        <v>133.9659881</v>
+        <v>133.9623436</v>
       </c>
       <c r="D151" t="str">
-        <v>国分寺中学校第二体育館</v>
+        <v>国分寺北部コミュニティセンター</v>
       </c>
       <c r="E151" t="str">
-        <v>高松市国分寺町新居1155-7</v>
+        <v>高松市国分寺町新居1840-6</v>
       </c>
       <c r="F151" t="str">
-        <v>087-874-4560</v>
+        <v>087-874-5805</v>
       </c>
       <c r="G151" t="str">
         <v>○</v>
@@ -9278,7 +9233,7 @@
         <v>△</v>
       </c>
       <c r="I151" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="J151" t="str">
         <v>○</v>
@@ -9299,13 +9254,13 @@
         <v>○</v>
       </c>
       <c r="P151" t="str">
-        <v>教育総務課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q151" t="str">
-        <v>23.6</v>
+        <v>26</v>
       </c>
       <c r="R151" t="str">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="S151" t="str">
         <v>国分寺北部校区コミュニティ協議会</v>
@@ -9316,28 +9271,28 @@
         <v>151</v>
       </c>
       <c r="B152" t="str">
-        <v>34.30795889</v>
+        <v>34.29734611</v>
       </c>
       <c r="C152" t="str">
-        <v>133.9718122</v>
+        <v>133.9659881</v>
       </c>
       <c r="D152" t="str">
-        <v>新居東児童館</v>
+        <v>国分寺中学校第二体育館</v>
       </c>
       <c r="E152" t="str">
-        <v>高松市国分寺町新居3371-1</v>
+        <v>高松市国分寺町新居1155-7</v>
       </c>
       <c r="F152" t="str">
-        <v>087-874-6705</v>
+        <v>087-874-4560</v>
       </c>
       <c r="G152" t="str">
         <v>○</v>
       </c>
       <c r="H152" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I152" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="J152" t="str">
         <v>○</v>
@@ -9355,16 +9310,16 @@
         <v>○</v>
       </c>
       <c r="O152" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P152" t="str">
-        <v>子育て支援課</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q152" t="str">
-        <v>31</v>
+        <v>23.6</v>
       </c>
       <c r="R152" t="str">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="S152" t="str">
         <v>国分寺北部校区コミュニティ協議会</v>
@@ -9375,28 +9330,28 @@
         <v>152</v>
       </c>
       <c r="B153" t="str">
-        <v>34.29960139</v>
+        <v>34.30795889</v>
       </c>
       <c r="C153" t="str">
-        <v>133.9592108</v>
+        <v>133.9718122</v>
       </c>
       <c r="D153" t="str">
-        <v>国分寺文化センター</v>
+        <v>新居東児童館</v>
       </c>
       <c r="E153" t="str">
-        <v>高松市国分寺町新居1423-1</v>
+        <v>高松市国分寺町新居3371-1</v>
       </c>
       <c r="F153" t="str">
-        <v>087-874-4519</v>
+        <v>087-874-6705</v>
       </c>
       <c r="G153" t="str">
         <v>○</v>
       </c>
       <c r="H153" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="I153" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J153" t="str">
         <v>○</v>
@@ -9414,16 +9369,16 @@
         <v>○</v>
       </c>
       <c r="O153" t="str">
-        <v>○</v>
+        <v/>
       </c>
       <c r="P153" t="str">
-        <v>人権啓発課</v>
+        <v>子育て支援課</v>
       </c>
       <c r="Q153" t="str">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="R153" t="str">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="S153" t="str">
         <v>国分寺北部校区コミュニティ協議会</v>
@@ -9434,28 +9389,28 @@
         <v>153</v>
       </c>
       <c r="B154" t="str">
-        <v>34.30291167</v>
+        <v>34.29960139</v>
       </c>
       <c r="C154" t="str">
-        <v>133.9464617</v>
+        <v>133.9592108</v>
       </c>
       <c r="D154" t="str">
-        <v>国分児童館</v>
+        <v>国分寺文化センター</v>
       </c>
       <c r="E154" t="str">
-        <v>高松市国分寺町国分2150-7</v>
+        <v>高松市国分寺町新居1423-1</v>
       </c>
       <c r="F154" t="str">
-        <v>087-874-3830</v>
+        <v>087-874-4519</v>
       </c>
       <c r="G154" t="str">
         <v>○</v>
       </c>
       <c r="H154" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I154" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J154" t="str">
         <v>○</v>
@@ -9473,16 +9428,16 @@
         <v>○</v>
       </c>
       <c r="O154" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P154" t="str">
-        <v>子育て支援課</v>
+        <v>人権啓発課</v>
       </c>
       <c r="Q154" t="str">
-        <v>34.2</v>
+        <v>23</v>
       </c>
       <c r="R154" t="str">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="S154" t="str">
         <v>国分寺北部校区コミュニティ協議会</v>
@@ -9493,58 +9448,55 @@
         <v>154</v>
       </c>
       <c r="B155" t="str">
-        <v>34.28308639</v>
+        <v>34.327423092497824</v>
       </c>
       <c r="C155" t="str">
-        <v>133.9614222</v>
+        <v>134.09246357391214</v>
       </c>
       <c r="D155" t="str">
-        <v>国分寺南部小学校</v>
+        <v>トヨタカローラ香川株式会社春日店</v>
       </c>
       <c r="E155" t="str">
-        <v>高松市国分寺町福家甲3005</v>
+        <v>高松市春日町902-1</v>
       </c>
       <c r="F155" t="str">
-        <v>087-874-1160</v>
+        <v>087-805-2600</v>
       </c>
       <c r="G155" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="H155" t="str">
-        <v>△</v>
+        <v>×</v>
       </c>
       <c r="I155" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="J155" t="str">
         <v>○</v>
       </c>
       <c r="K155" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="L155" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="M155" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N155" t="str">
         <v>○</v>
       </c>
-      <c r="O155" t="str">
-        <v>○</v>
-      </c>
       <c r="P155" t="str">
-        <v>教育総務課</v>
+        <v>トヨタカローラ香川株式会社</v>
       </c>
       <c r="Q155" t="str">
-        <v>28.9</v>
+        <v>1.9</v>
       </c>
       <c r="R155" t="str">
-        <v>405</v>
+        <v>121</v>
       </c>
       <c r="S155" t="str">
-        <v>国分寺南部校区コミュニティ協議会</v>
+        <v>古高松地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="156">
@@ -9552,19 +9504,19 @@
         <v>155</v>
       </c>
       <c r="B156" t="str">
-        <v>34.28410306</v>
+        <v>34.30291167</v>
       </c>
       <c r="C156" t="str">
-        <v>133.9610111</v>
+        <v>133.9464617</v>
       </c>
       <c r="D156" t="str">
-        <v>国分寺南部コミュニティセンター</v>
+        <v>国分児童館</v>
       </c>
       <c r="E156" t="str">
-        <v>高松市国分寺町福家甲3106-3</v>
+        <v>高松市国分寺町国分2150-7</v>
       </c>
       <c r="F156" t="str">
-        <v>087-874-1116</v>
+        <v>087-874-3830</v>
       </c>
       <c r="G156" t="str">
         <v>○</v>
@@ -9573,7 +9525,7 @@
         <v>△</v>
       </c>
       <c r="I156" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="J156" t="str">
         <v>○</v>
@@ -9591,19 +9543,19 @@
         <v>○</v>
       </c>
       <c r="O156" t="str">
-        <v>○</v>
+        <v/>
       </c>
       <c r="P156" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>子育て支援課</v>
       </c>
       <c r="Q156" t="str">
-        <v>28.6</v>
+        <v>34.2</v>
       </c>
       <c r="R156" t="str">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="S156" t="str">
-        <v>国分寺南部校区コミュニティ協議会</v>
+        <v>国分寺北部校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="157">
@@ -9617,19 +9569,19 @@
         <v>133.9614222</v>
       </c>
       <c r="D157" t="str">
-        <v>国分寺勤労青少年ホーム</v>
+        <v>国分寺南部小学校</v>
       </c>
       <c r="E157" t="str">
         <v>高松市国分寺町福家甲3005</v>
       </c>
       <c r="F157" t="str">
-        <v>087-874-3982</v>
+        <v>087-874-1160</v>
       </c>
       <c r="G157" t="str">
         <v>○</v>
       </c>
       <c r="H157" t="str">
-        <v>×</v>
+        <v>△</v>
       </c>
       <c r="I157" t="str">
         <v>△</v>
@@ -9644,7 +9596,7 @@
         <v>○</v>
       </c>
       <c r="M157" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N157" t="str">
         <v>○</v>
@@ -9653,13 +9605,13 @@
         <v>○</v>
       </c>
       <c r="P157" t="str">
-        <v>スポーツ振興課</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q157" t="str">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="R157" t="str">
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="S157" t="str">
         <v>国分寺南部校区コミュニティ協議会</v>
@@ -9670,28 +9622,28 @@
         <v>157</v>
       </c>
       <c r="B158" t="str">
-        <v>34.27412944</v>
+        <v>34.28410306</v>
       </c>
       <c r="C158" t="str">
-        <v>133.9727575</v>
+        <v>133.9610111</v>
       </c>
       <c r="D158" t="str">
-        <v>福家児童館</v>
+        <v>国分寺南部コミュニティセンター</v>
       </c>
       <c r="E158" t="str">
-        <v>高松市国分寺町福家甲1951-1</v>
+        <v>高松市国分寺町福家甲3106-3</v>
       </c>
       <c r="F158" t="str">
-        <v>087-874-4954</v>
+        <v>087-874-1116</v>
       </c>
       <c r="G158" t="str">
         <v>○</v>
       </c>
       <c r="H158" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I158" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="J158" t="str">
         <v>○</v>
@@ -9709,16 +9661,16 @@
         <v>○</v>
       </c>
       <c r="O158" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P158" t="str">
-        <v>子育て支援課</v>
+        <v>協働コミュニティ推進課</v>
       </c>
       <c r="Q158" t="str">
-        <v>42.9</v>
+        <v>28.6</v>
       </c>
       <c r="R158" t="str">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="S158" t="str">
         <v>国分寺南部校区コミュニティ協議会</v>
@@ -9729,25 +9681,25 @@
         <v>158</v>
       </c>
       <c r="B159" t="str">
-        <v>34.29664333</v>
+        <v>34.28308639</v>
       </c>
       <c r="C159" t="str">
-        <v>133.9601136</v>
+        <v>133.9614222</v>
       </c>
       <c r="D159" t="str">
-        <v>国分寺会館</v>
+        <v>国分寺勤労青少年ホーム</v>
       </c>
       <c r="E159" t="str">
-        <v>高松市国分寺町新名430-2</v>
+        <v>高松市国分寺町福家甲3005</v>
       </c>
       <c r="F159" t="str">
-        <v>087-874-1111</v>
+        <v>087-874-3982</v>
       </c>
       <c r="G159" t="str">
         <v>○</v>
       </c>
       <c r="H159" t="str">
-        <v>△</v>
+        <v>×</v>
       </c>
       <c r="I159" t="str">
         <v>△</v>
@@ -9768,16 +9720,16 @@
         <v>○</v>
       </c>
       <c r="O159" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P159" t="str">
-        <v>国分寺総合センター</v>
+        <v>スポーツ振興課</v>
       </c>
       <c r="Q159" t="str">
-        <v>24.4</v>
+        <v>28.4</v>
       </c>
       <c r="R159" t="str">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="S159" t="str">
         <v>国分寺南部校区コミュニティ協議会</v>
@@ -9788,19 +9740,19 @@
         <v>159</v>
       </c>
       <c r="B160" t="str">
-        <v>34.29932583</v>
+        <v>34.27412944</v>
       </c>
       <c r="C160" t="str">
-        <v>133.9421289</v>
+        <v>133.9727575</v>
       </c>
       <c r="D160" t="str">
-        <v>香川県青年センター</v>
+        <v>福家児童館</v>
       </c>
       <c r="E160" t="str">
-        <v>高松市国分寺町国分1009</v>
+        <v>高松市国分寺町福家甲1951-1</v>
       </c>
       <c r="F160" t="str">
-        <v>087-874-0713</v>
+        <v>087-874-4954</v>
       </c>
       <c r="G160" t="str">
         <v>○</v>
@@ -9809,7 +9761,7 @@
         <v>○</v>
       </c>
       <c r="I160" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="J160" t="str">
         <v>○</v>
@@ -9827,19 +9779,19 @@
         <v>○</v>
       </c>
       <c r="O160" t="str">
-        <v>○</v>
+        <v/>
       </c>
       <c r="P160" t="str">
-        <v>香川県青年センター</v>
+        <v>子育て支援課</v>
       </c>
       <c r="Q160" t="str">
-        <v>31.5</v>
+        <v>42.9</v>
       </c>
       <c r="R160" t="str">
-        <v>384</v>
+        <v>70</v>
       </c>
       <c r="S160" t="str">
-        <v>国分寺北部校区コミュニティ協議会</v>
+        <v>国分寺南部校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="161">
@@ -9847,34 +9799,34 @@
         <v>160</v>
       </c>
       <c r="B161" t="str">
-        <v>34.36483306</v>
+        <v>34.29664333</v>
       </c>
       <c r="C161" t="str">
-        <v>133.9695161</v>
+        <v>133.9601136</v>
       </c>
       <c r="D161" t="str">
-        <v>香川県消防学校</v>
+        <v>国分寺会館</v>
       </c>
       <c r="E161" t="str">
-        <v>高松市生島町689-11</v>
+        <v>高松市国分寺町新名430-2</v>
       </c>
       <c r="F161" t="str">
-        <v>087-881-3281</v>
+        <v>087-874-1111</v>
       </c>
       <c r="G161" t="str">
         <v>○</v>
       </c>
       <c r="H161" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I161" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="J161" t="str">
         <v>○</v>
       </c>
       <c r="K161" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="L161" t="str">
         <v>○</v>
@@ -9889,16 +9841,16 @@
         <v/>
       </c>
       <c r="P161" t="str">
-        <v>香川県消防学校</v>
+        <v>国分寺総合センター</v>
       </c>
       <c r="Q161" t="str">
-        <v>3.1</v>
+        <v>24.4</v>
       </c>
       <c r="R161" t="str">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="S161" t="str">
-        <v>下笠居地区コミュニティ協議会</v>
+        <v>国分寺南部校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="162">
@@ -9906,34 +9858,34 @@
         <v>161</v>
       </c>
       <c r="B162" t="str">
-        <v>34.34431472</v>
+        <v>34.29932583</v>
       </c>
       <c r="C162" t="str">
-        <v>134.0423575</v>
+        <v>133.9421289</v>
       </c>
       <c r="D162" t="str">
-        <v>高松工芸高等学校（体育館）</v>
+        <v>香川県青年センター</v>
       </c>
       <c r="E162" t="str">
-        <v>高松市番町2-9-30</v>
+        <v>高松市国分寺町国分1009</v>
       </c>
       <c r="F162" t="str">
-        <v>087-851-4144</v>
+        <v>087-874-0713</v>
       </c>
       <c r="G162" t="str">
         <v>○</v>
       </c>
       <c r="H162" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I162" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="J162" t="str">
         <v>○</v>
       </c>
       <c r="K162" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="L162" t="str">
         <v>○</v>
@@ -9948,16 +9900,16 @@
         <v>○</v>
       </c>
       <c r="P162" t="str">
-        <v>県高校教育課</v>
+        <v>香川県青年センター</v>
       </c>
       <c r="Q162" t="str">
-        <v>2.6</v>
+        <v>31.5</v>
       </c>
       <c r="R162" t="str">
-        <v>715</v>
+        <v>384</v>
       </c>
       <c r="S162" t="str">
-        <v>二番丁地区コミュニティ協議会</v>
+        <v>国分寺北部校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="163">
@@ -9965,19 +9917,19 @@
         <v>162</v>
       </c>
       <c r="B163" t="str">
-        <v>34.34147611</v>
+        <v>34.36483306</v>
       </c>
       <c r="C163" t="str">
-        <v>134.0440964</v>
+        <v>133.9695161</v>
       </c>
       <c r="D163" t="str">
-        <v>高松高等学校（体育館）</v>
+        <v>香川県消防学校</v>
       </c>
       <c r="E163" t="str">
-        <v>高松市番町3-1-1</v>
+        <v>高松市生島町689-11</v>
       </c>
       <c r="F163" t="str">
-        <v>087-831-7251</v>
+        <v>087-881-3281</v>
       </c>
       <c r="G163" t="str">
         <v>○</v>
@@ -10004,19 +9956,19 @@
         <v>○</v>
       </c>
       <c r="O163" t="str">
-        <v>○</v>
+        <v/>
       </c>
       <c r="P163" t="str">
-        <v>県高校教育課</v>
+        <v>香川県消防学校</v>
       </c>
       <c r="Q163" t="str">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="R163" t="str">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="S163" t="str">
-        <v>四番丁コミュニティ協議会</v>
+        <v>下笠居地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="164">
@@ -10024,19 +9976,19 @@
         <v>163</v>
       </c>
       <c r="B164" t="str">
-        <v>34.33839083</v>
+        <v>34.34431472</v>
       </c>
       <c r="C164" t="str">
-        <v>134.059245</v>
+        <v>134.0423575</v>
       </c>
       <c r="D164" t="str">
-        <v>高松商業高等学校（体育館）</v>
+        <v>高松工芸高等学校（体育館）</v>
       </c>
       <c r="E164" t="str">
-        <v>高松市松島町1-18-54</v>
+        <v>高松市番町2-9-30</v>
       </c>
       <c r="F164" t="str">
-        <v>087-833-1971</v>
+        <v>087-851-4144</v>
       </c>
       <c r="G164" t="str">
         <v>○</v>
@@ -10045,7 +9997,7 @@
         <v>○</v>
       </c>
       <c r="I164" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="J164" t="str">
         <v>○</v>
@@ -10054,7 +10006,7 @@
         <v>△</v>
       </c>
       <c r="L164" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="M164" t="str">
         <v>×</v>
@@ -10069,13 +10021,13 @@
         <v>県高校教育課</v>
       </c>
       <c r="Q164" t="str">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="R164" t="str">
-        <v>610</v>
+        <v>715</v>
       </c>
       <c r="S164" t="str">
-        <v>松島地区コミュニティ協議会</v>
+        <v>二番丁地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="165">
@@ -10083,25 +10035,25 @@
         <v>164</v>
       </c>
       <c r="B165" t="str">
-        <v>34.34262028</v>
+        <v>34.34147611</v>
       </c>
       <c r="C165" t="str">
-        <v>134.0375386</v>
+        <v>134.0440964</v>
       </c>
       <c r="D165" t="str">
-        <v>香川大学（経済学部構内体育館）</v>
+        <v>高松高等学校（体育館）</v>
       </c>
       <c r="E165" t="str">
-        <v>高松市幸町1-1</v>
+        <v>高松市番町3-1-1</v>
       </c>
       <c r="F165" t="str">
-        <v>087-832-1000</v>
+        <v>087-831-7251</v>
       </c>
       <c r="G165" t="str">
         <v>○</v>
       </c>
       <c r="H165" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="I165" t="str">
         <v>○</v>
@@ -10125,16 +10077,16 @@
         <v>○</v>
       </c>
       <c r="P165" t="str">
-        <v>香川大学</v>
+        <v>県高校教育課</v>
       </c>
       <c r="Q165" t="str">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="R165" t="str">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="S165" t="str">
-        <v>亀阜校区コミュニティ協議会</v>
+        <v>四番丁コミュニティ協議会</v>
       </c>
     </row>
     <row r="166">
@@ -10142,58 +10094,58 @@
         <v>165</v>
       </c>
       <c r="B166" t="str">
-        <v>34.29744222</v>
+        <v>34.33839083</v>
       </c>
       <c r="C166" t="str">
-        <v>134.0415036</v>
+        <v>134.059245</v>
       </c>
       <c r="D166" t="str">
-        <v>香川県立聾学校（体育館）※地震時のみ使用</v>
+        <v>高松商業高等学校（体育館）</v>
       </c>
       <c r="E166" t="str">
-        <v>高松市太田上町513-1</v>
+        <v>高松市松島町1-18-54</v>
       </c>
       <c r="F166" t="str">
-        <v>087-865-4492</v>
+        <v>087-833-1971</v>
       </c>
       <c r="G166" t="str">
-        <v>−</v>
+        <v>○</v>
       </c>
       <c r="H166" t="str">
-        <v>−</v>
+        <v>△</v>
       </c>
       <c r="I166" t="str">
-        <v>−</v>
+        <v>△</v>
       </c>
       <c r="J166" t="str">
-        <v>−</v>
+        <v>○</v>
       </c>
       <c r="K166" t="str">
-        <v>−</v>
+        <v>△</v>
       </c>
       <c r="L166" t="str">
-        <v>−</v>
+        <v>△</v>
       </c>
       <c r="M166" t="str">
-        <v>−</v>
+        <v>×</v>
       </c>
       <c r="N166" t="str">
         <v>○</v>
       </c>
       <c r="O166" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P166" t="str">
-        <v>香川県聾学校</v>
+        <v>県高校教育課</v>
       </c>
       <c r="Q166" t="str">
-        <v>26.3</v>
+        <v>1.5</v>
       </c>
       <c r="R166" t="str">
-        <v>200</v>
+        <v>610</v>
       </c>
       <c r="S166" t="str">
-        <v>太田南地区コミュニティ協議会</v>
+        <v>松島地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="167">
@@ -10201,25 +10153,25 @@
         <v>166</v>
       </c>
       <c r="B167" t="str">
-        <v>34.34546194</v>
+        <v>34.34262028</v>
       </c>
       <c r="C167" t="str">
-        <v>134.0534536</v>
+        <v>134.0375386</v>
       </c>
       <c r="D167" t="str">
-        <v>高松市生涯学習センター（まなびCAN）</v>
+        <v>香川大学（経済学部構内体育館）</v>
       </c>
       <c r="E167" t="str">
-        <v>高松市片原町11-1むうぶ片原町ビル内</v>
+        <v>高松市幸町1-1</v>
       </c>
       <c r="F167" t="str">
-        <v>087-811-6222</v>
+        <v>087-832-1000</v>
       </c>
       <c r="G167" t="str">
         <v>○</v>
       </c>
       <c r="H167" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I167" t="str">
         <v>○</v>
@@ -10231,7 +10183,7 @@
         <v>△</v>
       </c>
       <c r="L167" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="M167" t="str">
         <v>×</v>
@@ -10243,16 +10195,16 @@
         <v>○</v>
       </c>
       <c r="P167" t="str">
-        <v>生涯学習課</v>
+        <v>香川大学</v>
       </c>
       <c r="Q167" t="str">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="R167" t="str">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="S167" t="str">
-        <v>新塩屋町地区コミュニティ協議会</v>
+        <v>亀阜校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="168">
@@ -10260,58 +10212,58 @@
         <v>167</v>
       </c>
       <c r="B168" t="str">
-        <v>34.34199056</v>
+        <v>34.29744222</v>
       </c>
       <c r="C168" t="str">
-        <v>134.0741269</v>
+        <v>134.0415036</v>
       </c>
       <c r="D168" t="str">
-        <v>高松市総合体育館</v>
+        <v>香川県立聾学校（体育館）※地震時のみ使用</v>
       </c>
       <c r="E168" t="str">
-        <v>高松市福岡町4-36-1</v>
+        <v>高松市太田上町513-1</v>
       </c>
       <c r="F168" t="str">
-        <v>087-822-0211</v>
+        <v>087-865-4492</v>
       </c>
       <c r="G168" t="str">
-        <v>○</v>
+        <v>−</v>
       </c>
       <c r="H168" t="str">
-        <v>○</v>
+        <v>−</v>
       </c>
       <c r="I168" t="str">
-        <v>△</v>
+        <v>−</v>
       </c>
       <c r="J168" t="str">
-        <v>○</v>
+        <v>−</v>
       </c>
       <c r="K168" t="str">
-        <v>△</v>
+        <v>−</v>
       </c>
       <c r="L168" t="str">
-        <v>△</v>
+        <v>−</v>
       </c>
       <c r="M168" t="str">
-        <v>×</v>
+        <v>−</v>
       </c>
       <c r="N168" t="str">
         <v>○</v>
       </c>
       <c r="O168" t="str">
-        <v>○</v>
+        <v/>
       </c>
       <c r="P168" t="str">
-        <v>スポーツ振興課</v>
+        <v>香川県聾学校</v>
       </c>
       <c r="Q168" t="str">
-        <v>2.5</v>
+        <v>26.3</v>
       </c>
       <c r="R168" t="str">
-        <v>1445</v>
+        <v>200</v>
       </c>
       <c r="S168" t="str">
-        <v>松島地区コミュニティ協議会</v>
+        <v>太田南地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="169">
@@ -10319,25 +10271,25 @@
         <v>168</v>
       </c>
       <c r="B169" t="str">
-        <v>34.29206944</v>
+        <v>34.34546194</v>
       </c>
       <c r="C169" t="str">
-        <v>134.1114364</v>
+        <v>134.0534536</v>
       </c>
       <c r="D169" t="str">
-        <v>高松東高校（体育館）</v>
+        <v>高松市生涯学習センター（まなびCAN）</v>
       </c>
       <c r="E169" t="str">
-        <v>高松市前田東町690-1</v>
+        <v>高松市片原町11-1むうぶ片原町ビル内</v>
       </c>
       <c r="F169" t="str">
-        <v>087-847-6221</v>
+        <v>087-811-6222</v>
       </c>
       <c r="G169" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="H169" t="str">
-        <v>×</v>
+        <v>△</v>
       </c>
       <c r="I169" t="str">
         <v>○</v>
@@ -10346,10 +10298,10 @@
         <v>○</v>
       </c>
       <c r="K169" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="L169" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="M169" t="str">
         <v>×</v>
@@ -10361,16 +10313,16 @@
         <v>○</v>
       </c>
       <c r="P169" t="str">
-        <v>県高校教育課</v>
+        <v>生涯学習課</v>
       </c>
       <c r="Q169" t="str">
-        <v>13.1</v>
+        <v>2.1</v>
       </c>
       <c r="R169" t="str">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="S169" t="str">
-        <v>前田校区コミュニティ協議会</v>
+        <v>新塩屋町地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="170">
@@ -10378,37 +10330,37 @@
         <v>169</v>
       </c>
       <c r="B170" t="str">
-        <v>34.31115389</v>
+        <v>34.34199056</v>
       </c>
       <c r="C170" t="str">
-        <v>134.0110808</v>
+        <v>134.0741269</v>
       </c>
       <c r="D170" t="str">
-        <v>香川高等専門学校（体育館）</v>
+        <v>高松市総合体育館</v>
       </c>
       <c r="E170" t="str">
-        <v>高松市勅使町355</v>
+        <v>高松市福岡町4-36-1</v>
       </c>
       <c r="F170" t="str">
-        <v>087-869-3811</v>
+        <v>087-822-0211</v>
       </c>
       <c r="G170" t="str">
         <v>○</v>
       </c>
       <c r="H170" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I170" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="J170" t="str">
         <v>○</v>
       </c>
       <c r="K170" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="L170" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="M170" t="str">
         <v>×</v>
@@ -10420,16 +10372,16 @@
         <v>○</v>
       </c>
       <c r="P170" t="str">
-        <v>独立行政法人　国立高等専門学校機構</v>
+        <v>スポーツ振興課</v>
       </c>
       <c r="Q170" t="str">
-        <v>26.5</v>
+        <v>2.5</v>
       </c>
       <c r="R170" t="str">
-        <v>800</v>
+        <v>1445</v>
       </c>
       <c r="S170" t="str">
-        <v>鶴尾校区コミュニティ協議会</v>
+        <v>松島地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="171">
@@ -10437,25 +10389,25 @@
         <v>170</v>
       </c>
       <c r="B171" t="str">
-        <v>34.290355</v>
+        <v>34.29206944</v>
       </c>
       <c r="C171" t="str">
-        <v>133.9520283</v>
+        <v>134.1114364</v>
       </c>
       <c r="D171" t="str">
-        <v>香川県営住宅国分寺団地集会場</v>
+        <v>高松東高校（体育館）</v>
       </c>
       <c r="E171" t="str">
-        <v>高松市国分寺町柏原41</v>
+        <v>高松市前田東町690-1</v>
       </c>
       <c r="F171" t="str">
-        <v>-</v>
+        <v>087-847-6221</v>
       </c>
       <c r="G171" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="H171" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="I171" t="str">
         <v>○</v>
@@ -10473,22 +10425,22 @@
         <v>×</v>
       </c>
       <c r="N171" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="O171" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P171" t="str">
-        <v>県住宅課</v>
+        <v>県高校教育課</v>
       </c>
       <c r="Q171" t="str">
-        <v>28.7</v>
+        <v>13.1</v>
       </c>
       <c r="R171" t="str">
-        <v>45</v>
+        <v>500</v>
       </c>
       <c r="S171" t="str">
-        <v>国分寺南部校区コミュニティ協議会</v>
+        <v>前田校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="172">
@@ -10496,19 +10448,19 @@
         <v>171</v>
       </c>
       <c r="B172" t="str">
-        <v>34.25265806</v>
+        <v>34.31115389</v>
       </c>
       <c r="C172" t="str">
-        <v>134.0310919</v>
+        <v>134.0110808</v>
       </c>
       <c r="D172" t="str">
-        <v>香川第一中学校</v>
+        <v>香川高等専門学校（体育館）</v>
       </c>
       <c r="E172" t="str">
-        <v>高松市香川町浅野1188</v>
+        <v>高松市勅使町355</v>
       </c>
       <c r="F172" t="str">
-        <v>087-879-2131</v>
+        <v>087-869-3811</v>
       </c>
       <c r="G172" t="str">
         <v>○</v>
@@ -10529,7 +10481,7 @@
         <v>○</v>
       </c>
       <c r="M172" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N172" t="str">
         <v>○</v>
@@ -10538,16 +10490,16 @@
         <v>○</v>
       </c>
       <c r="P172" t="str">
-        <v>教育総務課</v>
+        <v>独立行政法人　国立高等専門学校機構</v>
       </c>
       <c r="Q172" t="str">
-        <v>98</v>
+        <v>26.5</v>
       </c>
       <c r="R172" t="str">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="S172" t="str">
-        <v>浅野校区コミュニティ協議会</v>
+        <v>鶴尾校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="173">
@@ -10555,19 +10507,19 @@
         <v>172</v>
       </c>
       <c r="B173" t="str">
-        <v>34.28533528</v>
+        <v>34.290355</v>
       </c>
       <c r="C173" t="str">
-        <v>134.0381625</v>
+        <v>133.9520283</v>
       </c>
       <c r="D173" t="str">
-        <v>香川県農業共済組合</v>
+        <v>香川県営住宅国分寺団地集会場</v>
       </c>
       <c r="E173" t="str">
-        <v>高松市三名町5-6</v>
+        <v>高松市国分寺町柏原41</v>
       </c>
       <c r="F173" t="str">
-        <v>087-888-2121</v>
+        <v>-</v>
       </c>
       <c r="G173" t="str">
         <v>○</v>
@@ -10591,22 +10543,22 @@
         <v>×</v>
       </c>
       <c r="N173" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="O173" t="str">
         <v/>
       </c>
       <c r="P173" t="str">
-        <v>香川県農業共済組合</v>
+        <v>県住宅課</v>
       </c>
       <c r="Q173" t="str">
-        <v>36.1</v>
+        <v>28.7</v>
       </c>
       <c r="R173" t="str">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="S173" t="str">
-        <v>一宮地区コミュニティ協議会</v>
+        <v>国分寺南部校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="174">
@@ -10614,19 +10566,19 @@
         <v>173</v>
       </c>
       <c r="B174" t="str">
-        <v>34.29277111</v>
+        <v>34.25265806</v>
       </c>
       <c r="C174" t="str">
-        <v>134.0630072</v>
+        <v>134.0310919</v>
       </c>
       <c r="D174" t="str">
-        <v>香川大学創造工学部</v>
+        <v>香川第一中学校</v>
       </c>
       <c r="E174" t="str">
-        <v>高松市林町2217-20</v>
+        <v>高松市香川町浅野1188</v>
       </c>
       <c r="F174" t="str">
-        <v>087-864-2000</v>
+        <v>087-879-2131</v>
       </c>
       <c r="G174" t="str">
         <v>○</v>
@@ -10647,7 +10599,7 @@
         <v>○</v>
       </c>
       <c r="M174" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N174" t="str">
         <v>○</v>
@@ -10656,16 +10608,16 @@
         <v>○</v>
       </c>
       <c r="P174" t="str">
-        <v>香川大学</v>
+        <v>教育総務課</v>
       </c>
       <c r="Q174" t="str">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="R174" t="str">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="S174" t="str">
-        <v>林地区コミュニティ協議会</v>
+        <v>浅野校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="175">
@@ -10673,34 +10625,34 @@
         <v>174</v>
       </c>
       <c r="B175" t="str">
-        <v>34.3292175</v>
+        <v>34.28533528</v>
       </c>
       <c r="C175" t="str">
-        <v>134.0992836</v>
+        <v>134.0381625</v>
       </c>
       <c r="D175" t="str">
-        <v>介護老人保健施設サンライズ屋島</v>
+        <v>香川県農業共済組合</v>
       </c>
       <c r="E175" t="str">
-        <v>高松市新田町甲2723-2</v>
+        <v>高松市三名町5-6</v>
       </c>
       <c r="F175" t="str">
-        <v>087-841-8090</v>
+        <v>087-888-2121</v>
       </c>
       <c r="G175" t="str">
         <v>○</v>
       </c>
       <c r="H175" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="I175" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="J175" t="str">
         <v>○</v>
       </c>
       <c r="K175" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="L175" t="str">
         <v>○</v>
@@ -10715,16 +10667,16 @@
         <v/>
       </c>
       <c r="P175" t="str">
-        <v>介護老人保健施設サンライズ屋島</v>
+        <v>香川県農業共済組合</v>
       </c>
       <c r="Q175" t="str">
-        <v>2.7</v>
+        <v>36.1</v>
       </c>
       <c r="R175" t="str">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="S175" t="str">
-        <v>古高松地区コミュニティ協議会</v>
+        <v>一宮地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="176">
@@ -10732,19 +10684,19 @@
         <v>175</v>
       </c>
       <c r="B176" t="str">
-        <v>34.35068639</v>
+        <v>34.29277111</v>
       </c>
       <c r="C176" t="str">
-        <v>134.0509428</v>
+        <v>134.0630072</v>
       </c>
       <c r="D176" t="str">
-        <v>玉藻公園</v>
+        <v>香川大学創造工学部</v>
       </c>
       <c r="E176" t="str">
-        <v>高松市玉藻町2-1</v>
+        <v>高松市林町2217-20</v>
       </c>
       <c r="F176" t="str">
-        <v>087-851-1521</v>
+        <v>087-864-2000</v>
       </c>
       <c r="G176" t="str">
         <v>○</v>
@@ -10759,10 +10711,10 @@
         <v>○</v>
       </c>
       <c r="K176" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="L176" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="M176" t="str">
         <v>×</v>
@@ -10771,19 +10723,19 @@
         <v>○</v>
       </c>
       <c r="O176" t="str">
-        <v/>
+        <v>○</v>
       </c>
       <c r="P176" t="str">
-        <v>文化財課</v>
+        <v>香川大学</v>
       </c>
       <c r="Q176" t="str">
-        <v>2.6</v>
+        <v>22</v>
       </c>
       <c r="R176" t="str">
-        <v/>
+        <v>240</v>
       </c>
       <c r="S176" t="str">
-        <v>四番丁コミュニティ協議会</v>
+        <v>林地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="177">
@@ -10791,28 +10743,28 @@
         <v>176</v>
       </c>
       <c r="B177" t="str">
-        <v>34.34194556</v>
+        <v>34.3292175</v>
       </c>
       <c r="C177" t="str">
-        <v>134.0474322</v>
+        <v>134.0992836</v>
       </c>
       <c r="D177" t="str">
-        <v>中央公園</v>
+        <v>介護老人保健施設サンライズ屋島</v>
       </c>
       <c r="E177" t="str">
-        <v>高松市番町１丁目11-1</v>
+        <v>高松市新田町甲2723-2</v>
       </c>
       <c r="F177" t="str">
-        <v>-</v>
+        <v>087-841-8090</v>
       </c>
       <c r="G177" t="str">
         <v>○</v>
       </c>
       <c r="H177" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="I177" t="str">
-        <v>○</v>
+        <v>△</v>
       </c>
       <c r="J177" t="str">
         <v>○</v>
@@ -10821,7 +10773,7 @@
         <v>△</v>
       </c>
       <c r="L177" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="M177" t="str">
         <v>×</v>
@@ -10833,16 +10785,16 @@
         <v/>
       </c>
       <c r="P177" t="str">
-        <v>公園緑地課</v>
+        <v>介護老人保健施設サンライズ屋島</v>
       </c>
       <c r="Q177" t="str">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="R177" t="str">
-        <v/>
+        <v>136</v>
       </c>
       <c r="S177" t="str">
-        <v>四番丁コミュニティ協議会</v>
+        <v>古高松地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="178">
@@ -10850,19 +10802,19 @@
         <v>177</v>
       </c>
       <c r="B178" t="str">
-        <v>34.32530333</v>
+        <v>34.35068639</v>
       </c>
       <c r="C178" t="str">
-        <v>134.0586261</v>
+        <v>134.0509428</v>
       </c>
       <c r="D178" t="str">
-        <v>今里中央公園</v>
+        <v>玉藻公園</v>
       </c>
       <c r="E178" t="str">
-        <v>高松市今里町１丁目20</v>
+        <v>高松市玉藻町2-1</v>
       </c>
       <c r="F178" t="str">
-        <v>-</v>
+        <v>087-851-1521</v>
       </c>
       <c r="G178" t="str">
         <v>○</v>
@@ -10877,13 +10829,13 @@
         <v>○</v>
       </c>
       <c r="K178" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="L178" t="str">
         <v>×</v>
       </c>
       <c r="M178" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N178" t="str">
         <v>○</v>
@@ -10892,16 +10844,16 @@
         <v/>
       </c>
       <c r="P178" t="str">
-        <v>公園緑地課</v>
+        <v>文化財課</v>
       </c>
       <c r="Q178" t="str">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="R178" t="str">
         <v/>
       </c>
       <c r="S178" t="str">
-        <v>太田地区コミュニティ協議会</v>
+        <v>四番丁コミュニティ協議会</v>
       </c>
     </row>
     <row r="179">
@@ -10909,16 +10861,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="str">
-        <v>34.31414</v>
+        <v>34.34194556</v>
       </c>
       <c r="C179" t="str">
-        <v>134.0551</v>
+        <v>134.0474322</v>
       </c>
       <c r="D179" t="str">
-        <v>伏石中央公園</v>
+        <v>中央公園</v>
       </c>
       <c r="E179" t="str">
-        <v>高松市伏石町2077</v>
+        <v>高松市番町１丁目11-1</v>
       </c>
       <c r="F179" t="str">
         <v>-</v>
@@ -10936,13 +10888,13 @@
         <v>○</v>
       </c>
       <c r="K179" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="L179" t="str">
         <v>×</v>
       </c>
       <c r="M179" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N179" t="str">
         <v>○</v>
@@ -10954,13 +10906,13 @@
         <v>公園緑地課</v>
       </c>
       <c r="Q179" t="str">
-        <v>12.3</v>
+        <v>4.8</v>
       </c>
       <c r="R179" t="str">
         <v/>
       </c>
       <c r="S179" t="str">
-        <v>太田地区コミュニティ協議会</v>
+        <v>四番丁コミュニティ協議会</v>
       </c>
     </row>
     <row r="180">
@@ -10968,16 +10920,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="str">
-        <v>34.31564151</v>
+        <v>34.32530333</v>
       </c>
       <c r="C180" t="str">
-        <v>134.065604</v>
+        <v>134.0586261</v>
       </c>
       <c r="D180" t="str">
-        <v>木太中央公園</v>
+        <v>今里中央公園</v>
       </c>
       <c r="E180" t="str">
-        <v>高松市木太町5052</v>
+        <v>高松市今里町１丁目20</v>
       </c>
       <c r="F180" t="str">
         <v>-</v>
@@ -10986,7 +10938,7 @@
         <v>○</v>
       </c>
       <c r="H180" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="I180" t="str">
         <v>○</v>
@@ -11013,13 +10965,13 @@
         <v>公園緑地課</v>
       </c>
       <c r="Q180" t="str">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="R180" t="str">
         <v/>
       </c>
       <c r="S180" t="str">
-        <v>木太地区コミュニティ協議会</v>
+        <v>太田地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="181">
@@ -11027,16 +10979,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="str">
-        <v>34.33156222</v>
+        <v>34.31414</v>
       </c>
       <c r="C181" t="str">
-        <v>134.1167208</v>
+        <v>134.0551</v>
       </c>
       <c r="D181" t="str">
-        <v>菱の池公園</v>
+        <v>伏石中央公園</v>
       </c>
       <c r="E181" t="str">
-        <v>高松市高松町1211-28</v>
+        <v>高松市伏石町2077</v>
       </c>
       <c r="F181" t="str">
         <v>-</v>
@@ -11057,10 +11009,10 @@
         <v>○</v>
       </c>
       <c r="L181" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="M181" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N181" t="str">
         <v>○</v>
@@ -11072,13 +11024,13 @@
         <v>公園緑地課</v>
       </c>
       <c r="Q181" t="str">
-        <v>21.3</v>
+        <v>12.3</v>
       </c>
       <c r="R181" t="str">
         <v/>
       </c>
       <c r="S181" t="str">
-        <v>古高松地区コミュニティ協議会</v>
+        <v>太田地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="182">
@@ -11086,25 +11038,25 @@
         <v>181</v>
       </c>
       <c r="B182" t="str">
-        <v>34.29543016</v>
+        <v>34.31564151</v>
       </c>
       <c r="C182" t="str">
-        <v>134.0251408</v>
+        <v>134.065604</v>
       </c>
       <c r="D182" t="str">
-        <v>一宮新池農村公園</v>
+        <v>木太中央公園</v>
       </c>
       <c r="E182" t="str">
-        <v>高松市一宮町1227</v>
+        <v>高松市木太町5052</v>
       </c>
       <c r="F182" t="str">
         <v>-</v>
       </c>
       <c r="G182" t="str">
-        <v>○</v>
+        <v>-</v>
       </c>
       <c r="H182" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="I182" t="str">
         <v>○</v>
@@ -11116,10 +11068,10 @@
         <v>○</v>
       </c>
       <c r="L182" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="M182" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N182" t="str">
         <v>○</v>
@@ -11128,16 +11080,16 @@
         <v/>
       </c>
       <c r="P182" t="str">
-        <v>土地改良課</v>
+        <v>公園緑地課</v>
       </c>
       <c r="Q182" t="str">
-        <v>29.9</v>
+        <v>6.5</v>
       </c>
       <c r="R182" t="str">
         <v/>
       </c>
       <c r="S182" t="str">
-        <v>一宮地区コミュニティ協議会</v>
+        <v>木太地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="183">
@@ -11145,19 +11097,19 @@
         <v>182</v>
       </c>
       <c r="B183" t="str">
-        <v>34.33351</v>
+        <v>34.33156222</v>
       </c>
       <c r="C183" t="str">
-        <v>134.1567117</v>
+        <v>134.1167208</v>
       </c>
       <c r="D183" t="str">
-        <v>房前公園・源平の里むれ（道の駅）</v>
+        <v>菱の池公園</v>
       </c>
       <c r="E183" t="str">
-        <v>高松市牟礼町原631-7</v>
+        <v>高松市高松町1211-28</v>
       </c>
       <c r="F183" t="str">
-        <v>087-845-6080</v>
+        <v>-</v>
       </c>
       <c r="G183" t="str">
         <v>○</v>
@@ -11187,16 +11139,16 @@
         <v/>
       </c>
       <c r="P183" t="str">
-        <v>観光交流課</v>
+        <v>公園緑地課</v>
       </c>
       <c r="Q183" t="str">
-        <v>7.5</v>
+        <v>21.3</v>
       </c>
       <c r="R183" t="str">
         <v/>
       </c>
       <c r="S183" t="str">
-        <v>むれコミュニティ協議会</v>
+        <v>古高松地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="184">
@@ -11204,19 +11156,19 @@
         <v>183</v>
       </c>
       <c r="B184" t="str">
-        <v>34.3300825</v>
+        <v>34.29543016</v>
       </c>
       <c r="C184" t="str">
-        <v>134.0258372</v>
+        <v>134.0251408</v>
       </c>
       <c r="D184" t="str">
-        <v>峰山公園</v>
+        <v>一宮新池農村公園</v>
       </c>
       <c r="E184" t="str">
-        <v>高松市峰山町1838-37</v>
+        <v>高松市一宮町1227</v>
       </c>
       <c r="F184" t="str">
-        <v>087-834-7297</v>
+        <v>-</v>
       </c>
       <c r="G184" t="str">
         <v>○</v>
@@ -11246,16 +11198,16 @@
         <v/>
       </c>
       <c r="P184" t="str">
-        <v>公園緑地課</v>
+        <v>土地改良課</v>
       </c>
       <c r="Q184" t="str">
-        <v>171.3</v>
+        <v>29.9</v>
       </c>
       <c r="R184" t="str">
         <v/>
       </c>
       <c r="S184" t="str">
-        <v>亀阜校区コミュニティ協議会</v>
+        <v>一宮地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="185">
@@ -11263,19 +11215,19 @@
         <v>184</v>
       </c>
       <c r="B185" t="str">
-        <v>34.32904333</v>
+        <v>34.33351</v>
       </c>
       <c r="C185" t="str">
-        <v>134.1246036</v>
+        <v>134.1567117</v>
       </c>
       <c r="D185" t="str">
-        <v>東部運動公園</v>
+        <v>房前公園・源平の里むれ（道の駅）</v>
       </c>
       <c r="E185" t="str">
-        <v>高松市高松町1347-1</v>
+        <v>高松市牟礼町原631-7</v>
       </c>
       <c r="F185" t="str">
-        <v>087-843-9446</v>
+        <v>087-845-6080</v>
       </c>
       <c r="G185" t="str">
         <v>○</v>
@@ -11296,7 +11248,7 @@
         <v>○</v>
       </c>
       <c r="M185" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N185" t="str">
         <v>○</v>
@@ -11305,16 +11257,16 @@
         <v/>
       </c>
       <c r="P185" t="str">
-        <v>公園緑地課</v>
+        <v>観光交流課</v>
       </c>
       <c r="Q185" t="str">
-        <v>51.3</v>
+        <v>7.5</v>
       </c>
       <c r="R185" t="str">
         <v/>
       </c>
       <c r="S185" t="str">
-        <v>古高松地区コミュニティ協議会</v>
+        <v>むれコミュニティ協議会</v>
       </c>
     </row>
     <row r="186">
@@ -11322,19 +11274,19 @@
         <v>185</v>
       </c>
       <c r="B186" t="str">
-        <v>34.27103972</v>
+        <v>34.3300825</v>
       </c>
       <c r="C186" t="str">
-        <v>134.0483483</v>
+        <v>134.0258372</v>
       </c>
       <c r="D186" t="str">
-        <v>仏生山公園</v>
+        <v>峰山公園</v>
       </c>
       <c r="E186" t="str">
-        <v>高松市仏生山町甲2654-1</v>
+        <v>高松市峰山町1838-37</v>
       </c>
       <c r="F186" t="str">
-        <v>087-881-5011</v>
+        <v>087-834-7297</v>
       </c>
       <c r="G186" t="str">
         <v>○</v>
@@ -11355,7 +11307,7 @@
         <v>○</v>
       </c>
       <c r="M186" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N186" t="str">
         <v>○</v>
@@ -11367,13 +11319,13 @@
         <v>公園緑地課</v>
       </c>
       <c r="Q186" t="str">
-        <v>46.4</v>
+        <v>171.3</v>
       </c>
       <c r="R186" t="str">
         <v/>
       </c>
       <c r="S186" t="str">
-        <v>仏生山地区コミュニティ協議会</v>
+        <v>亀阜校区コミュニティ協議会</v>
       </c>
     </row>
     <row r="187">
@@ -11381,19 +11333,19 @@
         <v>186</v>
       </c>
       <c r="B187" t="str">
-        <v>34.30253</v>
+        <v>34.32904333</v>
       </c>
       <c r="C187" t="str">
-        <v>134.06385</v>
+        <v>134.1246036</v>
       </c>
       <c r="D187" t="str">
-        <v>長池中央公園</v>
+        <v>東部運動公園</v>
       </c>
       <c r="E187" t="str">
-        <v>高松市林町2581</v>
+        <v>高松市高松町1347-1</v>
       </c>
       <c r="F187" t="str">
-        <v>-</v>
+        <v>087-843-9446</v>
       </c>
       <c r="G187" t="str">
         <v>○</v>
@@ -11426,13 +11378,13 @@
         <v>公園緑地課</v>
       </c>
       <c r="Q187" t="str">
-        <v>15.5</v>
+        <v>51.3</v>
       </c>
       <c r="R187" t="str">
         <v/>
       </c>
       <c r="S187" t="str">
-        <v>林地区コミュニティ協議会</v>
+        <v>古高松地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="188">
@@ -11440,19 +11392,19 @@
         <v>187</v>
       </c>
       <c r="B188" t="str">
-        <v>34.28000577</v>
+        <v>34.27103972</v>
       </c>
       <c r="C188" t="str">
-        <v>134.0558116</v>
+        <v>134.0483483</v>
       </c>
       <c r="D188" t="str">
-        <v>彦作池公園</v>
+        <v>仏生山公園</v>
       </c>
       <c r="E188" t="str">
-        <v>高松市多肥上町2049-1</v>
+        <v>高松市仏生山町甲2654-1</v>
       </c>
       <c r="F188" t="str">
-        <v>-</v>
+        <v>087-881-5011</v>
       </c>
       <c r="G188" t="str">
         <v>○</v>
@@ -11473,7 +11425,7 @@
         <v>○</v>
       </c>
       <c r="M188" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N188" t="str">
         <v>○</v>
@@ -11485,13 +11437,13 @@
         <v>公園緑地課</v>
       </c>
       <c r="Q188" t="str">
-        <v>32.4</v>
+        <v>46.4</v>
       </c>
       <c r="R188" t="str">
         <v/>
       </c>
       <c r="S188" t="str">
-        <v>多肥地区コミュニティ協議会</v>
+        <v>仏生山地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="189">
@@ -11499,16 +11451,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="str">
-        <v>34.24461694</v>
+        <v>34.30253</v>
       </c>
       <c r="C189" t="str">
-        <v>134.0055111</v>
+        <v>134.06385</v>
       </c>
       <c r="D189" t="str">
-        <v>月見ヶ原公園</v>
+        <v>長池中央公園</v>
       </c>
       <c r="E189" t="str">
-        <v>高松市香南町横井796-1</v>
+        <v>高松市林町2581</v>
       </c>
       <c r="F189" t="str">
         <v>-</v>
@@ -11544,13 +11496,13 @@
         <v>公園緑地課</v>
       </c>
       <c r="Q189" t="str">
-        <v>90.1</v>
+        <v>15.5</v>
       </c>
       <c r="R189" t="str">
         <v/>
       </c>
       <c r="S189" t="str">
-        <v>香南地区コミュニティ協議会</v>
+        <v>林地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="190">
@@ -11558,16 +11510,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="str">
-        <v>34.32021139</v>
+        <v>34.28000577</v>
       </c>
       <c r="C190" t="str">
-        <v>134.1508181</v>
+        <v>134.0558116</v>
       </c>
       <c r="D190" t="str">
-        <v>牟礼中央公園</v>
+        <v>彦作池公園</v>
       </c>
       <c r="E190" t="str">
-        <v>高松市牟礼町原1019-8</v>
+        <v>高松市多肥上町2049-1</v>
       </c>
       <c r="F190" t="str">
         <v>-</v>
@@ -11591,7 +11543,7 @@
         <v>○</v>
       </c>
       <c r="M190" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="N190" t="str">
         <v>○</v>
@@ -11603,13 +11555,13 @@
         <v>公園緑地課</v>
       </c>
       <c r="Q190" t="str">
-        <v>45.8</v>
+        <v>32.4</v>
       </c>
       <c r="R190" t="str">
         <v/>
       </c>
       <c r="S190" t="str">
-        <v>むれコミュニティ協議会</v>
+        <v>多肥地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="191">
@@ -11617,19 +11569,19 @@
         <v>190</v>
       </c>
       <c r="B191" t="str">
-        <v>34.34749417</v>
+        <v>34.24461694</v>
       </c>
       <c r="C191" t="str">
-        <v>134.1341633</v>
+        <v>134.0055111</v>
       </c>
       <c r="D191" t="str">
-        <v>御山公園</v>
+        <v>月見ヶ原公園</v>
       </c>
       <c r="E191" t="str">
-        <v>高松市牟礼町牟礼1355-1</v>
+        <v>高松市香南町横井796-1</v>
       </c>
       <c r="F191" t="str">
-        <v>087-845-5585</v>
+        <v>-</v>
       </c>
       <c r="G191" t="str">
         <v>○</v>
@@ -11662,13 +11614,13 @@
         <v>公園緑地課</v>
       </c>
       <c r="Q191" t="str">
-        <v>45.5</v>
+        <v>90.1</v>
       </c>
       <c r="R191" t="str">
         <v/>
       </c>
       <c r="S191" t="str">
-        <v>むれコミュニティ協議会</v>
+        <v>香南地区コミュニティ協議会</v>
       </c>
     </row>
     <row r="192">
@@ -11676,16 +11628,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="str">
-        <v>34.3081</v>
+        <v>34.32021139</v>
       </c>
       <c r="C192" t="str">
-        <v>133.9519056</v>
+        <v>134.1508181</v>
       </c>
       <c r="D192" t="str">
-        <v>如意輪寺公園</v>
+        <v>牟礼中央公園</v>
       </c>
       <c r="E192" t="str">
-        <v>高松市国分寺町国分2530-2</v>
+        <v>高松市牟礼町原1019-8</v>
       </c>
       <c r="F192" t="str">
         <v>-</v>
@@ -11709,7 +11661,7 @@
         <v>○</v>
       </c>
       <c r="M192" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="N192" t="str">
         <v>○</v>
@@ -11721,13 +11673,13 @@
         <v>公園緑地課</v>
       </c>
       <c r="Q192" t="str">
-        <v>49.1</v>
+        <v>45.8</v>
       </c>
       <c r="R192" t="str">
         <v/>
       </c>
       <c r="S192" t="str">
-        <v>国分寺北部校区コミュニティ協議会</v>
+        <v>むれコミュニティ協議会</v>
       </c>
     </row>
     <row r="193">
@@ -11735,19 +11687,19 @@
         <v>192</v>
       </c>
       <c r="B193" t="str">
-        <v>34.27257361</v>
+        <v>34.34749417</v>
       </c>
       <c r="C193" t="str">
-        <v>133.9499792</v>
+        <v>134.1341633</v>
       </c>
       <c r="D193" t="str">
-        <v>橘ノ丘公園</v>
+        <v>御山公園</v>
       </c>
       <c r="E193" t="str">
-        <v>高松市国分寺町新名2069-1</v>
+        <v>高松市牟礼町牟礼1355-1</v>
       </c>
       <c r="F193" t="str">
-        <v>-</v>
+        <v>087-845-5585</v>
       </c>
       <c r="G193" t="str">
         <v>○</v>
@@ -11759,7 +11711,7 @@
         <v>○</v>
       </c>
       <c r="J193" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K193" t="str">
         <v>○</v>
@@ -11780,13 +11732,13 @@
         <v>公園緑地課</v>
       </c>
       <c r="Q193" t="str">
-        <v>55.7</v>
+        <v>45.5</v>
       </c>
       <c r="R193" t="str">
         <v/>
       </c>
       <c r="S193" t="str">
-        <v>国分寺南部校区コミュニティ協議会</v>
+        <v>むれコミュニティ協議会</v>
       </c>
     </row>
     <row r="194">
@@ -11794,25 +11746,25 @@
         <v>193</v>
       </c>
       <c r="B194" t="str">
-        <v>34.32746</v>
+        <v>34.3081</v>
       </c>
       <c r="C194" t="str">
-        <v>134.09237</v>
+        <v>133.9519056</v>
       </c>
       <c r="D194" t="str">
-        <v>トヨタカローラ香川株式会社春日店</v>
+        <v>如意輪寺公園</v>
       </c>
       <c r="E194" t="str">
-        <v>高松市春日町902-1</v>
+        <v>高松市国分寺町国分2530-2</v>
       </c>
       <c r="F194" t="str">
-        <v>087-805-2600</v>
+        <v>-</v>
       </c>
       <c r="G194" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="H194" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="I194" t="str">
         <v>○</v>
@@ -11821,10 +11773,10 @@
         <v>○</v>
       </c>
       <c r="K194" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="L194" t="str">
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="M194" t="str">
         <v>×</v>
@@ -11836,21 +11788,133 @@
         <v/>
       </c>
       <c r="P194" t="str">
-        <v>トヨタカローラ香川株式会社</v>
+        <v>公園緑地課</v>
       </c>
       <c r="Q194" t="str">
-        <v>1.9</v>
+        <v>49.1</v>
       </c>
       <c r="R194" t="str">
-        <v>121</v>
+        <v/>
       </c>
       <c r="S194" t="str">
-        <v>古高松地区コミュニティ協議会</v>
+        <v>国分寺北部校区コミュニティ協議会</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>194</v>
+      </c>
+      <c r="B195" t="str">
+        <v>34.27257361</v>
+      </c>
+      <c r="C195" t="str">
+        <v>133.9499792</v>
+      </c>
+      <c r="D195" t="str">
+        <v>橘ノ丘公園</v>
+      </c>
+      <c r="E195" t="str">
+        <v>高松市国分寺町新名2069-1</v>
+      </c>
+      <c r="F195" t="str">
+        <v>-</v>
+      </c>
+      <c r="G195" t="str">
+        <v>○</v>
+      </c>
+      <c r="H195" t="str">
+        <v>○</v>
+      </c>
+      <c r="I195" t="str">
+        <v>○</v>
+      </c>
+      <c r="J195" t="str">
+        <v>×</v>
+      </c>
+      <c r="K195" t="str">
+        <v>○</v>
+      </c>
+      <c r="L195" t="str">
+        <v>○</v>
+      </c>
+      <c r="M195" t="str">
+        <v>○</v>
+      </c>
+      <c r="N195" t="str">
+        <v>○</v>
+      </c>
+      <c r="O195" t="str">
+        <v/>
+      </c>
+      <c r="P195" t="str">
+        <v>公園緑地課</v>
+      </c>
+      <c r="Q195" t="str">
+        <v>55.7</v>
+      </c>
+      <c r="R195" t="str">
+        <v/>
+      </c>
+      <c r="S195" t="str">
+        <v>国分寺南部校区コミュニティ協議会</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>195</v>
+      </c>
+      <c r="B196" t="str">
+        <v>34.34400451572152</v>
+      </c>
+      <c r="C196" t="str">
+        <v>134.0344176254511</v>
+      </c>
+      <c r="D196" t="str">
+        <v>中央図書館</v>
+      </c>
+      <c r="E196" t="str">
+        <v>昭和町一丁目2-20</v>
+      </c>
+      <c r="F196" t="str">
+        <v>087-861-4501</v>
+      </c>
+      <c r="G196" t="str">
+        <v>○</v>
+      </c>
+      <c r="H196" t="str">
+        <v>△</v>
+      </c>
+      <c r="I196" t="str">
+        <v>○</v>
+      </c>
+      <c r="J196" t="str">
+        <v>○</v>
+      </c>
+      <c r="K196" t="str">
+        <v>△</v>
+      </c>
+      <c r="L196" t="str">
+        <v>△</v>
+      </c>
+      <c r="M196" t="str">
+        <v>×</v>
+      </c>
+      <c r="N196" t="str">
+        <v>○</v>
+      </c>
+      <c r="P196" t="str">
+        <v>中央図書館</v>
+      </c>
+      <c r="Q196" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="S196" t="str">
+        <v>四番丁コミュニティ協議会</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S194"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S196"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/evacuation_space/data.xlsx
+++ b/data/evacuation_space/data.xlsx
@@ -6315,6 +6315,51 @@
       <c r="D101" t="str">
         <v>新規マップピン</v>
       </c>
+      <c r="E101" t="str">
+        <v/>
+      </c>
+      <c r="F101" t="str">
+        <v/>
+      </c>
+      <c r="G101" t="str">
+        <v/>
+      </c>
+      <c r="H101" t="str">
+        <v/>
+      </c>
+      <c r="I101" t="str">
+        <v/>
+      </c>
+      <c r="J101" t="str">
+        <v/>
+      </c>
+      <c r="K101" t="str">
+        <v/>
+      </c>
+      <c r="L101" t="str">
+        <v/>
+      </c>
+      <c r="M101" t="str">
+        <v/>
+      </c>
+      <c r="N101" t="str">
+        <v/>
+      </c>
+      <c r="O101" t="str">
+        <v/>
+      </c>
+      <c r="P101" t="str">
+        <v/>
+      </c>
+      <c r="Q101" t="str">
+        <v/>
+      </c>
+      <c r="R101" t="str">
+        <v/>
+      </c>
+      <c r="S101" t="str">
+        <v/>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -9486,6 +9531,9 @@
       <c r="N155" t="str">
         <v>○</v>
       </c>
+      <c r="O155" t="str">
+        <v/>
+      </c>
       <c r="P155" t="str">
         <v>トヨタカローラ香川株式会社</v>
       </c>
@@ -10867,7 +10915,7 @@
         <v>134.0474322</v>
       </c>
       <c r="D179" t="str">
-        <v>中央公園</v>
+        <v>中央公園(※改修工事中のため令和９年夏頃まで使用不可)</v>
       </c>
       <c r="E179" t="str">
         <v>高松市番町１丁目11-1</v>
@@ -11902,11 +11950,17 @@
       <c r="N196" t="str">
         <v>○</v>
       </c>
+      <c r="O196" t="str">
+        <v/>
+      </c>
       <c r="P196" t="str">
         <v>中央図書館</v>
       </c>
       <c r="Q196" t="str">
         <v>1.5</v>
+      </c>
+      <c r="R196" t="str">
+        <v/>
       </c>
       <c r="S196" t="str">
         <v>四番丁コミュニティ協議会</v>
